--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J475"/>
+  <dimension ref="A1:J476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15581,31 +15581,63 @@
         <v>45684</v>
       </c>
       <c r="B475">
-        <v>2.372280053435389</v>
+        <v>2.226436275869086</v>
       </c>
       <c r="C475">
-        <v>0.5093569158556058</v>
+        <v>0.5108436718503794</v>
       </c>
       <c r="D475">
-        <v>2.889830438961165</v>
+        <v>2.559692570813155</v>
       </c>
       <c r="E475">
-        <v>57.78767384</v>
+        <v>57.46529285</v>
       </c>
       <c r="F475">
-        <v>68.74961173673455</v>
+        <v>62.14442070265522</v>
       </c>
       <c r="G475">
         <v>1.022617577037755</v>
       </c>
       <c r="H475">
-        <v>0.839573247321912</v>
+        <v>0.08790635023872007</v>
       </c>
       <c r="I475">
         <v>0.6595891118049622</v>
       </c>
       <c r="J475">
-        <v>103650</v>
+        <v>97424.78090005839</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10">
+      <c r="A476" s="2">
+        <v>45691</v>
+      </c>
+      <c r="B476">
+        <v>2.217698664292402</v>
+      </c>
+      <c r="C476">
+        <v>0.5030542604703718</v>
+      </c>
+      <c r="D476">
+        <v>2.569352881075851</v>
+      </c>
+      <c r="E476">
+        <v>57.74705798</v>
+      </c>
+      <c r="F476">
+        <v>62.26278322651003</v>
+      </c>
+      <c r="G476">
+        <v>1.01932405698272</v>
+      </c>
+      <c r="H476">
+        <v>3.19599309967773</v>
+      </c>
+      <c r="I476">
+        <v>0.6660023927688599</v>
+      </c>
+      <c r="J476">
+        <v>97599.99000000001</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J529"/>
+  <dimension ref="A1:J530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17258,31 +17258,63 @@
         <v>45691</v>
       </c>
       <c r="B529">
-        <v>2.217698664292402</v>
+        <v>2.172389252807532</v>
       </c>
       <c r="C529">
-        <v>0.5030542604703718</v>
+        <v>0.503351974340427</v>
       </c>
       <c r="D529">
-        <v>2.569352881075851</v>
+        <v>2.467318465017778</v>
       </c>
       <c r="E529">
-        <v>57.74705798</v>
+        <v>55.27625851</v>
       </c>
       <c r="F529">
-        <v>62.26278322651003</v>
+        <v>60.92825686428871</v>
       </c>
       <c r="G529">
-        <v>1.01932405698272</v>
+        <v>1.067762423664825</v>
       </c>
       <c r="H529">
-        <v>2.699021381595124</v>
+        <v>3.623512206270152</v>
       </c>
       <c r="I529">
         <v>0.6660023927688599</v>
       </c>
       <c r="J529">
-        <v>97599.99000000001</v>
+        <v>96309.7532405026</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10">
+      <c r="A530" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B530">
+        <v>2.147090775186224</v>
+      </c>
+      <c r="C530">
+        <v>0.4970581683250682</v>
+      </c>
+      <c r="D530">
+        <v>2.438265570672469</v>
+      </c>
+      <c r="E530">
+        <v>55.60884301</v>
+      </c>
+      <c r="F530">
+        <v>60.15537220101619</v>
+      </c>
+      <c r="G530">
+        <v>1.057525213443455</v>
+      </c>
+      <c r="H530">
+        <v>1.496804589711176</v>
+      </c>
+      <c r="I530">
+        <v>0.6733283400535583</v>
+      </c>
+      <c r="J530">
+        <v>95630</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J530"/>
+  <dimension ref="A1:J531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17290,31 +17290,63 @@
         <v>45698</v>
       </c>
       <c r="B530">
-        <v>2.147090775186224</v>
+        <v>2.159797294143102</v>
       </c>
       <c r="C530">
-        <v>0.4970581683250682</v>
+        <v>0.4969347910321221</v>
       </c>
       <c r="D530">
-        <v>2.438265570672469</v>
+        <v>2.43314254816511</v>
       </c>
       <c r="E530">
-        <v>55.60884301</v>
+        <v>55.58595516</v>
       </c>
       <c r="F530">
-        <v>60.15537220101619</v>
+        <v>60.78179362480967</v>
       </c>
       <c r="G530">
         <v>1.057525213443455</v>
       </c>
       <c r="H530">
-        <v>1.496804589711176</v>
+        <v>0.2087972792547355</v>
       </c>
       <c r="I530">
         <v>0.6733283400535583</v>
       </c>
       <c r="J530">
-        <v>95630</v>
+        <v>96182.2661706604</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10">
+      <c r="A531" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B531">
+        <v>2.137790446805443</v>
+      </c>
+      <c r="C531">
+        <v>0.490561402051162</v>
+      </c>
+      <c r="D531">
+        <v>2.395305803452226</v>
+      </c>
+      <c r="E531">
+        <v>54.84535225</v>
+      </c>
+      <c r="F531">
+        <v>59.75687097119386</v>
+      </c>
+      <c r="G531">
+        <v>1.048905426508895</v>
+      </c>
+      <c r="H531">
+        <v>0.4711227966739617</v>
+      </c>
+      <c r="I531">
+        <v>0.6774045825004578</v>
+      </c>
+      <c r="J531">
+        <v>95337.62</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -17340,7 +17340,7 @@
         <v>1.048905426508895</v>
       </c>
       <c r="H531">
-        <v>0.4711227966739617</v>
+        <v>0.4970814768624932</v>
       </c>
       <c r="I531">
         <v>0.6774045825004578</v>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J531"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17322,31 +17322,63 @@
         <v>45705</v>
       </c>
       <c r="B531">
-        <v>2.137790446805443</v>
+        <v>2.152281426695374</v>
       </c>
       <c r="C531">
-        <v>0.490561402051162</v>
+        <v>0.490398757795606</v>
       </c>
       <c r="D531">
-        <v>2.395305803452226</v>
+        <v>2.403120917869384</v>
       </c>
       <c r="E531">
-        <v>54.84535225</v>
+        <v>55.07346588</v>
       </c>
       <c r="F531">
-        <v>59.75687097119386</v>
+        <v>60.67013541213771</v>
       </c>
       <c r="G531">
-        <v>1.048905426508895</v>
+        <v>1.02066231212559</v>
       </c>
       <c r="H531">
-        <v>0.4970814768624932</v>
+        <v>0.2961797266078481</v>
       </c>
       <c r="I531">
         <v>0.6774045825004578</v>
       </c>
       <c r="J531">
-        <v>95337.62</v>
+        <v>96091.63297749851</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10">
+      <c r="A532" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B532">
+        <v>1.980493346251423</v>
+      </c>
+      <c r="C532">
+        <v>0.4851908573271597</v>
+      </c>
+      <c r="D532">
+        <v>2.067286854478257</v>
+      </c>
+      <c r="E532">
+        <v>53.01406224</v>
+      </c>
+      <c r="F532">
+        <v>52.38490078887447</v>
+      </c>
+      <c r="G532">
+        <v>1.017658429823554</v>
+      </c>
+      <c r="H532">
+        <v>-0.2167236233498793</v>
+      </c>
+      <c r="I532">
+        <v>0.6819115281105042</v>
+      </c>
+      <c r="J532">
+        <v>88845.87</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17354,31 +17354,63 @@
         <v>45712</v>
       </c>
       <c r="B532">
-        <v>1.980493346251423</v>
+        <v>2.09749010064619</v>
       </c>
       <c r="C532">
-        <v>0.4851908573271597</v>
+        <v>0.4840445794792705</v>
       </c>
       <c r="D532">
-        <v>2.067286854478257</v>
+        <v>2.307412762143986</v>
       </c>
       <c r="E532">
-        <v>53.01406224</v>
+        <v>49.63466733</v>
       </c>
       <c r="F532">
-        <v>52.38490078887447</v>
+        <v>58.42113049885942</v>
       </c>
       <c r="G532">
         <v>1.017658429823554</v>
       </c>
       <c r="H532">
-        <v>-0.2167236233498793</v>
+        <v>1.212509725306887</v>
       </c>
       <c r="I532">
         <v>0.6819115281105042</v>
       </c>
       <c r="J532">
-        <v>88845.87</v>
+        <v>94328.00944447691</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10">
+      <c r="A533" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B533">
+        <v>1.942984320442183</v>
+      </c>
+      <c r="C533">
+        <v>0.4807847074602101</v>
+      </c>
+      <c r="D533">
+        <v>1.989049508589191</v>
+      </c>
+      <c r="E533">
+        <v>49.71989554</v>
+      </c>
+      <c r="F533">
+        <v>50.69942998149145</v>
+      </c>
+      <c r="G533">
+        <v>1.015097711010136</v>
+      </c>
+      <c r="H533">
+        <v>-0.9207002237236028</v>
+      </c>
+      <c r="I533">
+        <v>0.6878000497817993</v>
+      </c>
+      <c r="J533">
+        <v>87599.55</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J533"/>
+  <dimension ref="A1:J534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17386,31 +17386,63 @@
         <v>45719</v>
       </c>
       <c r="B533">
-        <v>1.942984320442183</v>
+        <v>1.785116575029412</v>
       </c>
       <c r="C533">
-        <v>0.4807847074602101</v>
+        <v>0.4822126256051544</v>
       </c>
       <c r="D533">
-        <v>1.989049508589191</v>
+        <v>1.675130573751481</v>
       </c>
       <c r="E533">
-        <v>49.71989554</v>
+        <v>49.58605341</v>
       </c>
       <c r="F533">
-        <v>50.69942998149145</v>
+        <v>44.60781212959165</v>
       </c>
       <c r="G533">
-        <v>1.015097711010136</v>
+        <v>1.02748250590624</v>
       </c>
       <c r="H533">
-        <v>-0.9207002237236028</v>
+        <v>-0.4586943466390769</v>
       </c>
       <c r="I533">
         <v>0.6878000497817993</v>
       </c>
       <c r="J533">
-        <v>87599.55</v>
+        <v>80647.7964108709</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10">
+      <c r="A534" s="2">
+        <v>45726</v>
+      </c>
+      <c r="B534">
+        <v>1.832323919611125</v>
+      </c>
+      <c r="C534">
+        <v>0.4802972352685188</v>
+      </c>
+      <c r="D534">
+        <v>1.76772495165094</v>
+      </c>
+      <c r="E534">
+        <v>45.41281397</v>
+      </c>
+      <c r="F534">
+        <v>47.04096332102084</v>
+      </c>
+      <c r="G534">
+        <v>1.023464311052906</v>
+      </c>
+      <c r="H534">
+        <v>0.1979928135648068</v>
+      </c>
+      <c r="I534">
+        <v>0.6864444017410278</v>
+      </c>
+      <c r="J534">
+        <v>83116.16</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J534"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17418,31 +17418,63 @@
         <v>45726</v>
       </c>
       <c r="B534">
-        <v>1.832323919611125</v>
+        <v>1.815928460182456</v>
       </c>
       <c r="C534">
-        <v>0.4802972352685188</v>
+        <v>0.4804242620176978</v>
       </c>
       <c r="D534">
-        <v>1.76772495165094</v>
+        <v>1.745643531111315</v>
       </c>
       <c r="E534">
-        <v>45.41281397</v>
+        <v>48.40436123</v>
       </c>
       <c r="F534">
-        <v>47.04096332102084</v>
+        <v>46.44622501294415</v>
       </c>
       <c r="G534">
         <v>1.023464311052906</v>
       </c>
       <c r="H534">
-        <v>0.1979928135648068</v>
+        <v>0.07498102013752117</v>
       </c>
       <c r="I534">
         <v>0.6864444017410278</v>
       </c>
       <c r="J534">
-        <v>83116.16</v>
+        <v>82492.1028287551</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10">
+      <c r="A535" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B535">
+        <v>1.812914666627164</v>
+      </c>
+      <c r="C535">
+        <v>0.4794602211472156</v>
+      </c>
+      <c r="D535">
+        <v>1.752638144396374</v>
+      </c>
+      <c r="E535">
+        <v>48.17859296</v>
+      </c>
+      <c r="F535">
+        <v>46.40040700203526</v>
+      </c>
+      <c r="G535">
+        <v>1.020045074635872</v>
+      </c>
+      <c r="H535">
+        <v>-0.04155288231265652</v>
+      </c>
+      <c r="I535">
+        <v>0.681629478931427</v>
+      </c>
+      <c r="J535">
+        <v>82441.14999999999</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J535"/>
+  <dimension ref="A1:J536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17450,31 +17450,63 @@
         <v>45733</v>
       </c>
       <c r="B535">
-        <v>1.812914666627164</v>
+        <v>1.882119349760018</v>
       </c>
       <c r="C535">
-        <v>0.4794602211472156</v>
+        <v>0.4787920636151367</v>
       </c>
       <c r="D535">
-        <v>1.752638144396374</v>
+        <v>1.87808353230159</v>
       </c>
       <c r="E535">
-        <v>48.17859296</v>
+        <v>48.06036485</v>
       </c>
       <c r="F535">
-        <v>46.40040700203526</v>
+        <v>49.63663426698965</v>
       </c>
       <c r="G535">
-        <v>1.020045074635872</v>
+        <v>1.032513244813934</v>
       </c>
       <c r="H535">
-        <v>-0.04155288231265652</v>
+        <v>0.5764913929558357</v>
       </c>
       <c r="I535">
         <v>0.681629478931427</v>
       </c>
       <c r="J535">
-        <v>82441.14999999999</v>
+        <v>85760.8814506137</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10">
+      <c r="A536" s="2">
+        <v>45740</v>
+      </c>
+      <c r="B536">
+        <v>1.917293835612691</v>
+      </c>
+      <c r="C536">
+        <v>0.4797430502987418</v>
+      </c>
+      <c r="D536">
+        <v>1.948745990405471</v>
+      </c>
+      <c r="E536">
+        <v>50.10023951</v>
+      </c>
+      <c r="F536">
+        <v>51.27494120578657</v>
+      </c>
+      <c r="G536">
+        <v>1.027739651827525</v>
+      </c>
+      <c r="H536">
+        <v>0.4142038584296293</v>
+      </c>
+      <c r="I536">
+        <v>0.6774072647094727</v>
+      </c>
+      <c r="J536">
+        <v>87474</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J536"/>
+  <dimension ref="A1:J537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17482,31 +17482,63 @@
         <v>45740</v>
       </c>
       <c r="B536">
-        <v>1.917293835612691</v>
+        <v>1.80175842007386</v>
       </c>
       <c r="C536">
-        <v>0.4797430502987418</v>
+        <v>0.4808010010192146</v>
       </c>
       <c r="D536">
-        <v>1.948745990405471</v>
+        <v>1.706697418545975</v>
       </c>
       <c r="E536">
-        <v>50.10023951</v>
+        <v>46.84289835</v>
       </c>
       <c r="F536">
-        <v>51.27494120578657</v>
+        <v>46.40818057293777</v>
       </c>
       <c r="G536">
         <v>1.027739651827525</v>
       </c>
       <c r="H536">
-        <v>0.4142038584296293</v>
+        <v>-0.4579008609819635</v>
       </c>
       <c r="I536">
         <v>0.6774072647094727</v>
       </c>
       <c r="J536">
-        <v>87474</v>
+        <v>82216.4666765049</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10">
+      <c r="A537" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B537">
+        <v>1.866632756412493</v>
+      </c>
+      <c r="C537">
+        <v>0.4845703712335291</v>
+      </c>
+      <c r="D537">
+        <v>1.838663445197967</v>
+      </c>
+      <c r="E537">
+        <v>47.05625261</v>
+      </c>
+      <c r="F537">
+        <v>49.46836317119275</v>
+      </c>
+      <c r="G537">
+        <v>1.023682993282466</v>
+      </c>
+      <c r="H537">
+        <v>0.3327304826337363</v>
+      </c>
+      <c r="I537">
+        <v>0.6716356873512268</v>
+      </c>
+      <c r="J537">
+        <v>85280.91</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J537"/>
+  <dimension ref="A1:J538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17514,31 +17514,63 @@
         <v>45747</v>
       </c>
       <c r="B537">
-        <v>1.866632756412493</v>
+        <v>1.6985183741486</v>
       </c>
       <c r="C537">
-        <v>0.4845703712335291</v>
+        <v>0.486073864997257</v>
       </c>
       <c r="D537">
-        <v>1.838663445197967</v>
+        <v>1.50633876854923</v>
       </c>
       <c r="E537">
-        <v>47.05625261</v>
+        <v>47.18767409</v>
       </c>
       <c r="F537">
-        <v>49.46836317119275</v>
+        <v>42.79885802011866</v>
       </c>
       <c r="G537">
-        <v>1.023682993282466</v>
+        <v>1.08263967419379</v>
       </c>
       <c r="H537">
-        <v>0.3327304826337363</v>
+        <v>-0.417202074118439</v>
       </c>
       <c r="I537">
         <v>0.6716356873512268</v>
       </c>
       <c r="J537">
-        <v>85280.91</v>
+        <v>77949.0884926943</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10">
+      <c r="A538" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B538">
+        <v>1.672745636546524</v>
+      </c>
+      <c r="C538">
+        <v>0.4936289872506107</v>
+      </c>
+      <c r="D538">
+        <v>1.435469552700401</v>
+      </c>
+      <c r="E538">
+        <v>44.79094424</v>
+      </c>
+      <c r="F538">
+        <v>42.0064765051406</v>
+      </c>
+      <c r="G538">
+        <v>1.070007520920395</v>
+      </c>
+      <c r="H538">
+        <v>0.06774560119782169</v>
+      </c>
+      <c r="I538">
+        <v>0.6611138582229614</v>
+      </c>
+      <c r="J538">
+        <v>76988</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J538"/>
+  <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17546,31 +17546,63 @@
         <v>45754</v>
       </c>
       <c r="B538">
-        <v>1.672745636546524</v>
+        <v>1.808642182982328</v>
       </c>
       <c r="C538">
-        <v>0.4936289872506107</v>
+        <v>0.4922369844524472</v>
       </c>
       <c r="D538">
-        <v>1.435469552700401</v>
+        <v>1.740983508531215</v>
       </c>
       <c r="E538">
-        <v>44.79094424</v>
+        <v>48.6275228</v>
       </c>
       <c r="F538">
-        <v>42.0064765051406</v>
+        <v>48.48142427175795</v>
       </c>
       <c r="G538">
         <v>1.070007520920395</v>
       </c>
       <c r="H538">
-        <v>0.06774560119782169</v>
+        <v>1.054389511503784</v>
       </c>
       <c r="I538">
         <v>0.6611138582229614</v>
       </c>
       <c r="J538">
-        <v>76988</v>
+        <v>83568.9544360023</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10">
+      <c r="A539" s="2">
+        <v>45761</v>
+      </c>
+      <c r="B539">
+        <v>1.811774109552587</v>
+      </c>
+      <c r="C539">
+        <v>0.4985081194509074</v>
+      </c>
+      <c r="D539">
+        <v>1.745135402803062</v>
+      </c>
+      <c r="E539">
+        <v>48.11680039</v>
+      </c>
+      <c r="F539">
+        <v>48.80952875079814</v>
+      </c>
+      <c r="G539">
+        <v>1.059412260068952</v>
+      </c>
+      <c r="H539">
+        <v>-0.8543325491649156</v>
+      </c>
+      <c r="I539">
+        <v>0.6502456665039062</v>
+      </c>
+      <c r="J539">
+        <v>83905.64</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J539"/>
+  <dimension ref="A1:J540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17578,31 +17578,63 @@
         <v>45761</v>
       </c>
       <c r="B539">
-        <v>1.811774109552587</v>
+        <v>1.833631359001424</v>
       </c>
       <c r="C539">
-        <v>0.4985081194509074</v>
+        <v>0.4982502695345901</v>
       </c>
       <c r="D539">
-        <v>1.745135402803062</v>
+        <v>1.802432891118666</v>
       </c>
       <c r="E539">
-        <v>48.11680039</v>
+        <v>48.6653269</v>
       </c>
       <c r="F539">
-        <v>48.80952875079814</v>
+        <v>49.94210161711194</v>
       </c>
       <c r="G539">
-        <v>1.059412260068952</v>
+        <v>1.072160484448199</v>
       </c>
       <c r="H539">
-        <v>-0.8543325491649156</v>
+        <v>0.362877749727164</v>
       </c>
       <c r="I539">
         <v>0.6502456665039062</v>
       </c>
       <c r="J539">
-        <v>83905.64</v>
+        <v>85101.74615458791</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10">
+      <c r="A540" s="2">
+        <v>45768</v>
+      </c>
+      <c r="B540">
+        <v>2.005412215255971</v>
+      </c>
+      <c r="C540">
+        <v>0.5035851865684796</v>
+      </c>
+      <c r="D540">
+        <v>2.161380194536735</v>
+      </c>
+      <c r="E540">
+        <v>49.65986338</v>
+      </c>
+      <c r="F540">
+        <v>56.93292817063122</v>
+      </c>
+      <c r="G540">
+        <v>1.061220741192354</v>
+      </c>
+      <c r="H540">
+        <v>1.558717387382536</v>
+      </c>
+      <c r="I540">
+        <v>0.6386415362358093</v>
+      </c>
+      <c r="J540">
+        <v>93250.5</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J540"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17610,31 +17610,63 @@
         <v>45768</v>
       </c>
       <c r="B540">
-        <v>2.005412215255971</v>
+        <v>2.007064223561584</v>
       </c>
       <c r="C540">
-        <v>0.5035851865684796</v>
+        <v>0.5034619422573574</v>
       </c>
       <c r="D540">
-        <v>2.161380194536735</v>
+        <v>2.145063430539812</v>
       </c>
       <c r="E540">
-        <v>49.65986338</v>
+        <v>53.02736129</v>
       </c>
       <c r="F540">
-        <v>56.93292817063122</v>
+        <v>57.34405092703624</v>
       </c>
       <c r="G540">
         <v>1.061220741192354</v>
       </c>
       <c r="H540">
-        <v>1.558717387382536</v>
+        <v>0.7700683636846728</v>
       </c>
       <c r="I540">
         <v>0.6386415362358093</v>
       </c>
       <c r="J540">
-        <v>93250.5</v>
+        <v>93812.876534775</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10">
+      <c r="A541" s="2">
+        <v>45775</v>
+      </c>
+      <c r="B541">
+        <v>2.01220298028551</v>
+      </c>
+      <c r="C541">
+        <v>0.5094351357331968</v>
+      </c>
+      <c r="D541">
+        <v>2.149827372442422</v>
+      </c>
+      <c r="E541">
+        <v>52.9957549</v>
+      </c>
+      <c r="F541">
+        <v>57.93759369932081</v>
+      </c>
+      <c r="G541">
+        <v>1.052019963773586</v>
+      </c>
+      <c r="H541">
+        <v>2.216421728980222</v>
+      </c>
+      <c r="I541">
+        <v>0.6292807459831238</v>
+      </c>
+      <c r="J541">
+        <v>94584.8</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17642,31 +17642,63 @@
         <v>45775</v>
       </c>
       <c r="B541">
-        <v>2.01220298028551</v>
+        <v>2.00308044182545</v>
       </c>
       <c r="C541">
-        <v>0.5094351357331968</v>
+        <v>0.5094814150464051</v>
       </c>
       <c r="D541">
-        <v>2.149827372442422</v>
+        <v>2.140586316360153</v>
       </c>
       <c r="E541">
-        <v>52.9957549</v>
+        <v>53.61823884</v>
       </c>
       <c r="F541">
-        <v>57.93759369932081</v>
+        <v>57.78004769213506</v>
       </c>
       <c r="G541">
-        <v>1.052019963773586</v>
+        <v>1.021997222157899</v>
       </c>
       <c r="H541">
-        <v>2.216421728980222</v>
+        <v>0.1713414492450882</v>
       </c>
       <c r="I541">
         <v>0.6292807459831238</v>
       </c>
       <c r="J541">
-        <v>94584.8</v>
+        <v>94377.78991963759</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10">
+      <c r="A542" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B542">
+        <v>1.993695139660456</v>
+      </c>
+      <c r="C542">
+        <v>0.512903535607143</v>
+      </c>
+      <c r="D542">
+        <v>2.229784229026972</v>
+      </c>
+      <c r="E542">
+        <v>52.74870033</v>
+      </c>
+      <c r="F542">
+        <v>58.13837013170215</v>
+      </c>
+      <c r="G542">
+        <v>1.01879569711747</v>
+      </c>
+      <c r="H542">
+        <v>1.89837261116419</v>
+      </c>
+      <c r="I542">
+        <v>0.6225997805595398</v>
+      </c>
+      <c r="J542">
+        <v>94817.08</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17674,31 +17674,63 @@
         <v>45782</v>
       </c>
       <c r="B542">
-        <v>1.993695139660456</v>
+        <v>2.179648447758372</v>
       </c>
       <c r="C542">
-        <v>0.512903535607143</v>
+        <v>0.5108484896487172</v>
       </c>
       <c r="D542">
-        <v>2.229784229026972</v>
+        <v>2.512200364464867</v>
       </c>
       <c r="E542">
-        <v>52.74870033</v>
+        <v>56.4754816</v>
       </c>
       <c r="F542">
-        <v>58.13837013170215</v>
+        <v>64.43217137419421</v>
       </c>
       <c r="G542">
         <v>1.01879569711747</v>
       </c>
       <c r="H542">
-        <v>1.89837261116419</v>
+        <v>1.120049613003382</v>
       </c>
       <c r="I542">
         <v>0.6225997805595398</v>
       </c>
       <c r="J542">
-        <v>94817.08</v>
+        <v>103976.137798948</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10">
+      <c r="A543" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B543">
+        <v>2.174439356243377</v>
+      </c>
+      <c r="C543">
+        <v>0.5117533967000821</v>
+      </c>
+      <c r="D543">
+        <v>2.508154674679554</v>
+      </c>
+      <c r="E543">
+        <v>55.71173169</v>
+      </c>
+      <c r="F543">
+        <v>64.71225868421709</v>
+      </c>
+      <c r="G543">
+        <v>1.016067454812958</v>
+      </c>
+      <c r="H543">
+        <v>3.217227839943848</v>
+      </c>
+      <c r="I543">
+        <v>0.6211040616035461</v>
+      </c>
+      <c r="J543">
+        <v>104425.13</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J543"/>
+  <dimension ref="A1:J544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17706,31 +17706,63 @@
         <v>45789</v>
       </c>
       <c r="B543">
-        <v>2.174439356243377</v>
+        <v>2.202843355885606</v>
       </c>
       <c r="C543">
-        <v>0.5117533967000821</v>
+        <v>0.5113999241173621</v>
       </c>
       <c r="D543">
-        <v>2.508154674679554</v>
+        <v>2.557515312121432</v>
       </c>
       <c r="E543">
-        <v>55.71173169</v>
+        <v>55.82312804</v>
       </c>
       <c r="F543">
-        <v>64.71225868421709</v>
+        <v>65.66994181390805</v>
       </c>
       <c r="G543">
-        <v>1.016067454812958</v>
+        <v>1.034547608728987</v>
       </c>
       <c r="H543">
-        <v>3.217227839943848</v>
+        <v>1.28016671942206</v>
       </c>
       <c r="I543">
         <v>0.6211040616035461</v>
       </c>
       <c r="J543">
-        <v>104425.13</v>
+        <v>106015.689848919</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10">
+      <c r="A544" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B544">
+        <v>2.201629677150359</v>
+      </c>
+      <c r="C544">
+        <v>0.5129777309146766</v>
+      </c>
+      <c r="D544">
+        <v>2.582774416852897</v>
+      </c>
+      <c r="E544">
+        <v>56.54864012</v>
+      </c>
+      <c r="F544">
+        <v>66.07316555654444</v>
+      </c>
+      <c r="G544">
+        <v>1.029466806382362</v>
+      </c>
+      <c r="H544">
+        <v>2.554532108493968</v>
+      </c>
+      <c r="I544">
+        <v>0.6224254369735718</v>
+      </c>
+      <c r="J544">
+        <v>106662.49</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J544"/>
+  <dimension ref="A1:J545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16688,7 +16688,7 @@
         <v>0.6330298148749738</v>
       </c>
       <c r="D511">
-        <v>1.695086696571917</v>
+        <v>1.696164974940352</v>
       </c>
       <c r="E511">
         <v>48.37127543</v>
@@ -16720,7 +16720,7 @@
         <v>0.63939715874584</v>
       </c>
       <c r="D512">
-        <v>1.664324959301048</v>
+        <v>1.665551996557877</v>
       </c>
       <c r="E512">
         <v>48.79273292</v>
@@ -16735,7 +16735,7 @@
         <v>0.794711395600034</v>
       </c>
       <c r="I512">
-        <v>0.4624601900577545</v>
+        <v>0.4624643623828888</v>
       </c>
       <c r="J512">
         <v>62759.431113384</v>
@@ -16752,7 +16752,7 @@
         <v>0.6424155030609533</v>
       </c>
       <c r="D513">
-        <v>1.977192857158895</v>
+        <v>1.978709591462637</v>
       </c>
       <c r="E513">
         <v>52.07061351</v>
@@ -16767,7 +16767,7 @@
         <v>5.973047604075576</v>
       </c>
       <c r="I513">
-        <v>0.4666055142879486</v>
+        <v>0.4666163325309753</v>
       </c>
       <c r="J513">
         <v>69012.35320894211</v>
@@ -16784,7 +16784,7 @@
         <v>0.6465871895242613</v>
       </c>
       <c r="D514">
-        <v>1.901742891082644</v>
+        <v>1.903324545069853</v>
       </c>
       <c r="E514">
         <v>51.03196562</v>
@@ -16799,7 +16799,7 @@
         <v>1.094576386141322</v>
       </c>
       <c r="I514">
-        <v>0.4769414961338043</v>
+        <v>0.4769619107246399</v>
       </c>
       <c r="J514">
         <v>68000.1475008767</v>
@@ -16816,7 +16816,7 @@
         <v>0.6483252865846113</v>
       </c>
       <c r="D515">
-        <v>1.916641925929204</v>
+        <v>1.918084078079499</v>
       </c>
       <c r="E515">
         <v>51.76475474</v>
@@ -16831,7 +16831,7 @@
         <v>0.3970273283649517</v>
       </c>
       <c r="I515">
-        <v>0.4838529527187347</v>
+        <v>0.4838846623897552</v>
       </c>
       <c r="J515">
         <v>68742.7546227352</v>
@@ -16848,7 +16848,7 @@
         <v>0.642922359204719</v>
       </c>
       <c r="D516">
-        <v>2.497704217903252</v>
+        <v>2.501440986327097</v>
       </c>
       <c r="E516">
         <v>55.96035811</v>
@@ -16863,7 +16863,7 @@
         <v>2.745434731379093</v>
       </c>
       <c r="I516">
-        <v>0.4894328415393829</v>
+        <v>0.489477127790451</v>
       </c>
       <c r="J516">
         <v>80409.28656662771</v>
@@ -16880,7 +16880,7 @@
         <v>0.6336821575168828</v>
       </c>
       <c r="D517">
-        <v>2.900783691959819</v>
+        <v>2.905218012358775</v>
       </c>
       <c r="E517">
         <v>61.08620585</v>
@@ -16895,7 +16895,7 @@
         <v>1.792304909417264</v>
       </c>
       <c r="I517">
-        <v>0.5007900595664978</v>
+        <v>0.5008559226989746</v>
       </c>
       <c r="J517">
         <v>89732.97042928109</v>
@@ -16912,7 +16912,7 @@
         <v>0.6187644675843351</v>
       </c>
       <c r="D518">
-        <v>3.214332093114661</v>
+        <v>3.219467902151182</v>
       </c>
       <c r="E518">
         <v>62.61633967</v>
@@ -16927,7 +16927,7 @@
         <v>2.816405718103709</v>
       </c>
       <c r="I518">
-        <v>0.5180327296257019</v>
+        <v>0.5181275010108948</v>
       </c>
       <c r="J518">
         <v>97980.2082819988</v>
@@ -16944,7 +16944,7 @@
         <v>0.6070289417996042</v>
       </c>
       <c r="D519">
-        <v>3.120391843799167</v>
+        <v>3.125546196159932</v>
       </c>
       <c r="E519">
         <v>61.50908662</v>
@@ -16959,7 +16959,7 @@
         <v>1.97434518729358</v>
       </c>
       <c r="I519">
-        <v>0.5399569869041443</v>
+        <v>0.5400869250297546</v>
       </c>
       <c r="J519">
         <v>97469.60445295151</v>
@@ -16976,7 +16976,7 @@
         <v>0.5972935892914361</v>
       </c>
       <c r="D520">
-        <v>3.194460751785761</v>
+        <v>3.199803954257344</v>
       </c>
       <c r="E520">
         <v>61.64293554</v>
@@ -16991,7 +16991,7 @@
         <v>1.771398933059798</v>
       </c>
       <c r="I520">
-        <v>0.5623756647109985</v>
+        <v>0.5625441074371338</v>
       </c>
       <c r="J520">
         <v>100798.98356429</v>
@@ -17008,7 +17008,7 @@
         <v>0.586097838206267</v>
       </c>
       <c r="D521">
-        <v>3.298694534251457</v>
+        <v>3.305243572689947</v>
       </c>
       <c r="E521">
         <v>61.32892133</v>
@@ -17023,7 +17023,7 @@
         <v>3.267794682905678</v>
       </c>
       <c r="I521">
-        <v>0.5853249430656433</v>
+        <v>0.5855334997177124</v>
       </c>
       <c r="J521">
         <v>104551.367141146</v>
@@ -17040,7 +17040,7 @@
         <v>0.5740518574020853</v>
       </c>
       <c r="D522">
-        <v>2.740898093106181</v>
+        <v>2.744941014157402</v>
       </c>
       <c r="E522">
         <v>58.74535966</v>
@@ -17055,7 +17055,7 @@
         <v>6.738133550749792</v>
       </c>
       <c r="I522">
-        <v>0.6082763671875</v>
+        <v>0.6085300445556641</v>
       </c>
       <c r="J522">
         <v>95149.10582524841</v>
@@ -17072,7 +17072,7 @@
         <v>0.564106006837494</v>
       </c>
       <c r="D523">
-        <v>2.601696824493982</v>
+        <v>2.605215748062194</v>
       </c>
       <c r="E523">
         <v>57.24026093</v>
@@ -17087,7 +17087,7 @@
         <v>1.690977793454818</v>
       </c>
       <c r="I523">
-        <v>0.623753547668457</v>
+        <v>0.6240490674972534</v>
       </c>
       <c r="J523">
         <v>93457.57832028061</v>
@@ -17104,7 +17104,7 @@
         <v>0.5527709916209589</v>
       </c>
       <c r="D524">
-        <v>2.796260968720684</v>
+        <v>2.800969984942633</v>
       </c>
       <c r="E524">
         <v>58.14427333</v>
@@ -17119,7 +17119,7 @@
         <v>0.7210626257030839</v>
       </c>
       <c r="I524">
-        <v>0.6320773363113403</v>
+        <v>0.6324124336242676</v>
       </c>
       <c r="J524">
         <v>98414.81209643481</v>
@@ -17136,7 +17136,7 @@
         <v>0.5445277199826385</v>
       </c>
       <c r="D525">
-        <v>2.561536949017885</v>
+        <v>2.564996839721336</v>
       </c>
       <c r="E525">
         <v>56.26685989</v>
@@ -17151,7 +17151,7 @@
         <v>0.6197147672702075</v>
       </c>
       <c r="I525">
-        <v>0.6392703652381897</v>
+        <v>0.6396464705467224</v>
       </c>
       <c r="J525">
         <v>94353.77525862071</v>
@@ -17168,7 +17168,7 @@
         <v>0.5326133186424523</v>
       </c>
       <c r="D526">
-        <v>2.827033157625898</v>
+        <v>2.831601244616424</v>
       </c>
       <c r="E526">
         <v>58.51780586</v>
@@ -17183,7 +17183,7 @@
         <v>1.260794721631919</v>
       </c>
       <c r="I526">
-        <v>0.643413782119751</v>
+        <v>0.6438268423080444</v>
       </c>
       <c r="J526">
         <v>100954.572281999</v>
@@ -17200,7 +17200,7 @@
         <v>0.5201771747869814</v>
       </c>
       <c r="D527">
-        <v>2.853538897002827</v>
+        <v>2.857948528935437</v>
       </c>
       <c r="E527">
         <v>59.54210498</v>
@@ -17215,7 +17215,7 @@
         <v>0.8429865736807596</v>
       </c>
       <c r="I527">
-        <v>0.6506919860839844</v>
+        <v>0.6511408686637878</v>
       </c>
       <c r="J527">
         <v>102833.369273232</v>
@@ -17232,7 +17232,7 @@
         <v>0.5108436718503794</v>
       </c>
       <c r="D528">
-        <v>2.559692570813155</v>
+        <v>2.563515279422086</v>
       </c>
       <c r="E528">
         <v>57.46529285</v>
@@ -17247,7 +17247,7 @@
         <v>0.08790635023872007</v>
       </c>
       <c r="I528">
-        <v>0.6595891118049622</v>
+        <v>0.6600708365440369</v>
       </c>
       <c r="J528">
         <v>97424.78090005839</v>
@@ -17264,7 +17264,7 @@
         <v>0.503351974340427</v>
       </c>
       <c r="D529">
-        <v>2.467318465017778</v>
+        <v>2.470558777330556</v>
       </c>
       <c r="E529">
         <v>55.27625851</v>
@@ -17279,7 +17279,7 @@
         <v>3.623512206270152</v>
       </c>
       <c r="I529">
-        <v>0.6660023927688599</v>
+        <v>0.6665138006210327</v>
       </c>
       <c r="J529">
         <v>96309.7532405026</v>
@@ -17296,7 +17296,7 @@
         <v>0.4969347910321221</v>
       </c>
       <c r="D530">
-        <v>2.43314254816511</v>
+        <v>2.436138977448592</v>
       </c>
       <c r="E530">
         <v>55.58595516</v>
@@ -17311,7 +17311,7 @@
         <v>0.2087972792547355</v>
       </c>
       <c r="I530">
-        <v>0.6733283400535583</v>
+        <v>0.6738649010658264</v>
       </c>
       <c r="J530">
         <v>96182.2661706604</v>
@@ -17328,7 +17328,7 @@
         <v>0.490398757795606</v>
       </c>
       <c r="D531">
-        <v>2.403120917869384</v>
+        <v>2.405721974748321</v>
       </c>
       <c r="E531">
         <v>55.07346588</v>
@@ -17343,7 +17343,7 @@
         <v>0.2961797266078481</v>
       </c>
       <c r="I531">
-        <v>0.6774045825004578</v>
+        <v>0.677964985370636</v>
       </c>
       <c r="J531">
         <v>96091.63297749851</v>
@@ -17360,7 +17360,7 @@
         <v>0.4840445794792705</v>
       </c>
       <c r="D532">
-        <v>2.307412762143986</v>
+        <v>2.309496889533705</v>
       </c>
       <c r="E532">
         <v>49.63466733</v>
@@ -17375,7 +17375,7 @@
         <v>1.212509725306887</v>
       </c>
       <c r="I532">
-        <v>0.6819115281105042</v>
+        <v>0.6824901103973389</v>
       </c>
       <c r="J532">
         <v>94328.00944447691</v>
@@ -17392,7 +17392,7 @@
         <v>0.4822126256051544</v>
       </c>
       <c r="D533">
-        <v>1.675130573751481</v>
+        <v>1.676299684046415</v>
       </c>
       <c r="E533">
         <v>49.58605341</v>
@@ -17407,7 +17407,7 @@
         <v>-0.4586943466390769</v>
       </c>
       <c r="I533">
-        <v>0.6878000497817993</v>
+        <v>0.68839031457901</v>
       </c>
       <c r="J533">
         <v>80647.7964108709</v>
@@ -17424,7 +17424,7 @@
         <v>0.4804242620176978</v>
       </c>
       <c r="D534">
-        <v>1.745643531111315</v>
+        <v>1.747061705502933</v>
       </c>
       <c r="E534">
         <v>48.40436123</v>
@@ -17439,7 +17439,7 @@
         <v>0.07498102013752117</v>
       </c>
       <c r="I534">
-        <v>0.6864444017410278</v>
+        <v>0.6870439052581787</v>
       </c>
       <c r="J534">
         <v>82492.1028287551</v>
@@ -17456,7 +17456,7 @@
         <v>0.4787920636151367</v>
       </c>
       <c r="D535">
-        <v>1.87808353230159</v>
+        <v>1.879747782964211</v>
       </c>
       <c r="E535">
         <v>48.06036485</v>
@@ -17471,7 +17471,7 @@
         <v>0.5764913929558357</v>
       </c>
       <c r="I535">
-        <v>0.681629478931427</v>
+        <v>0.6822359561920166</v>
       </c>
       <c r="J535">
         <v>85760.8814506137</v>
@@ -17488,7 +17488,7 @@
         <v>0.4808010010192146</v>
       </c>
       <c r="D536">
-        <v>1.706697418545975</v>
+        <v>1.707971996714991</v>
       </c>
       <c r="E536">
         <v>46.84289835</v>
@@ -17503,7 +17503,7 @@
         <v>-0.4579008609819635</v>
       </c>
       <c r="I536">
-        <v>0.6774072647094727</v>
+        <v>0.6780171394348145</v>
       </c>
       <c r="J536">
         <v>82216.4666765049</v>
@@ -17520,7 +17520,7 @@
         <v>0.486073864997257</v>
       </c>
       <c r="D537">
-        <v>1.50633876854923</v>
+        <v>1.507336841296794</v>
       </c>
       <c r="E537">
         <v>47.18767409</v>
@@ -17535,7 +17535,7 @@
         <v>-0.417202074118439</v>
       </c>
       <c r="I537">
-        <v>0.6716356873512268</v>
+        <v>0.6722449660301208</v>
       </c>
       <c r="J537">
         <v>77949.0884926943</v>
@@ -17552,7 +17552,7 @@
         <v>0.4922369844524472</v>
       </c>
       <c r="D538">
-        <v>1.740983508531215</v>
+        <v>1.742335714943108</v>
       </c>
       <c r="E538">
         <v>48.6275228</v>
@@ -17567,7 +17567,7 @@
         <v>1.054389511503784</v>
       </c>
       <c r="I538">
-        <v>0.6611138582229614</v>
+        <v>0.6617199778556824</v>
       </c>
       <c r="J538">
         <v>83568.9544360023</v>
@@ -17584,7 +17584,7 @@
         <v>0.4982502695345901</v>
       </c>
       <c r="D539">
-        <v>1.802432891118666</v>
+        <v>1.803936203964546</v>
       </c>
       <c r="E539">
         <v>48.6653269</v>
@@ -17599,7 +17599,7 @@
         <v>0.362877749727164</v>
       </c>
       <c r="I539">
-        <v>0.6502456665039062</v>
+        <v>0.6508449912071228</v>
       </c>
       <c r="J539">
         <v>85101.74615458791</v>
@@ -17616,7 +17616,7 @@
         <v>0.5034619422573574</v>
       </c>
       <c r="D540">
-        <v>2.145063430539812</v>
+        <v>2.147256893765586</v>
       </c>
       <c r="E540">
         <v>53.02736129</v>
@@ -17631,7 +17631,7 @@
         <v>0.7700683636846728</v>
       </c>
       <c r="I540">
-        <v>0.6386415362358093</v>
+        <v>0.6392304301261902</v>
       </c>
       <c r="J540">
         <v>93812.876534775</v>
@@ -17648,7 +17648,7 @@
         <v>0.5094814150464051</v>
       </c>
       <c r="D541">
-        <v>2.140586316360153</v>
+        <v>2.142720974000468</v>
       </c>
       <c r="E541">
         <v>53.61823884</v>
@@ -17663,7 +17663,7 @@
         <v>0.1713414492450882</v>
       </c>
       <c r="I541">
-        <v>0.6292807459831238</v>
+        <v>0.6298568844795227</v>
       </c>
       <c r="J541">
         <v>94377.78991963759</v>
@@ -17680,7 +17680,7 @@
         <v>0.5108484896487172</v>
       </c>
       <c r="D542">
-        <v>2.512200364464867</v>
+        <v>2.515223878156271</v>
       </c>
       <c r="E542">
         <v>56.4754816</v>
@@ -17695,7 +17695,7 @@
         <v>1.120049613003382</v>
       </c>
       <c r="I542">
-        <v>0.6225997805595398</v>
+        <v>0.6231605410575867</v>
       </c>
       <c r="J542">
         <v>103976.137798948</v>
@@ -17712,7 +17712,7 @@
         <v>0.5113999241173621</v>
       </c>
       <c r="D543">
-        <v>2.557515312121432</v>
+        <v>2.537123351269218</v>
       </c>
       <c r="E543">
         <v>55.82312804</v>
@@ -17724,10 +17724,10 @@
         <v>1.034547608728987</v>
       </c>
       <c r="H543">
-        <v>1.28016671942206</v>
+        <v>1.479140442361926</v>
       </c>
       <c r="I543">
-        <v>0.6211040616035461</v>
+        <v>0.6216500997543335</v>
       </c>
       <c r="J543">
         <v>106015.689848919</v>
@@ -17738,31 +17738,63 @@
         <v>45796</v>
       </c>
       <c r="B544">
-        <v>2.201629677150359</v>
+        <v>2.239696187839336</v>
       </c>
       <c r="C544">
-        <v>0.5129777309146766</v>
+        <v>0.5124785202579709</v>
       </c>
       <c r="D544">
-        <v>2.582774416852897</v>
+        <v>2.627910830927721</v>
       </c>
       <c r="E544">
-        <v>56.54864012</v>
+        <v>57.54764147</v>
       </c>
       <c r="F544">
-        <v>66.07316555654444</v>
+        <v>67.40631204914088</v>
       </c>
       <c r="G544">
         <v>1.029466806382362</v>
       </c>
       <c r="H544">
-        <v>2.554532108493968</v>
+        <v>1.07694809307235</v>
       </c>
       <c r="I544">
-        <v>0.6224254369735718</v>
+        <v>0.6230008602142334</v>
       </c>
       <c r="J544">
-        <v>106662.49</v>
+        <v>108914.876558445</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10">
+      <c r="A545" s="2">
+        <v>45803</v>
+      </c>
+      <c r="B545">
+        <v>2.222919334377163</v>
+      </c>
+      <c r="C545">
+        <v>0.5121196303807592</v>
+      </c>
+      <c r="D545">
+        <v>2.624038771609273</v>
+      </c>
+      <c r="E545">
+        <v>57.50215393</v>
+      </c>
+      <c r="F545">
+        <v>67.32089096633089</v>
+      </c>
+      <c r="G545">
+        <v>1.025151386750079</v>
+      </c>
+      <c r="H545">
+        <v>4.131331121446169</v>
+      </c>
+      <c r="I545">
+        <v>0.625508725643158</v>
+      </c>
+      <c r="J545">
+        <v>108847.34</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J545"/>
+  <dimension ref="A1:J546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16380,7 +16380,7 @@
         <v>0.9967601090078583</v>
       </c>
       <c r="H501">
-        <v>0.6827859939714909</v>
+        <v>1.562270060473381</v>
       </c>
       <c r="I501">
         <v>0.4579507112503052</v>
@@ -16412,10 +16412,10 @@
         <v>1.085727906208338</v>
       </c>
       <c r="H502">
-        <v>-0.4332423355202009</v>
+        <v>-2.480543458565443</v>
       </c>
       <c r="I502">
-        <v>0.4683867990970612</v>
+        <v>0.4688683152198792</v>
       </c>
       <c r="J502">
         <v>58306.2644786675</v>
@@ -16444,10 +16444,10 @@
         <v>1.072592039104317</v>
       </c>
       <c r="H503">
-        <v>-0.1362762672353579</v>
+        <v>0.1672898361437358</v>
       </c>
       <c r="I503">
-        <v>0.4680995643138885</v>
+        <v>0.4675150513648987</v>
       </c>
       <c r="J503">
         <v>58836.1043722969</v>
@@ -16476,10 +16476,10 @@
         <v>1.023646339324836</v>
       </c>
       <c r="H504">
-        <v>0.1946625590537154</v>
+        <v>-0.0773974626207985</v>
       </c>
       <c r="I504">
-        <v>0.4634357094764709</v>
+        <v>0.4627884328365326</v>
       </c>
       <c r="J504">
         <v>58793.2061458212</v>
@@ -16508,10 +16508,10 @@
         <v>1.020200054087953</v>
       </c>
       <c r="H505">
-        <v>0.4285930040076824</v>
+        <v>0.5984873205385099</v>
       </c>
       <c r="I505">
-        <v>0.4610686004161835</v>
+        <v>0.4604062438011169</v>
       </c>
       <c r="J505">
         <v>64498.0183413209</v>
@@ -16540,10 +16540,10 @@
         <v>1.043175181971929</v>
       </c>
       <c r="H506">
-        <v>-0.3138049918649188</v>
+        <v>-0.1292232851603181</v>
       </c>
       <c r="I506">
-        <v>0.4649858474731445</v>
+        <v>0.4646107256412506</v>
       </c>
       <c r="J506">
         <v>57349.0807180012</v>
@@ -16572,10 +16572,10 @@
         <v>1.036780441368923</v>
       </c>
       <c r="H507">
-        <v>-0.2044386623919592</v>
+        <v>0.8079819080806905</v>
       </c>
       <c r="I507">
-        <v>0.4630582332611084</v>
+        <v>0.4630516469478607</v>
       </c>
       <c r="J507">
         <v>54859.2584082408</v>
@@ -16604,10 +16604,10 @@
         <v>1.062647886166066</v>
       </c>
       <c r="H508">
-        <v>0.2479050834704566</v>
+        <v>0.2405726909871397</v>
       </c>
       <c r="I508">
-        <v>0.4574582874774933</v>
+        <v>0.4582133293151855</v>
       </c>
       <c r="J508">
         <v>59129.9197536528</v>
@@ -16636,10 +16636,10 @@
         <v>1.053221868491089</v>
       </c>
       <c r="H509">
-        <v>0.5878507037502478</v>
+        <v>1.727297447507392</v>
       </c>
       <c r="I509">
-        <v>0.4528715312480927</v>
+        <v>0.4538021385669708</v>
       </c>
       <c r="J509">
         <v>63571.9521729983</v>
@@ -16668,10 +16668,10 @@
         <v>1.004047271650278</v>
       </c>
       <c r="H510">
-        <v>0.5348274634407568</v>
+        <v>0.1512785514226289</v>
       </c>
       <c r="I510">
-        <v>0.4531818628311157</v>
+        <v>0.4546007812023163</v>
       </c>
       <c r="J510">
         <v>65617.7610689655</v>
@@ -16700,10 +16700,10 @@
         <v>1.003467085380756</v>
       </c>
       <c r="H511">
-        <v>0.3701828260486151</v>
+        <v>0.5617649773618227</v>
       </c>
       <c r="I511">
-        <v>0.4577852189540863</v>
+        <v>0.4588262736797333</v>
       </c>
       <c r="J511">
         <v>62789.8814555815</v>
@@ -16732,10 +16732,10 @@
         <v>1.038192358735982</v>
       </c>
       <c r="H512">
-        <v>0.794711395600034</v>
+        <v>1.899776773437711</v>
       </c>
       <c r="I512">
-        <v>0.4624643623828888</v>
+        <v>0.463172048330307</v>
       </c>
       <c r="J512">
         <v>62759.431113384</v>
@@ -16764,10 +16764,10 @@
         <v>1.032558665739145</v>
       </c>
       <c r="H513">
-        <v>5.973047604075576</v>
+        <v>4.00490733563803</v>
       </c>
       <c r="I513">
-        <v>0.4666163325309753</v>
+        <v>0.4674668312072754</v>
       </c>
       <c r="J513">
         <v>69012.35320894211</v>
@@ -16796,10 +16796,10 @@
         <v>1.062094029643325</v>
       </c>
       <c r="H514">
-        <v>1.094576386141322</v>
+        <v>1.653971115799302</v>
       </c>
       <c r="I514">
-        <v>0.4769619107246399</v>
+        <v>0.4764028191566467</v>
       </c>
       <c r="J514">
         <v>68000.1475008767</v>
@@ -16828,10 +16828,10 @@
         <v>1.05275548248099</v>
       </c>
       <c r="H515">
-        <v>0.3970273283649517</v>
+        <v>1.237095528672727</v>
       </c>
       <c r="I515">
-        <v>0.4838846623897552</v>
+        <v>0.4830747246742249</v>
       </c>
       <c r="J515">
         <v>68742.7546227352</v>
@@ -16860,10 +16860,10 @@
         <v>1.099874989124336</v>
       </c>
       <c r="H516">
-        <v>2.745434731379093</v>
+        <v>4.607711522351621</v>
       </c>
       <c r="I516">
-        <v>0.489477127790451</v>
+        <v>0.4889253079891205</v>
       </c>
       <c r="J516">
         <v>80409.28656662771</v>
@@ -16892,10 +16892,10 @@
         <v>1.084402885355581</v>
       </c>
       <c r="H517">
-        <v>1.792304909417264</v>
+        <v>3.039445540472507</v>
       </c>
       <c r="I517">
-        <v>0.5008559226989746</v>
+        <v>0.5011947751045227</v>
       </c>
       <c r="J517">
         <v>89732.97042928109</v>
@@ -16924,10 +16924,10 @@
         <v>1.077214486735674</v>
       </c>
       <c r="H518">
-        <v>2.816405718103709</v>
+        <v>2.479731330469659</v>
       </c>
       <c r="I518">
-        <v>0.5181275010108948</v>
+        <v>0.5189487338066101</v>
       </c>
       <c r="J518">
         <v>97980.2082819988</v>
@@ -16956,10 +16956,10 @@
         <v>1.06546176059555</v>
       </c>
       <c r="H519">
-        <v>1.97434518729358</v>
+        <v>2.691996887237957</v>
       </c>
       <c r="I519">
-        <v>0.5400869250297546</v>
+        <v>0.540195643901825</v>
       </c>
       <c r="J519">
         <v>97469.60445295151</v>
@@ -16988,10 +16988,10 @@
         <v>1.06984238931492</v>
       </c>
       <c r="H520">
-        <v>1.771398933059798</v>
+        <v>6.492732656421984</v>
       </c>
       <c r="I520">
-        <v>0.5625441074371338</v>
+        <v>0.5622889995574951</v>
       </c>
       <c r="J520">
         <v>100798.98356429</v>
@@ -17020,10 +17020,10 @@
         <v>1.059273504671456</v>
       </c>
       <c r="H521">
-        <v>3.267794682905678</v>
+        <v>4.26065252306107</v>
       </c>
       <c r="I521">
-        <v>0.5855334997177124</v>
+        <v>0.5874066948890686</v>
       </c>
       <c r="J521">
         <v>104551.367141146</v>
@@ -17052,10 +17052,10 @@
         <v>1.08966229753131</v>
       </c>
       <c r="H522">
-        <v>6.738133550749792</v>
+        <v>5.333421013838047</v>
       </c>
       <c r="I522">
-        <v>0.6085300445556641</v>
+        <v>0.6104810833930969</v>
       </c>
       <c r="J522">
         <v>95149.10582524841</v>
@@ -17084,10 +17084,10 @@
         <v>1.086429415666379</v>
       </c>
       <c r="H523">
-        <v>1.690977793454818</v>
+        <v>3.266502120162706</v>
       </c>
       <c r="I523">
-        <v>0.6240490674972534</v>
+        <v>0.6239333748817444</v>
       </c>
       <c r="J523">
         <v>93457.57832028061</v>
@@ -17116,10 +17116,10 @@
         <v>1.073178813134274</v>
       </c>
       <c r="H524">
-        <v>0.7210626257030839</v>
+        <v>2.029428196313421</v>
       </c>
       <c r="I524">
-        <v>0.6324124336242676</v>
+        <v>0.6316498517990112</v>
       </c>
       <c r="J524">
         <v>98414.81209643481</v>
@@ -17148,10 +17148,10 @@
         <v>1.067567674318194</v>
       </c>
       <c r="H525">
-        <v>0.6197147672702075</v>
+        <v>0.3070844657727001</v>
       </c>
       <c r="I525">
-        <v>0.6396464705467224</v>
+        <v>0.638446569442749</v>
       </c>
       <c r="J525">
         <v>94353.77525862071</v>
@@ -17180,10 +17180,10 @@
         <v>1.057361466432406</v>
       </c>
       <c r="H526">
-        <v>1.260794721631919</v>
+        <v>2.088524977224582</v>
       </c>
       <c r="I526">
-        <v>0.6438268423080444</v>
+        <v>0.6412562131881714</v>
       </c>
       <c r="J526">
         <v>100954.572281999</v>
@@ -17212,10 +17212,10 @@
         <v>1.048767347433094</v>
       </c>
       <c r="H527">
-        <v>0.8429865736807596</v>
+        <v>1.193141050891633</v>
       </c>
       <c r="I527">
-        <v>0.6511408686637878</v>
+        <v>0.6478861570358276</v>
       </c>
       <c r="J527">
         <v>102833.369273232</v>
@@ -17244,10 +17244,10 @@
         <v>1.022617577037755</v>
       </c>
       <c r="H528">
-        <v>0.08790635023872007</v>
+        <v>0.7854067619961658</v>
       </c>
       <c r="I528">
-        <v>0.6600708365440369</v>
+        <v>0.6560858488082886</v>
       </c>
       <c r="J528">
         <v>97424.78090005839</v>
@@ -17276,10 +17276,10 @@
         <v>1.067762423664825</v>
       </c>
       <c r="H529">
-        <v>3.623512206270152</v>
+        <v>0.7771136121911049</v>
       </c>
       <c r="I529">
-        <v>0.6665138006210327</v>
+        <v>0.6620442867279053</v>
       </c>
       <c r="J529">
         <v>96309.7532405026</v>
@@ -17308,10 +17308,10 @@
         <v>1.057525213443455</v>
       </c>
       <c r="H530">
-        <v>0.2087972792547355</v>
+        <v>0.2669012038045926</v>
       </c>
       <c r="I530">
-        <v>0.6738649010658264</v>
+        <v>0.6668531894683838</v>
       </c>
       <c r="J530">
         <v>96182.2661706604</v>
@@ -17340,10 +17340,10 @@
         <v>1.02066231212559</v>
       </c>
       <c r="H531">
-        <v>0.2961797266078481</v>
+        <v>0.3384733236608151</v>
       </c>
       <c r="I531">
-        <v>0.677964985370636</v>
+        <v>0.6699284911155701</v>
       </c>
       <c r="J531">
         <v>96091.63297749851</v>
@@ -17372,10 +17372,10 @@
         <v>1.017658429823554</v>
       </c>
       <c r="H532">
-        <v>1.212509725306887</v>
+        <v>0.5683915333269507</v>
       </c>
       <c r="I532">
-        <v>0.6824901103973389</v>
+        <v>0.6739770770072937</v>
       </c>
       <c r="J532">
         <v>94328.00944447691</v>
@@ -17404,10 +17404,10 @@
         <v>1.02748250590624</v>
       </c>
       <c r="H533">
-        <v>-0.4586943466390769</v>
+        <v>-0.3491168530370792</v>
       </c>
       <c r="I533">
-        <v>0.68839031457901</v>
+        <v>0.6793329119682312</v>
       </c>
       <c r="J533">
         <v>80647.7964108709</v>
@@ -17436,10 +17436,10 @@
         <v>1.023464311052906</v>
       </c>
       <c r="H534">
-        <v>0.07498102013752117</v>
+        <v>0.02874867293549688</v>
       </c>
       <c r="I534">
-        <v>0.6870439052581787</v>
+        <v>0.6778740882873535</v>
       </c>
       <c r="J534">
         <v>82492.1028287551</v>
@@ -17468,10 +17468,10 @@
         <v>1.032513244813934</v>
       </c>
       <c r="H535">
-        <v>0.5764913929558357</v>
+        <v>1.223103567428607</v>
       </c>
       <c r="I535">
-        <v>0.6822359561920166</v>
+        <v>0.6729742884635925</v>
       </c>
       <c r="J535">
         <v>85760.8814506137</v>
@@ -17500,10 +17500,10 @@
         <v>1.027739651827525</v>
       </c>
       <c r="H536">
-        <v>-0.4579008609819635</v>
+        <v>-0.2816868617440793</v>
       </c>
       <c r="I536">
-        <v>0.6780171394348145</v>
+        <v>0.6691945791244507</v>
       </c>
       <c r="J536">
         <v>82216.4666765049</v>
@@ -17532,10 +17532,10 @@
         <v>1.08263967419379</v>
       </c>
       <c r="H537">
-        <v>-0.417202074118439</v>
+        <v>0.1287631860676486</v>
       </c>
       <c r="I537">
-        <v>0.6722449660301208</v>
+        <v>0.6637042164802551</v>
       </c>
       <c r="J537">
         <v>77949.0884926943</v>
@@ -17567,7 +17567,7 @@
         <v>1.054389511503784</v>
       </c>
       <c r="I538">
-        <v>0.6617199778556824</v>
+        <v>0.6535871028900146</v>
       </c>
       <c r="J538">
         <v>83568.9544360023</v>
@@ -17596,10 +17596,10 @@
         <v>1.072160484448199</v>
       </c>
       <c r="H539">
-        <v>0.362877749727164</v>
+        <v>1.166274397069444</v>
       </c>
       <c r="I539">
-        <v>0.6508449912071228</v>
+        <v>0.6428312659263611</v>
       </c>
       <c r="J539">
         <v>85101.74615458791</v>
@@ -17628,10 +17628,10 @@
         <v>1.061220741192354</v>
       </c>
       <c r="H540">
-        <v>0.7700683636846728</v>
+        <v>1.806452948635795</v>
       </c>
       <c r="I540">
-        <v>0.6392304301261902</v>
+        <v>0.6317317485809326</v>
       </c>
       <c r="J540">
         <v>93812.876534775</v>
@@ -17660,10 +17660,10 @@
         <v>1.021997222157899</v>
       </c>
       <c r="H541">
-        <v>0.1713414492450882</v>
+        <v>2.376017511654771</v>
       </c>
       <c r="I541">
-        <v>0.6298568844795227</v>
+        <v>0.6231032609939575</v>
       </c>
       <c r="J541">
         <v>94377.78991963759</v>
@@ -17692,10 +17692,10 @@
         <v>1.01879569711747</v>
       </c>
       <c r="H542">
-        <v>1.120049613003382</v>
+        <v>1.873749653244738</v>
       </c>
       <c r="I542">
-        <v>0.6231605410575867</v>
+        <v>0.6178085803985596</v>
       </c>
       <c r="J542">
         <v>103976.137798948</v>
@@ -17724,10 +17724,10 @@
         <v>1.034547608728987</v>
       </c>
       <c r="H543">
-        <v>1.479140442361926</v>
+        <v>3.269186807331659</v>
       </c>
       <c r="I543">
-        <v>0.6216500997543335</v>
+        <v>0.6168849468231201</v>
       </c>
       <c r="J543">
         <v>106015.689848919</v>
@@ -17744,7 +17744,7 @@
         <v>0.5124785202579709</v>
       </c>
       <c r="D544">
-        <v>2.627910830927721</v>
+        <v>2.612049016062649</v>
       </c>
       <c r="E544">
         <v>57.54764147</v>
@@ -17756,10 +17756,10 @@
         <v>1.029466806382362</v>
       </c>
       <c r="H544">
-        <v>1.07694809307235</v>
+        <v>4.23950764123433</v>
       </c>
       <c r="I544">
-        <v>0.6230008602142334</v>
+        <v>0.619070291519165</v>
       </c>
       <c r="J544">
         <v>108914.876558445</v>
@@ -17770,31 +17770,63 @@
         <v>45803</v>
       </c>
       <c r="B545">
-        <v>2.222919334377163</v>
+        <v>2.155211438812927</v>
       </c>
       <c r="C545">
-        <v>0.5121196303807592</v>
+        <v>0.5128004874223953</v>
       </c>
       <c r="D545">
-        <v>2.624038771609273</v>
+        <v>2.455864361887483</v>
       </c>
       <c r="E545">
-        <v>57.50215393</v>
+        <v>55.52576333</v>
       </c>
       <c r="F545">
-        <v>67.32089096633089</v>
+        <v>63.62338538110792</v>
       </c>
       <c r="G545">
-        <v>1.025151386750079</v>
+        <v>1.06319876417432</v>
       </c>
       <c r="H545">
-        <v>4.131331121446169</v>
+        <v>2.99012184379075</v>
       </c>
       <c r="I545">
-        <v>0.625508725643158</v>
+        <v>0.6230307221412659</v>
       </c>
       <c r="J545">
-        <v>108847.34</v>
+        <v>105750.15972443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10">
+      <c r="A546" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B546">
+        <v>2.14215509180484</v>
+      </c>
+      <c r="C546">
+        <v>0.5148634938925425</v>
+      </c>
+      <c r="D546">
+        <v>2.434506442617549</v>
+      </c>
+      <c r="E546">
+        <v>55.34293313</v>
+      </c>
+      <c r="F546">
+        <v>63.19541531327658</v>
+      </c>
+      <c r="G546">
+        <v>1.053685673829434</v>
+      </c>
+      <c r="H546">
+        <v>2.860712717867298</v>
+      </c>
+      <c r="I546">
+        <v>0.6234190464019775</v>
+      </c>
+      <c r="J546">
+        <v>105395.55</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J546"/>
+  <dimension ref="A1:J547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17776,7 +17776,7 @@
         <v>0.5128004874223953</v>
       </c>
       <c r="D545">
-        <v>2.455864361887483</v>
+        <v>2.441753621040475</v>
       </c>
       <c r="E545">
         <v>55.52576333</v>
@@ -17802,31 +17802,63 @@
         <v>45810</v>
       </c>
       <c r="B546">
-        <v>2.14215509180484</v>
+        <v>2.142933619632606</v>
       </c>
       <c r="C546">
-        <v>0.5148634938925425</v>
+        <v>0.5147901687195232</v>
       </c>
       <c r="D546">
-        <v>2.434506442617549</v>
+        <v>2.41794393107551</v>
       </c>
       <c r="E546">
-        <v>55.34293313</v>
+        <v>55.50869566</v>
       </c>
       <c r="F546">
-        <v>63.19541531327658</v>
+        <v>63.59615551936401</v>
       </c>
       <c r="G546">
         <v>1.053685673829434</v>
       </c>
       <c r="H546">
-        <v>2.860712717867298</v>
+        <v>1.514825326039593</v>
       </c>
       <c r="I546">
-        <v>0.6234190464019775</v>
+        <v>0.6233731508255005</v>
       </c>
       <c r="J546">
-        <v>105395.55</v>
+        <v>105727.739632379</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10">
+      <c r="A547" s="2">
+        <v>45817</v>
+      </c>
+      <c r="B547">
+        <v>2.221509346410006</v>
+      </c>
+      <c r="C547">
+        <v>0.5162094706280251</v>
+      </c>
+      <c r="D547">
+        <v>2.591422634989009</v>
+      </c>
+      <c r="E547">
+        <v>57.12869794</v>
+      </c>
+      <c r="F547">
+        <v>66.47137797719219</v>
+      </c>
+      <c r="G547">
+        <v>1.04566606138571</v>
+      </c>
+      <c r="H547">
+        <v>1.976896779982029</v>
+      </c>
+      <c r="I547">
+        <v>0.6210340857505798</v>
+      </c>
+      <c r="J547">
+        <v>109899.12</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J547"/>
+  <dimension ref="A1:J548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17808,7 +17808,7 @@
         <v>0.5147901687195232</v>
       </c>
       <c r="D546">
-        <v>2.41794393107551</v>
+        <v>2.403727800594599</v>
       </c>
       <c r="E546">
         <v>55.50869566</v>
@@ -17834,31 +17834,63 @@
         <v>45817</v>
       </c>
       <c r="B547">
-        <v>2.221509346410006</v>
+        <v>2.128547512337009</v>
       </c>
       <c r="C547">
-        <v>0.5162094706280251</v>
+        <v>0.5171794346541715</v>
       </c>
       <c r="D547">
-        <v>2.591422634989009</v>
+        <v>2.376987099892328</v>
       </c>
       <c r="E547">
-        <v>57.12869794</v>
+        <v>55.03723885</v>
       </c>
       <c r="F547">
-        <v>66.47137797719219</v>
+        <v>63.31637743492592</v>
       </c>
       <c r="G547">
-        <v>1.04566606138571</v>
+        <v>1.041664799124282</v>
       </c>
       <c r="H547">
-        <v>1.976896779982029</v>
+        <v>3.508037523905916</v>
       </c>
       <c r="I547">
-        <v>0.6210340857505798</v>
+        <v>0.6209878325462341</v>
       </c>
       <c r="J547">
-        <v>109899.12</v>
+        <v>105512.797437756</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10">
+      <c r="A548" s="2">
+        <v>45824</v>
+      </c>
+      <c r="B548">
+        <v>2.103564244619221</v>
+      </c>
+      <c r="C548">
+        <v>0.5182071597087271</v>
+      </c>
+      <c r="D548">
+        <v>2.336227104804377</v>
+      </c>
+      <c r="E548">
+        <v>56.28200172</v>
+      </c>
+      <c r="F548">
+        <v>61.95536543566842</v>
+      </c>
+      <c r="G548">
+        <v>1.035501376716595</v>
+      </c>
+      <c r="H548">
+        <v>0.4970138481538378</v>
+      </c>
+      <c r="I548">
+        <v>0.6180257201194763</v>
+      </c>
+      <c r="J548">
+        <v>104516.16</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J548"/>
+  <dimension ref="A1:J549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17840,7 +17840,7 @@
         <v>0.5171794346541715</v>
       </c>
       <c r="D547">
-        <v>2.376987099892328</v>
+        <v>2.364345730522425</v>
       </c>
       <c r="E547">
         <v>55.03723885</v>
@@ -17866,31 +17866,63 @@
         <v>45824</v>
       </c>
       <c r="B548">
-        <v>2.103564244619221</v>
+        <v>2.026386313165476</v>
       </c>
       <c r="C548">
-        <v>0.5182071597087271</v>
+        <v>0.5190093422539663</v>
       </c>
       <c r="D548">
-        <v>2.336227104804377</v>
+        <v>2.163144606574715</v>
       </c>
       <c r="E548">
-        <v>56.28200172</v>
+        <v>53.10243876</v>
       </c>
       <c r="F548">
-        <v>61.95536543566842</v>
+        <v>57.47199545714039</v>
       </c>
       <c r="G548">
         <v>1.035501376716595</v>
       </c>
       <c r="H548">
-        <v>0.4970138481538378</v>
+        <v>1.151974965899605</v>
       </c>
       <c r="I548">
-        <v>0.6180257201194763</v>
+        <v>0.6179842352867126</v>
       </c>
       <c r="J548">
-        <v>104516.16</v>
+        <v>100899.234151958</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10">
+      <c r="A549" s="2">
+        <v>45831</v>
+      </c>
+      <c r="B549">
+        <v>2.121635817703177</v>
+      </c>
+      <c r="C549">
+        <v>0.5193753003842977</v>
+      </c>
+      <c r="D549">
+        <v>2.363566618697726</v>
+      </c>
+      <c r="E549">
+        <v>54.00293061</v>
+      </c>
+      <c r="F549">
+        <v>61.66076112369596</v>
+      </c>
+      <c r="G549">
+        <v>1.030276201921373</v>
+      </c>
+      <c r="H549">
+        <v>1.859693953043351</v>
+      </c>
+      <c r="I549">
+        <v>0.6101500391960144</v>
+      </c>
+      <c r="J549">
+        <v>105969.98</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J549"/>
+  <dimension ref="A1:J550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17872,7 +17872,7 @@
         <v>0.5190093422539663</v>
       </c>
       <c r="D548">
-        <v>2.163144606574715</v>
+        <v>2.150620344272843</v>
       </c>
       <c r="E548">
         <v>53.10243876</v>
@@ -17898,31 +17898,63 @@
         <v>45831</v>
       </c>
       <c r="B549">
-        <v>2.121635817703177</v>
+        <v>2.157441832869742</v>
       </c>
       <c r="C549">
-        <v>0.5193753003842977</v>
+        <v>0.5188469237730703</v>
       </c>
       <c r="D549">
-        <v>2.363566618697726</v>
+        <v>2.428251464673012</v>
       </c>
       <c r="E549">
-        <v>54.00293061</v>
+        <v>55.24069297</v>
       </c>
       <c r="F549">
-        <v>61.66076112369596</v>
+        <v>63.36226591009218</v>
       </c>
       <c r="G549">
-        <v>1.030276201921373</v>
+        <v>0.9638413244615586</v>
       </c>
       <c r="H549">
-        <v>1.859693953043351</v>
+        <v>3.743098061636552</v>
       </c>
       <c r="I549">
-        <v>0.6101500391960144</v>
+        <v>0.6101090312004089</v>
       </c>
       <c r="J549">
-        <v>105969.98</v>
+        <v>108360.901696376</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10">
+      <c r="A550" s="2">
+        <v>45838</v>
+      </c>
+      <c r="B550">
+        <v>2.09455326811457</v>
+      </c>
+      <c r="C550">
+        <v>0.5190712780463016</v>
+      </c>
+      <c r="D550">
+        <v>2.309991295647468</v>
+      </c>
+      <c r="E550">
+        <v>55.02616265</v>
+      </c>
+      <c r="F550">
+        <v>60.26771743529468</v>
+      </c>
+      <c r="G550">
+        <v>0.9688459223692286</v>
+      </c>
+      <c r="H550">
+        <v>1.357864728604596</v>
+      </c>
+      <c r="I550">
+        <v>0.6073357462882996</v>
+      </c>
+      <c r="J550">
+        <v>105792.26</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J550"/>
+  <dimension ref="A1:J551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17904,7 +17904,7 @@
         <v>0.5188469237730703</v>
       </c>
       <c r="D549">
-        <v>2.428251464673012</v>
+        <v>2.414030276453309</v>
       </c>
       <c r="E549">
         <v>55.24069297</v>
@@ -17930,31 +17930,63 @@
         <v>45838</v>
       </c>
       <c r="B550">
-        <v>2.09455326811457</v>
+        <v>2.08264004428261</v>
       </c>
       <c r="C550">
-        <v>0.5190712780463016</v>
+        <v>0.5183282424653912</v>
       </c>
       <c r="D550">
-        <v>2.309991295647468</v>
+        <v>2.410793385858907</v>
       </c>
       <c r="E550">
-        <v>55.02616265</v>
+        <v>54.83519549</v>
       </c>
       <c r="F550">
-        <v>60.26771743529468</v>
+        <v>63.95249845778244</v>
       </c>
       <c r="G550">
         <v>0.9688459223692286</v>
       </c>
       <c r="H550">
-        <v>1.357864728604596</v>
+        <v>1.030050720018316</v>
       </c>
       <c r="I550">
-        <v>0.6073357462882996</v>
+        <v>0.6072885394096375</v>
       </c>
       <c r="J550">
-        <v>105792.26</v>
+        <v>109180.005545587</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10">
+      <c r="A551" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B551">
+        <v>2.063137075066592</v>
+      </c>
+      <c r="C551">
+        <v>0.5181293856881973</v>
+      </c>
+      <c r="D551">
+        <v>2.395308856581154</v>
+      </c>
+      <c r="E551">
+        <v>54.720807</v>
+      </c>
+      <c r="F551">
+        <v>63.6251126167319</v>
+      </c>
+      <c r="G551">
+        <v>0.9731771274803735</v>
+      </c>
+      <c r="H551">
+        <v>3.308999671895729</v>
+      </c>
+      <c r="I551">
+        <v>0.6056673526763916</v>
+      </c>
+      <c r="J551">
+        <v>108937.07</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J551"/>
+  <dimension ref="A1:J552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17936,7 +17936,7 @@
         <v>0.5183282424653912</v>
       </c>
       <c r="D550">
-        <v>2.410793385858907</v>
+        <v>2.394494527241864</v>
       </c>
       <c r="E550">
         <v>54.83519549</v>
@@ -17948,7 +17948,7 @@
         <v>0.9688459223692286</v>
       </c>
       <c r="H550">
-        <v>1.030050720018316</v>
+        <v>2.727419844005197</v>
       </c>
       <c r="I550">
         <v>0.6072885394096375</v>
@@ -17962,31 +17962,63 @@
         <v>45845</v>
       </c>
       <c r="B551">
-        <v>2.063137075066592</v>
+        <v>2.239772720147748</v>
       </c>
       <c r="C551">
-        <v>0.5181293856881973</v>
+        <v>0.5159748995353282</v>
       </c>
       <c r="D551">
-        <v>2.395308856581154</v>
+        <v>2.745583388914248</v>
       </c>
       <c r="E551">
-        <v>54.720807</v>
+        <v>57.87352889</v>
       </c>
       <c r="F551">
-        <v>63.6251126167319</v>
+        <v>70.10666100266994</v>
       </c>
       <c r="G551">
-        <v>0.9731771274803735</v>
+        <v>1.039162388593977</v>
       </c>
       <c r="H551">
-        <v>3.308999671895729</v>
+        <v>3.183820381646951</v>
       </c>
       <c r="I551">
-        <v>0.6056673526763916</v>
+        <v>0.6066531538963318</v>
       </c>
       <c r="J551">
-        <v>108937.07</v>
+        <v>118899.737107832</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10">
+      <c r="A552" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B552">
+        <v>2.200823696411415</v>
+      </c>
+      <c r="C552">
+        <v>0.5134583171816615</v>
+      </c>
+      <c r="D552">
+        <v>2.687491769685555</v>
+      </c>
+      <c r="E552">
+        <v>58.53126172</v>
+      </c>
+      <c r="F552">
+        <v>68.1743586108915</v>
+      </c>
+      <c r="G552">
+        <v>1.033381007368804</v>
+      </c>
+      <c r="H552">
+        <v>1.195689936898892</v>
+      </c>
+      <c r="I552">
+        <v>0.6099160313606262</v>
+      </c>
+      <c r="J552">
+        <v>117401.33</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J552"/>
+  <dimension ref="A1:J553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17968,7 +17968,7 @@
         <v>0.5159748995353282</v>
       </c>
       <c r="D551">
-        <v>2.745583388914248</v>
+        <v>2.726680252377657</v>
       </c>
       <c r="E551">
         <v>57.87352889</v>
@@ -17994,31 +17994,63 @@
         <v>45852</v>
       </c>
       <c r="B552">
-        <v>2.200823696411415</v>
+        <v>2.182370915341739</v>
       </c>
       <c r="C552">
-        <v>0.5134583171816615</v>
+        <v>0.5134785305661046</v>
       </c>
       <c r="D552">
-        <v>2.687491769685555</v>
+        <v>2.608011150417588</v>
       </c>
       <c r="E552">
-        <v>58.53126172</v>
+        <v>57.08653384</v>
       </c>
       <c r="F552">
-        <v>68.1743586108915</v>
+        <v>68.05462274532535</v>
       </c>
       <c r="G552">
         <v>1.033381007368804</v>
       </c>
       <c r="H552">
-        <v>1.195689936898892</v>
+        <v>1.735295437499307</v>
       </c>
       <c r="I552">
-        <v>0.6099160313606262</v>
+        <v>0.6098529696464539</v>
       </c>
       <c r="J552">
-        <v>117401.33</v>
+        <v>117305.680953828</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10">
+      <c r="A553" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B553">
+        <v>2.150095356362578</v>
+      </c>
+      <c r="C553">
+        <v>0.5077764318612117</v>
+      </c>
+      <c r="D553">
+        <v>2.596509355773671</v>
+      </c>
+      <c r="E553">
+        <v>56.98064572</v>
+      </c>
+      <c r="F553">
+        <v>67.9209553293008</v>
+      </c>
+      <c r="G553">
+        <v>1.028476495728439</v>
+      </c>
+      <c r="H553">
+        <v>1.642734467635432</v>
+      </c>
+      <c r="I553">
+        <v>0.6132335066795349</v>
+      </c>
+      <c r="J553">
+        <v>117206.16</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J553"/>
+  <dimension ref="A1:J554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18000,7 +18000,7 @@
         <v>0.5134785305661046</v>
       </c>
       <c r="D552">
-        <v>2.608011150417588</v>
+        <v>2.600957314507738</v>
       </c>
       <c r="E552">
         <v>57.08653384</v>
@@ -18026,31 +18026,63 @@
         <v>45859</v>
       </c>
       <c r="B553">
-        <v>2.150095356362578</v>
+        <v>2.195359213879629</v>
       </c>
       <c r="C553">
-        <v>0.5077764318612117</v>
+        <v>0.5073202716351362</v>
       </c>
       <c r="D553">
-        <v>2.596509355773671</v>
+        <v>2.654884034343522</v>
       </c>
       <c r="E553">
-        <v>56.98064572</v>
+        <v>56.75465963</v>
       </c>
       <c r="F553">
-        <v>67.9209553293008</v>
+        <v>69.3472186040632</v>
       </c>
       <c r="G553">
-        <v>1.028476495728439</v>
+        <v>1.037833862252505</v>
       </c>
       <c r="H553">
-        <v>1.642734467635432</v>
+        <v>1.663718955694704</v>
       </c>
       <c r="I553">
-        <v>0.6132335066795349</v>
+        <v>0.6132102012634277</v>
       </c>
       <c r="J553">
-        <v>117206.16</v>
+        <v>119438.164235535</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10">
+      <c r="A554" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B554">
+        <v>2.151449607815851</v>
+      </c>
+      <c r="C554">
+        <v>0.5019386663414789</v>
+      </c>
+      <c r="D554">
+        <v>2.588334070386426</v>
+      </c>
+      <c r="E554">
+        <v>56.66310363</v>
+      </c>
+      <c r="F554">
+        <v>66.94028694179676</v>
+      </c>
+      <c r="G554">
+        <v>1.032254693412495</v>
+      </c>
+      <c r="H554">
+        <v>2.693439234908368</v>
+      </c>
+      <c r="I554">
+        <v>0.6170766949653625</v>
+      </c>
+      <c r="J554">
+        <v>117678.53</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J554"/>
+  <dimension ref="A1:J555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18032,7 +18032,7 @@
         <v>0.5073202716351362</v>
       </c>
       <c r="D553">
-        <v>2.654884034343522</v>
+        <v>2.638712204040376</v>
       </c>
       <c r="E553">
         <v>56.75465963</v>
@@ -18058,31 +18058,63 @@
         <v>45866</v>
       </c>
       <c r="B554">
-        <v>2.151449607815851</v>
+        <v>2.086229037097489</v>
       </c>
       <c r="C554">
-        <v>0.5019386663414789</v>
+        <v>0.5026157914323811</v>
       </c>
       <c r="D554">
-        <v>2.588334070386426</v>
+        <v>2.421640412293536</v>
       </c>
       <c r="E554">
-        <v>56.66310363</v>
+        <v>54.50458753</v>
       </c>
       <c r="F554">
-        <v>66.94028694179676</v>
+        <v>62.71593521981282</v>
       </c>
       <c r="G554">
         <v>1.032254693412495</v>
       </c>
       <c r="H554">
-        <v>2.693439234908368</v>
+        <v>0.8136597326489525</v>
       </c>
       <c r="I554">
-        <v>0.6170766949653625</v>
+        <v>0.6170238852500916</v>
       </c>
       <c r="J554">
-        <v>117678.53</v>
+        <v>114263.693947691</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10">
+      <c r="A555" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B555">
+        <v>2.065270235834697</v>
+      </c>
+      <c r="C555">
+        <v>0.498657537910168</v>
+      </c>
+      <c r="D555">
+        <v>2.413008708180225</v>
+      </c>
+      <c r="E555">
+        <v>55.32385364</v>
+      </c>
+      <c r="F555">
+        <v>61.77117994256373</v>
+      </c>
+      <c r="G555">
+        <v>1.027520072709576</v>
+      </c>
+      <c r="H555">
+        <v>1.033137719867661</v>
+      </c>
+      <c r="I555">
+        <v>0.6164847612380981</v>
+      </c>
+      <c r="J555">
+        <v>113495.19</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J555"/>
+  <dimension ref="A1:J556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18064,7 +18064,7 @@
         <v>0.5026157914323811</v>
       </c>
       <c r="D554">
-        <v>2.421640412293536</v>
+        <v>2.406494895116896</v>
       </c>
       <c r="E554">
         <v>54.50458753</v>
@@ -18090,31 +18090,63 @@
         <v>45873</v>
       </c>
       <c r="B555">
-        <v>2.065270235834697</v>
+        <v>2.164097282715636</v>
       </c>
       <c r="C555">
-        <v>0.498657537910168</v>
+        <v>0.4975558624398717</v>
       </c>
       <c r="D555">
-        <v>2.413008708180225</v>
+        <v>2.577942113547076</v>
       </c>
       <c r="E555">
-        <v>55.32385364</v>
+        <v>55.66488389</v>
       </c>
       <c r="F555">
-        <v>61.77117994256373</v>
+        <v>66.0444381409975</v>
       </c>
       <c r="G555">
-        <v>1.027520072709576</v>
+        <v>1.039963338485894</v>
       </c>
       <c r="H555">
-        <v>1.033137719867661</v>
+        <v>1.454310937743797</v>
       </c>
       <c r="I555">
-        <v>0.6164847612380981</v>
+        <v>0.6164355278015137</v>
       </c>
       <c r="J555">
-        <v>113495.19</v>
+        <v>119189.198160275</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10">
+      <c r="A556" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B556">
+        <v>2.17317082318996</v>
+      </c>
+      <c r="C556">
+        <v>0.4913861157764893</v>
+      </c>
+      <c r="D556">
+        <v>2.610263637128486</v>
+      </c>
+      <c r="E556">
+        <v>56.40376131</v>
+      </c>
+      <c r="F556">
+        <v>66.5734442359656</v>
+      </c>
+      <c r="G556">
+        <v>1.034059840852372</v>
+      </c>
+      <c r="H556">
+        <v>1.454768189720923</v>
+      </c>
+      <c r="I556">
+        <v>0.6161071062088013</v>
+      </c>
+      <c r="J556">
+        <v>119999.99</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J556"/>
+  <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18096,7 +18096,7 @@
         <v>0.4975558624398717</v>
       </c>
       <c r="D555">
-        <v>2.577942113547076</v>
+        <v>2.561535747783036</v>
       </c>
       <c r="E555">
         <v>55.66488389</v>
@@ -18122,31 +18122,95 @@
         <v>45880</v>
       </c>
       <c r="B556">
-        <v>2.17317082318996</v>
+        <v>2.113915538491182</v>
       </c>
       <c r="C556">
-        <v>0.4913861157764893</v>
+        <v>0.491833934221841</v>
       </c>
       <c r="D556">
-        <v>2.610263637128486</v>
+        <v>2.463418421583583</v>
       </c>
       <c r="E556">
-        <v>56.40376131</v>
+        <v>55.59922485</v>
       </c>
       <c r="F556">
-        <v>66.5734442359656</v>
+        <v>64.05976390254247</v>
       </c>
       <c r="G556">
         <v>1.034059840852372</v>
       </c>
       <c r="H556">
-        <v>1.454768189720923</v>
+        <v>0.2462996964090358</v>
       </c>
       <c r="I556">
-        <v>0.6161071062088013</v>
+        <v>0.6160538792610168</v>
       </c>
       <c r="J556">
-        <v>119999.99</v>
+        <v>117601.952231888</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10">
+      <c r="A557" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B557">
+        <v>2.028779640817283</v>
+      </c>
+      <c r="C557">
+        <v>0.4860968930764186</v>
+      </c>
+      <c r="D557">
+        <v>2.296537065366966</v>
+      </c>
+      <c r="E557">
+        <v>53.86024786</v>
+      </c>
+      <c r="F557">
+        <v>59.13360865765748</v>
+      </c>
+      <c r="G557">
+        <v>1.030842052699808</v>
+      </c>
+      <c r="H557">
+        <v>0.354976402658802</v>
+      </c>
+      <c r="I557">
+        <v>0.6157454252243042</v>
+      </c>
+      <c r="J557">
+        <v>113516.122474401</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10">
+      <c r="A558" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B558">
+        <v>1.991738004448536</v>
+      </c>
+      <c r="C558">
+        <v>0.4820951416396765</v>
+      </c>
+      <c r="D558">
+        <v>2.234390249765892</v>
+      </c>
+      <c r="E558">
+        <v>52.34745256</v>
+      </c>
+      <c r="F558">
+        <v>57.01737485844533</v>
+      </c>
+      <c r="G558">
+        <v>1.026320078706332</v>
+      </c>
+      <c r="H558">
+        <v>0.3628707858597924</v>
+      </c>
+      <c r="I558">
+        <v>0.6143681406974792</v>
+      </c>
+      <c r="J558">
+        <v>111684.95</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J558"/>
+  <dimension ref="A1:J562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14992,7 +14992,7 @@
         <v>1.001960037794786</v>
       </c>
       <c r="D458">
-        <v>0.5367387607313671</v>
+        <v>-0.3971715718907285</v>
       </c>
       <c r="E458">
         <v>27.45</v>
@@ -15024,7 +15024,7 @@
         <v>1.003532273782437</v>
       </c>
       <c r="D459">
-        <v>0.5340155235928672</v>
+        <v>-0.3982678738851064</v>
       </c>
       <c r="E459">
         <v>27.32</v>
@@ -15039,7 +15039,7 @@
         <v>0.1087298421422078</v>
       </c>
       <c r="I459">
-        <v>-0.1513362377882004</v>
+        <v>-0.1536440998315811</v>
       </c>
       <c r="J459">
         <v>27936.3261157218</v>
@@ -15056,7 +15056,7 @@
         <v>1.008856906758582</v>
       </c>
       <c r="D460">
-        <v>0.4767316696764244</v>
+        <v>-0.3188736766575973</v>
       </c>
       <c r="E460">
         <v>25.07</v>
@@ -15071,7 +15071,7 @@
         <v>0.1299348695126934</v>
       </c>
       <c r="I460">
-        <v>-0.1457878798246384</v>
+        <v>-0.1513854116201401</v>
       </c>
       <c r="J460">
         <v>27130.3067092344</v>
@@ -15088,7 +15088,7 @@
         <v>1.007786736987375</v>
       </c>
       <c r="D461">
-        <v>0.6734228560959006</v>
+        <v>0.0314505542263586</v>
       </c>
       <c r="E461">
         <v>32.06</v>
@@ -15103,7 +15103,7 @@
         <v>0.4057534055891043</v>
       </c>
       <c r="I461">
-        <v>-0.1418732851743698</v>
+        <v>-0.1510086804628372</v>
       </c>
       <c r="J461">
         <v>29984.1593196961</v>
@@ -15120,7 +15120,7 @@
         <v>0.9972265216257026</v>
       </c>
       <c r="D462">
-        <v>0.979292448068903</v>
+        <v>0.1239183083750245</v>
       </c>
       <c r="E462">
         <v>40.48</v>
@@ -15135,7 +15135,7 @@
         <v>0.7968734789828291</v>
       </c>
       <c r="I462">
-        <v>-0.1349558681249619</v>
+        <v>-0.1475676596164703</v>
       </c>
       <c r="J462">
         <v>34574.3377206312</v>
@@ -15152,7 +15152,7 @@
         <v>0.9869399101878576</v>
       </c>
       <c r="D463">
-        <v>1.006284504470419</v>
+        <v>0.146512041184543</v>
       </c>
       <c r="E463">
         <v>40.92</v>
@@ -15167,7 +15167,7 @@
         <v>0.6072575926598933</v>
       </c>
       <c r="I463">
-        <v>-0.1227227970957756</v>
+        <v>-0.1395143568515778</v>
       </c>
       <c r="J463">
         <v>35105.0420265926</v>
@@ -15184,7 +15184,7 @@
         <v>0.9807682051794735</v>
       </c>
       <c r="D464">
-        <v>1.130228077725574</v>
+        <v>0.2348132298229842</v>
       </c>
       <c r="E464">
         <v>43.71</v>
@@ -15199,7 +15199,7 @@
         <v>0.5384973743855159</v>
       </c>
       <c r="I464">
-        <v>-0.1092564687132835</v>
+        <v>-0.1305873394012451</v>
       </c>
       <c r="J464">
         <v>37053.3410514319</v>
@@ -15216,7 +15216,7 @@
         <v>0.9742789181065692</v>
       </c>
       <c r="D465">
-        <v>1.149887779614938</v>
+        <v>0.2888373693686921</v>
       </c>
       <c r="E465">
         <v>43.455</v>
@@ -15231,7 +15231,7 @@
         <v>0.6727093521631922</v>
       </c>
       <c r="I465">
-        <v>-0.09409079700708389</v>
+        <v>-0.1203787177801132</v>
       </c>
       <c r="J465">
         <v>37442.7285119813</v>
@@ -15248,7 +15248,7 @@
         <v>0.9672029521419572</v>
       </c>
       <c r="D466">
-        <v>1.143569509616315</v>
+        <v>0.2591240349467504</v>
       </c>
       <c r="E466">
         <v>43.86</v>
@@ -15263,7 +15263,7 @@
         <v>0.4943233642410005</v>
       </c>
       <c r="I466">
-        <v>-0.08010058850049973</v>
+        <v>-0.1114325746893883</v>
       </c>
       <c r="J466">
         <v>37482.7055260082</v>
@@ -15280,7 +15280,7 @@
         <v>0.9567831945744576</v>
       </c>
       <c r="D467">
-        <v>1.306765172383587</v>
+        <v>0.5331558034632637</v>
       </c>
       <c r="E467">
         <v>47.08</v>
@@ -15295,7 +15295,7 @@
         <v>1.002116006422238</v>
       </c>
       <c r="I467">
-        <v>-0.06834602355957031</v>
+        <v>-0.104806013405323</v>
       </c>
       <c r="J467">
         <v>39978.2226104617</v>
@@ -15312,7 +15312,7 @@
         <v>0.9408985529774555</v>
       </c>
       <c r="D468">
-        <v>1.542768400258504</v>
+        <v>0.463508831520121</v>
       </c>
       <c r="E468">
         <v>50.96</v>
@@ -15327,7 +15327,7 @@
         <v>0.9431404416496036</v>
       </c>
       <c r="I468">
-        <v>-0.05638760328292847</v>
+        <v>-0.09772758185863495</v>
       </c>
       <c r="J468">
         <v>43732.7120900059</v>
@@ -15344,7 +15344,7 @@
         <v>0.9278291003753951</v>
       </c>
       <c r="D469">
-        <v>1.369494694467398</v>
+        <v>0.5279499769679452</v>
       </c>
       <c r="E469">
         <v>47.87</v>
@@ -15359,7 +15359,7 @@
         <v>0.3953937909970229</v>
       </c>
       <c r="I469">
-        <v>-0.04131307080388069</v>
+        <v>-0.08840572834014893</v>
       </c>
       <c r="J469">
         <v>41428.6657855056</v>
@@ -15376,7 +15376,7 @@
         <v>0.9128483822307417</v>
       </c>
       <c r="D470">
-        <v>1.46802949874162</v>
+        <v>0.5665836050638388</v>
       </c>
       <c r="E470">
         <v>49.47</v>
@@ -15391,7 +15391,7 @@
         <v>2.137307466108518</v>
       </c>
       <c r="I470">
-        <v>-0.03032563254237175</v>
+        <v>-0.08265900611877441</v>
       </c>
       <c r="J470">
         <v>43097.8093258329</v>
@@ -15408,7 +15408,7 @@
         <v>0.9001040609906413</v>
       </c>
       <c r="D471">
-        <v>1.391674104693703</v>
+        <v>0.5696762031847398</v>
       </c>
       <c r="E471">
         <v>48</v>
@@ -15423,7 +15423,7 @@
         <v>0.9484593891309512</v>
       </c>
       <c r="I471">
-        <v>-0.02023459412157536</v>
+        <v>-0.0778760239481926</v>
       </c>
       <c r="J471">
         <v>42217.1587913501</v>
@@ -15440,7 +15440,7 @@
         <v>0.881963409608744</v>
       </c>
       <c r="D472">
-        <v>1.477141720361464</v>
+        <v>0.6911948519863965</v>
       </c>
       <c r="E472">
         <v>49.2</v>
@@ -15455,7 +15455,7 @@
         <v>0.6896423128102569</v>
       </c>
       <c r="I472">
-        <v>-0.01239624340087175</v>
+        <v>-0.07510479539632797</v>
       </c>
       <c r="J472">
         <v>43844.195949737</v>
@@ -15472,7 +15472,7 @@
         <v>0.8671764528783104</v>
       </c>
       <c r="D473">
-        <v>1.328755094400633</v>
+        <v>0.4282549461920944</v>
       </c>
       <c r="E473">
         <v>46.47</v>
@@ -15487,7 +15487,7 @@
         <v>0.2137941521214826</v>
       </c>
       <c r="I473">
-        <v>-0.003897342598065734</v>
+        <v>-0.07145672291517258</v>
       </c>
       <c r="J473">
         <v>41888.1513068381</v>
@@ -15504,7 +15504,7 @@
         <v>0.8532033964448656</v>
       </c>
       <c r="D474">
-        <v>1.288611859801753</v>
+        <v>0.22831135301794</v>
       </c>
       <c r="E474">
         <v>45.56</v>
@@ -15519,7 +15519,7 @@
         <v>0.217485403630957</v>
       </c>
       <c r="I474">
-        <v>0.0001984108239412308</v>
+        <v>-0.07198332995176315</v>
       </c>
       <c r="J474">
         <v>41537.1123562244</v>
@@ -15536,7 +15536,7 @@
         <v>0.8392427039055332</v>
       </c>
       <c r="D475">
-        <v>1.309015394645646</v>
+        <v>0.4336738598244987</v>
       </c>
       <c r="E475">
         <v>45.88</v>
@@ -15551,7 +15551,7 @@
         <v>0.6000306705100211</v>
       </c>
       <c r="I475">
-        <v>0.004170680418610573</v>
+        <v>-0.07284838706254959</v>
       </c>
       <c r="J475">
         <v>41983.0202744009</v>
@@ -15568,7 +15568,7 @@
         <v>0.8259072175529031</v>
       </c>
       <c r="D476">
-        <v>1.336416415822867</v>
+        <v>0.3840162716686847</v>
       </c>
       <c r="E476">
         <v>46.31</v>
@@ -15583,7 +15583,7 @@
         <v>0.477266303921553</v>
       </c>
       <c r="I476">
-        <v>0.01025575865060091</v>
+        <v>-0.0712190717458725</v>
       </c>
       <c r="J476">
         <v>42576.2913050847</v>
@@ -15600,7 +15600,7 @@
         <v>0.8076402485732073</v>
       </c>
       <c r="D477">
-        <v>1.700012732412553</v>
+        <v>0.7584443994237611</v>
       </c>
       <c r="E477">
         <v>52.19</v>
@@ -15615,7 +15615,7 @@
         <v>1.300693663906061</v>
       </c>
       <c r="I477">
-        <v>0.01787404716014862</v>
+        <v>-0.06822634488344193</v>
       </c>
       <c r="J477">
         <v>48200.7986057861</v>
@@ -15632,7 +15632,7 @@
         <v>0.7885820360011468</v>
       </c>
       <c r="D478">
-        <v>1.934492555844531</v>
+        <v>0.8082601505966441</v>
       </c>
       <c r="E478">
         <v>54.77163909</v>
@@ -15647,7 +15647,7 @@
         <v>1.408620164961127</v>
       </c>
       <c r="I478">
-        <v>0.03253858536481857</v>
+        <v>-0.05875588208436966</v>
       </c>
       <c r="J478">
         <v>52148.0645365283</v>
@@ -15664,7 +15664,7 @@
         <v>0.7709100262294647</v>
       </c>
       <c r="D479">
-        <v>1.882265041445618</v>
+        <v>0.9105326182154638</v>
       </c>
       <c r="E479">
         <v>54.17157881</v>
@@ -15679,7 +15679,7 @@
         <v>0.8820485655845367</v>
       </c>
       <c r="I479">
-        <v>0.05003903433680534</v>
+        <v>-0.04721186310052872</v>
       </c>
       <c r="J479">
         <v>51746.4789669784</v>
@@ -15696,7 +15696,7 @@
         <v>0.7447193094596571</v>
       </c>
       <c r="D480">
-        <v>2.556120547247164</v>
+        <v>1.358121237858055</v>
       </c>
       <c r="E480">
         <v>61.01231443</v>
@@ -15711,7 +15711,7 @@
         <v>1.73336334282197</v>
       </c>
       <c r="I480">
-        <v>0.06759383529424667</v>
+        <v>-0.03573599457740784</v>
       </c>
       <c r="J480">
         <v>62991.4422913501</v>
@@ -15728,7 +15728,7 @@
         <v>0.7188704906444566</v>
       </c>
       <c r="D481">
-        <v>2.841824165946175</v>
+        <v>1.3780564241258</v>
       </c>
       <c r="E481">
         <v>62.36771552</v>
@@ -15743,7 +15743,7 @@
         <v>2.351910648490718</v>
       </c>
       <c r="I481">
-        <v>0.09265720099210739</v>
+        <v>-0.01811294257640839</v>
       </c>
       <c r="J481">
         <v>68882.25133956751</v>
@@ -15760,7 +15760,7 @@
         <v>0.6989345265695789</v>
       </c>
       <c r="D482">
-        <v>2.703412182816488</v>
+        <v>1.131427599727385</v>
       </c>
       <c r="E482">
         <v>60.67887177</v>
@@ -15775,7 +15775,7 @@
         <v>3.202224720560398</v>
       </c>
       <c r="I482">
-        <v>0.1243540719151497</v>
+        <v>0.004083584528416395</v>
       </c>
       <c r="J482">
         <v>68285.0891691993</v>
@@ -15792,7 +15792,7 @@
         <v>0.6814817691082651</v>
       </c>
       <c r="D483">
-        <v>2.58500522096047</v>
+        <v>1.142896589308036</v>
       </c>
       <c r="E483">
         <v>59.34881997</v>
@@ -15807,7 +15807,7 @@
         <v>1.639518818260011</v>
       </c>
       <c r="I483">
-        <v>0.1524764746427536</v>
+        <v>0.02214704267680645</v>
       </c>
       <c r="J483">
         <v>67289.5658310929</v>
@@ -15824,7 +15824,7 @@
         <v>0.6641639245161409</v>
       </c>
       <c r="D484">
-        <v>2.776610091878359</v>
+        <v>1.092749300646303</v>
       </c>
       <c r="E484">
         <v>59.93145597</v>
@@ -15839,7 +15839,7 @@
         <v>1.424424018050119</v>
       </c>
       <c r="I484">
-        <v>0.178593322634697</v>
+        <v>0.03759588673710823</v>
       </c>
       <c r="J484">
         <v>71227.4517939801</v>
@@ -15856,7 +15856,7 @@
         <v>0.6492065266461138</v>
       </c>
       <c r="D485">
-        <v>2.611906684808004</v>
+        <v>1.133272599543604</v>
       </c>
       <c r="E485">
         <v>58.98075246</v>
@@ -15871,7 +15871,7 @@
         <v>1.001286309939919</v>
       </c>
       <c r="I485">
-        <v>0.2036472707986832</v>
+        <v>0.05112632364034653</v>
       </c>
       <c r="J485">
         <v>69392.6830108124</v>
@@ -15888,7 +15888,7 @@
         <v>0.6371322188588137</v>
       </c>
       <c r="D486">
-        <v>2.343306193396862</v>
+        <v>0.8130368057441338</v>
       </c>
       <c r="E486">
         <v>56.11007364</v>
@@ -15903,7 +15903,7 @@
         <v>0.1961397366353923</v>
       </c>
       <c r="I486">
-        <v>0.2254320532083511</v>
+        <v>0.06173976138234138</v>
       </c>
       <c r="J486">
         <v>65648.8099602572</v>
@@ -15920,7 +15920,7 @@
         <v>0.6274838092773419</v>
       </c>
       <c r="D487">
-        <v>2.277160281936863</v>
+        <v>0.9349370365095554</v>
       </c>
       <c r="E487">
         <v>55.97604333</v>
@@ -15935,7 +15935,7 @@
         <v>0.6676850594744987</v>
       </c>
       <c r="I487">
-        <v>0.2391991764307022</v>
+        <v>0.06472822278738022</v>
       </c>
       <c r="J487">
         <v>64968.192619813</v>
@@ -15952,7 +15952,7 @@
         <v>0.6213598298838842</v>
       </c>
       <c r="D488">
-        <v>2.122811161117576</v>
+        <v>0.7977379511383191</v>
       </c>
       <c r="E488">
         <v>54.81085535</v>
@@ -15967,7 +15967,7 @@
         <v>1.502192771739153</v>
       </c>
       <c r="I488">
-        <v>0.2532393038272858</v>
+        <v>0.06800094246864319</v>
       </c>
       <c r="J488">
         <v>62978.5770049678</v>
@@ -15984,7 +15984,7 @@
         <v>0.613675212419342</v>
       </c>
       <c r="D489">
-        <v>2.174051519433397</v>
+        <v>0.7662799282559927</v>
       </c>
       <c r="E489">
         <v>54.89255963</v>
@@ -15999,7 +15999,7 @@
         <v>0.5692229150530803</v>
       </c>
       <c r="I489">
-        <v>0.2619322240352631</v>
+        <v>0.0672181025147438</v>
       </c>
       <c r="J489">
         <v>64067.5959918177</v>
@@ -16016,7 +16016,7 @@
         <v>0.6083486853064174</v>
       </c>
       <c r="D490">
-        <v>1.99420488343541</v>
+        <v>0.7447439652771485</v>
       </c>
       <c r="E490">
         <v>52.40063278</v>
@@ -16031,7 +16031,7 @@
         <v>0.8655336795479363</v>
       </c>
       <c r="I490">
-        <v>0.2838070690631866</v>
+        <v>0.07618428021669388</v>
       </c>
       <c r="J490">
         <v>61431.2746879018</v>
@@ -16048,7 +16048,7 @@
         <v>0.6006396321154975</v>
       </c>
       <c r="D491">
-        <v>2.260822775832823</v>
+        <v>1.03080554060669</v>
       </c>
       <c r="E491">
         <v>56.40523205</v>
@@ -16063,7 +16063,7 @@
         <v>0.8691363297400612</v>
       </c>
       <c r="I491">
-        <v>0.2966401278972626</v>
+        <v>0.07956737279891968</v>
       </c>
       <c r="J491">
         <v>66259.4704260666</v>
@@ -16080,7 +16080,7 @@
         <v>0.5930884394216324</v>
       </c>
       <c r="D492">
-        <v>2.359791764906002</v>
+        <v>0.9437806867341192</v>
       </c>
       <c r="E492">
         <v>57.48887833</v>
@@ -16095,7 +16095,7 @@
         <v>1.243646840199997</v>
       </c>
       <c r="I492">
-        <v>0.3163193464279175</v>
+        <v>0.08989580720663071</v>
       </c>
       <c r="J492">
         <v>68445.0069532437</v>
@@ -16112,7 +16112,7 @@
         <v>0.5850576350234584</v>
       </c>
       <c r="D493">
-        <v>2.266879036457451</v>
+        <v>0.8705391702682223</v>
       </c>
       <c r="E493">
         <v>55.58242319</v>
@@ -16127,7 +16127,7 @@
         <v>0.616278195204556</v>
       </c>
       <c r="I493">
-        <v>0.33866086602211</v>
+        <v>0.1031854152679443</v>
       </c>
       <c r="J493">
         <v>67805.4855742256</v>
@@ -16144,7 +16144,7 @@
         <v>0.5764427036834826</v>
       </c>
       <c r="D494">
-        <v>2.341738346143419</v>
+        <v>0.8710301859058326</v>
       </c>
       <c r="E494">
         <v>56.23990044</v>
@@ -16159,7 +16159,7 @@
         <v>0.7691090824951674</v>
       </c>
       <c r="I494">
-        <v>0.3636194467544556</v>
+        <v>0.1189629659056664</v>
       </c>
       <c r="J494">
         <v>69644.0190894214</v>
@@ -16176,7 +16176,7 @@
         <v>0.5695166898966826</v>
       </c>
       <c r="D495">
-        <v>2.138026895227913</v>
+        <v>0.7478149863640252</v>
       </c>
       <c r="E495">
         <v>54.16580901</v>
@@ -16191,7 +16191,7 @@
         <v>0.4290993047718406</v>
       </c>
       <c r="I495">
-        <v>0.3932948410511017</v>
+        <v>0.1391825079917908</v>
       </c>
       <c r="J495">
         <v>66622.5999336645</v>
@@ -16208,7 +16208,7 @@
         <v>0.5643190139119044</v>
       </c>
       <c r="D496">
-        <v>1.923669766074188</v>
+        <v>0.4915582382806124</v>
       </c>
       <c r="E496">
         <v>52.30278397</v>
@@ -16223,7 +16223,7 @@
         <v>0.01499836925544784</v>
       </c>
       <c r="I496">
-        <v>0.4211725294589996</v>
+        <v>0.1584166586399078</v>
       </c>
       <c r="J496">
         <v>63345.0218760959</v>
@@ -16240,7 +16240,7 @@
         <v>0.5619180934139603</v>
       </c>
       <c r="D497">
-        <v>1.876852602516927</v>
+        <v>0.5881045237290815</v>
       </c>
       <c r="E497">
         <v>49.66380669</v>
@@ -16255,7 +16255,7 @@
         <v>0.7463773626927628</v>
       </c>
       <c r="I497">
-        <v>0.4332572221755981</v>
+        <v>0.164966493844986</v>
       </c>
       <c r="J497">
         <v>62763.2796861485</v>
@@ -16272,7 +16272,7 @@
         <v>0.5637322222054697</v>
       </c>
       <c r="D498">
-        <v>1.476815453783175</v>
+        <v>0.3271749901740338</v>
       </c>
       <c r="E498">
         <v>46.78130489</v>
@@ -16287,7 +16287,7 @@
         <v>0.08962882172853792</v>
       </c>
       <c r="I498">
-        <v>0.440239429473877</v>
+        <v>0.1683421581983566</v>
       </c>
       <c r="J498">
         <v>56112.5725587376</v>
@@ -16304,7 +16304,7 @@
         <v>0.5636132678951298</v>
       </c>
       <c r="D499">
-        <v>1.752543389789071</v>
+        <v>0.6499607997265112</v>
       </c>
       <c r="E499">
         <v>47.43951282</v>
@@ -16319,7 +16319,7 @@
         <v>0.7770321754151599</v>
       </c>
       <c r="I499">
-        <v>0.4402274191379547</v>
+        <v>0.1670078039169312</v>
       </c>
       <c r="J499">
         <v>61015.0339412624</v>
@@ -16336,7 +16336,7 @@
         <v>0.565788469885847</v>
       </c>
       <c r="D500">
-        <v>2.132249066148185</v>
+        <v>0.7357524883405181</v>
       </c>
       <c r="E500">
         <v>53.63281019</v>
@@ -16351,7 +16351,7 @@
         <v>1.217817819115075</v>
       </c>
       <c r="I500">
-        <v>0.4458718001842499</v>
+        <v>0.172165721654892</v>
       </c>
       <c r="J500">
         <v>68056.6201215663</v>
@@ -16368,7 +16368,7 @@
         <v>0.5704657852725408</v>
       </c>
       <c r="D501">
-        <v>2.112571661710028</v>
+        <v>0.6913772468811842</v>
       </c>
       <c r="E501">
         <v>54.41784169</v>
@@ -16383,7 +16383,7 @@
         <v>1.562270060473381</v>
       </c>
       <c r="I501">
-        <v>0.4579507112503052</v>
+        <v>0.183939516544342</v>
       </c>
       <c r="J501">
         <v>68170.66913091759</v>
@@ -16400,7 +16400,7 @@
         <v>0.5784874500243502</v>
       </c>
       <c r="D502">
-        <v>1.535996107188504</v>
+        <v>0.1722244988569444</v>
       </c>
       <c r="E502">
         <v>48.17269522</v>
@@ -16415,7 +16415,7 @@
         <v>-2.480543458565443</v>
       </c>
       <c r="I502">
-        <v>0.4688683152198792</v>
+        <v>0.1959308534860611</v>
       </c>
       <c r="J502">
         <v>58306.2644786675</v>
@@ -16432,7 +16432,7 @@
         <v>0.5859278251719763</v>
       </c>
       <c r="D503">
-        <v>1.55935379237612</v>
+        <v>0.3886948230926286</v>
       </c>
       <c r="E503">
         <v>48.53118052</v>
@@ -16447,7 +16447,7 @@
         <v>0.1672898361437358</v>
       </c>
       <c r="I503">
-        <v>0.4675150513648987</v>
+        <v>0.1960380673408508</v>
       </c>
       <c r="J503">
         <v>58836.1043722969</v>
@@ -16464,7 +16464,7 @@
         <v>0.5952957836059835</v>
       </c>
       <c r="D504">
-        <v>1.551193532197926</v>
+        <v>0.3898947514054802</v>
       </c>
       <c r="E504">
         <v>47.03411059</v>
@@ -16479,7 +16479,7 @@
         <v>-0.0773974626207985</v>
       </c>
       <c r="I504">
-        <v>0.4627884328365326</v>
+        <v>0.1938302963972092</v>
       </c>
       <c r="J504">
         <v>58793.2061458212</v>
@@ -16496,7 +16496,7 @@
         <v>0.601603197852841</v>
       </c>
       <c r="D505">
-        <v>1.859634064975742</v>
+        <v>0.5281940429674348</v>
       </c>
       <c r="E505">
         <v>50.55286259</v>
@@ -16511,7 +16511,7 @@
         <v>0.5984873205385099</v>
       </c>
       <c r="I505">
-        <v>0.4604062438011169</v>
+        <v>0.1957371830940247</v>
       </c>
       <c r="J505">
         <v>64498.0183413209</v>
@@ -16528,7 +16528,7 @@
         <v>0.608971923251221</v>
       </c>
       <c r="D506">
-        <v>1.450974367311445</v>
+        <v>0.3700678720015452</v>
       </c>
       <c r="E506">
         <v>46.64663683</v>
@@ -16543,7 +16543,7 @@
         <v>-0.1292232851603181</v>
       </c>
       <c r="I506">
-        <v>0.4646107256412506</v>
+        <v>0.2041957229375839</v>
       </c>
       <c r="J506">
         <v>57349.0807180012</v>
@@ -16560,7 +16560,7 @@
         <v>0.6169855092114255</v>
       </c>
       <c r="D507">
-        <v>1.309291934575944</v>
+        <v>0.2834198568537783</v>
       </c>
       <c r="E507">
         <v>41.67537703</v>
@@ -16575,7 +16575,7 @@
         <v>0.8079819080806905</v>
       </c>
       <c r="I507">
-        <v>0.4630516469478607</v>
+        <v>0.2084579467773438</v>
       </c>
       <c r="J507">
         <v>54859.2584082408</v>
@@ -16592,7 +16592,7 @@
         <v>0.6223131287085356</v>
       </c>
       <c r="D508">
-        <v>1.536890207762028</v>
+        <v>0.3248386035611407</v>
       </c>
       <c r="E508">
         <v>47.43048286</v>
@@ -16607,7 +16607,7 @@
         <v>0.2405726909871397</v>
       </c>
       <c r="I508">
-        <v>0.4582133293151855</v>
+        <v>0.2104663103818893</v>
       </c>
       <c r="J508">
         <v>59129.9197536528</v>
@@ -16624,7 +16624,7 @@
         <v>0.6261516263785925</v>
       </c>
       <c r="D509">
-        <v>1.767347151611217</v>
+        <v>0.5213058749717426</v>
       </c>
       <c r="E509">
         <v>49.69561848</v>
@@ -16639,7 +16639,7 @@
         <v>1.727297447507392</v>
       </c>
       <c r="I509">
-        <v>0.4538021385669708</v>
+        <v>0.2120782881975174</v>
       </c>
       <c r="J509">
         <v>63571.9521729983</v>
@@ -16656,7 +16656,7 @@
         <v>0.6278362768686683</v>
       </c>
       <c r="D510">
-        <v>1.860502123729215</v>
+        <v>0.5046893297281163</v>
       </c>
       <c r="E510">
         <v>51.36877192</v>
@@ -16671,7 +16671,7 @@
         <v>0.1512785514226289</v>
       </c>
       <c r="I510">
-        <v>0.4546007812023163</v>
+        <v>0.2184484750032425</v>
       </c>
       <c r="J510">
         <v>65617.7610689655</v>
@@ -16688,7 +16688,7 @@
         <v>0.6330298148749738</v>
       </c>
       <c r="D511">
-        <v>1.696164974940352</v>
+        <v>0.4679289722312253</v>
       </c>
       <c r="E511">
         <v>48.37127543</v>
@@ -16703,7 +16703,7 @@
         <v>0.5617649773618227</v>
       </c>
       <c r="I511">
-        <v>0.4588262736797333</v>
+        <v>0.2295832931995392</v>
       </c>
       <c r="J511">
         <v>62789.8814555815</v>
@@ -16720,7 +16720,7 @@
         <v>0.63939715874584</v>
       </c>
       <c r="D512">
-        <v>1.665551996557877</v>
+        <v>0.5783712783974095</v>
       </c>
       <c r="E512">
         <v>48.79273292</v>
@@ -16735,7 +16735,7 @@
         <v>1.899776773437711</v>
       </c>
       <c r="I512">
-        <v>0.463172048330307</v>
+        <v>0.2409999668598175</v>
       </c>
       <c r="J512">
         <v>62759.431113384</v>
@@ -16752,7 +16752,7 @@
         <v>0.6424155030609533</v>
       </c>
       <c r="D513">
-        <v>1.978709591462637</v>
+        <v>0.5992878346101808</v>
       </c>
       <c r="E513">
         <v>52.07061351</v>
@@ -16767,7 +16767,7 @@
         <v>4.00490733563803</v>
       </c>
       <c r="I513">
-        <v>0.4674668312072754</v>
+        <v>0.2526547014713287</v>
       </c>
       <c r="J513">
         <v>69012.35320894211</v>
@@ -16784,7 +16784,7 @@
         <v>0.6465871895242613</v>
       </c>
       <c r="D514">
-        <v>1.903324545069853</v>
+        <v>0.6764272757224253</v>
       </c>
       <c r="E514">
         <v>51.03196562</v>
@@ -16799,7 +16799,7 @@
         <v>1.653971115799302</v>
       </c>
       <c r="I514">
-        <v>0.4764028191566467</v>
+        <v>0.265943855047226</v>
       </c>
       <c r="J514">
         <v>68000.1475008767</v>
@@ -16816,7 +16816,7 @@
         <v>0.6483252865846113</v>
       </c>
       <c r="D515">
-        <v>1.918084078079499</v>
+        <v>0.5796075564136841</v>
       </c>
       <c r="E515">
         <v>51.76475474</v>
@@ -16831,7 +16831,7 @@
         <v>1.237095528672727</v>
       </c>
       <c r="I515">
-        <v>0.4830747246742249</v>
+        <v>0.2749417722225189</v>
       </c>
       <c r="J515">
         <v>68742.7546227352</v>
@@ -16848,7 +16848,7 @@
         <v>0.642922359204719</v>
       </c>
       <c r="D516">
-        <v>2.501440986327097</v>
+        <v>1.207113351252462</v>
       </c>
       <c r="E516">
         <v>55.96035811</v>
@@ -16863,7 +16863,7 @@
         <v>4.607711522351621</v>
       </c>
       <c r="I516">
-        <v>0.4889253079891205</v>
+        <v>0.2828658819198608</v>
       </c>
       <c r="J516">
         <v>80409.28656662771</v>
@@ -16880,7 +16880,7 @@
         <v>0.6336821575168828</v>
       </c>
       <c r="D517">
-        <v>2.905218012358775</v>
+        <v>1.177668661694631</v>
       </c>
       <c r="E517">
         <v>61.08620585</v>
@@ -16895,7 +16895,7 @@
         <v>3.039445540472507</v>
       </c>
       <c r="I517">
-        <v>0.5011947751045227</v>
+        <v>0.2948501408100128</v>
       </c>
       <c r="J517">
         <v>89732.97042928109</v>
@@ -16912,7 +16912,7 @@
         <v>0.6187644675843351</v>
       </c>
       <c r="D518">
-        <v>3.219467902151182</v>
+        <v>1.139851736503275</v>
       </c>
       <c r="E518">
         <v>62.61633967</v>
@@ -16927,7 +16927,7 @@
         <v>2.479731330469659</v>
       </c>
       <c r="I518">
-        <v>0.5189487338066101</v>
+        <v>0.3098213672637939</v>
       </c>
       <c r="J518">
         <v>97980.2082819988</v>
@@ -16944,7 +16944,7 @@
         <v>0.6070289417996042</v>
       </c>
       <c r="D519">
-        <v>3.125546196159932</v>
+        <v>1.159274264095984</v>
       </c>
       <c r="E519">
         <v>61.50908662</v>
@@ -16959,7 +16959,7 @@
         <v>2.691996887237957</v>
       </c>
       <c r="I519">
-        <v>0.540195643901825</v>
+        <v>0.3267525136470795</v>
       </c>
       <c r="J519">
         <v>97469.60445295151</v>
@@ -16976,7 +16976,7 @@
         <v>0.5972935892914361</v>
       </c>
       <c r="D520">
-        <v>3.199803954257344</v>
+        <v>1.113062375261605</v>
       </c>
       <c r="E520">
         <v>61.64293554</v>
@@ -16991,7 +16991,7 @@
         <v>6.492732656421984</v>
       </c>
       <c r="I520">
-        <v>0.5622889995574951</v>
+        <v>0.3432028889656067</v>
       </c>
       <c r="J520">
         <v>100798.98356429</v>
@@ -17008,7 +17008,7 @@
         <v>0.586097838206267</v>
       </c>
       <c r="D521">
-        <v>3.305243572689947</v>
+        <v>1.268864798140858</v>
       </c>
       <c r="E521">
         <v>61.32892133</v>
@@ -17023,7 +17023,7 @@
         <v>4.26065252306107</v>
       </c>
       <c r="I521">
-        <v>0.5874066948890686</v>
+        <v>0.3606570661067963</v>
       </c>
       <c r="J521">
         <v>104551.367141146</v>
@@ -17040,7 +17040,7 @@
         <v>0.5740518574020853</v>
       </c>
       <c r="D522">
-        <v>2.744941014157402</v>
+        <v>0.9199094081250886</v>
       </c>
       <c r="E522">
         <v>58.74535966</v>
@@ -17055,7 +17055,7 @@
         <v>5.333421013838047</v>
       </c>
       <c r="I522">
-        <v>0.6104810833930969</v>
+        <v>0.3754099905490875</v>
       </c>
       <c r="J522">
         <v>95149.10582524841</v>
@@ -17072,7 +17072,7 @@
         <v>0.564106006837494</v>
       </c>
       <c r="D523">
-        <v>2.605215748062194</v>
+        <v>0.8281260692790093</v>
       </c>
       <c r="E523">
         <v>57.24026093</v>
@@ -17087,7 +17087,7 @@
         <v>3.266502120162706</v>
       </c>
       <c r="I523">
-        <v>0.6239333748817444</v>
+        <v>0.3835295736789703</v>
       </c>
       <c r="J523">
         <v>93457.57832028061</v>
@@ -17104,7 +17104,7 @@
         <v>0.5527709916209589</v>
       </c>
       <c r="D524">
-        <v>2.800969984942633</v>
+        <v>1.054776641389748</v>
       </c>
       <c r="E524">
         <v>58.14427333</v>
@@ -17119,7 +17119,7 @@
         <v>2.029428196313421</v>
       </c>
       <c r="I524">
-        <v>0.6316498517990112</v>
+        <v>0.3852047622203827</v>
       </c>
       <c r="J524">
         <v>98414.81209643481</v>
@@ -17136,7 +17136,7 @@
         <v>0.5445277199826385</v>
       </c>
       <c r="D525">
-        <v>2.564996839721336</v>
+        <v>0.8408631275694182</v>
       </c>
       <c r="E525">
         <v>56.26685989</v>
@@ -17151,7 +17151,7 @@
         <v>0.3070844657727001</v>
       </c>
       <c r="I525">
-        <v>0.638446569442749</v>
+        <v>0.3855421543121338</v>
       </c>
       <c r="J525">
         <v>94353.77525862071</v>
@@ -17168,7 +17168,7 @@
         <v>0.5326133186424523</v>
       </c>
       <c r="D526">
-        <v>2.831601244616424</v>
+        <v>1.019221637916309</v>
       </c>
       <c r="E526">
         <v>58.51780586</v>
@@ -17183,7 +17183,7 @@
         <v>2.088524977224582</v>
       </c>
       <c r="I526">
-        <v>0.6412562131881714</v>
+        <v>0.3830335140228271</v>
       </c>
       <c r="J526">
         <v>100954.572281999</v>
@@ -17200,7 +17200,7 @@
         <v>0.5201771747869814</v>
       </c>
       <c r="D527">
-        <v>2.857948528935437</v>
+        <v>0.963434008990073</v>
       </c>
       <c r="E527">
         <v>59.54210498</v>
@@ -17215,7 +17215,7 @@
         <v>1.193141050891633</v>
       </c>
       <c r="I527">
-        <v>0.6478861570358276</v>
+        <v>0.3836361467838287</v>
       </c>
       <c r="J527">
         <v>102833.369273232</v>
@@ -17232,7 +17232,7 @@
         <v>0.5108436718503794</v>
       </c>
       <c r="D528">
-        <v>2.563515279422086</v>
+        <v>0.9389871075066364</v>
       </c>
       <c r="E528">
         <v>57.46529285</v>
@@ -17247,7 +17247,7 @@
         <v>0.7854067619961658</v>
       </c>
       <c r="I528">
-        <v>0.6560858488082886</v>
+        <v>0.3858649134635925</v>
       </c>
       <c r="J528">
         <v>97424.78090005839</v>
@@ -17264,7 +17264,7 @@
         <v>0.503351974340427</v>
       </c>
       <c r="D529">
-        <v>2.470558777330556</v>
+        <v>0.8109284705246247</v>
       </c>
       <c r="E529">
         <v>55.27625851</v>
@@ -17279,7 +17279,7 @@
         <v>0.7771136121911049</v>
       </c>
       <c r="I529">
-        <v>0.6620442867279053</v>
+        <v>0.3879269659519196</v>
       </c>
       <c r="J529">
         <v>96309.7532405026</v>
@@ -17296,7 +17296,7 @@
         <v>0.4969347910321221</v>
       </c>
       <c r="D530">
-        <v>2.436138977448592</v>
+        <v>0.7605513098352732</v>
       </c>
       <c r="E530">
         <v>55.58595516</v>
@@ -17311,7 +17311,7 @@
         <v>0.2669012038045926</v>
       </c>
       <c r="I530">
-        <v>0.6668531894683838</v>
+        <v>0.3878804743289948</v>
       </c>
       <c r="J530">
         <v>96182.2661706604</v>
@@ -17328,7 +17328,7 @@
         <v>0.490398757795606</v>
       </c>
       <c r="D531">
-        <v>2.405721974748321</v>
+        <v>0.6467206759679859</v>
       </c>
       <c r="E531">
         <v>55.07346588</v>
@@ -17343,7 +17343,7 @@
         <v>0.3384733236608151</v>
       </c>
       <c r="I531">
-        <v>0.6699284911155701</v>
+        <v>0.3862136006355286</v>
       </c>
       <c r="J531">
         <v>96091.63297749851</v>
@@ -17360,7 +17360,7 @@
         <v>0.4840445794792705</v>
       </c>
       <c r="D532">
-        <v>2.309496889533705</v>
+        <v>0.4884069405326098</v>
       </c>
       <c r="E532">
         <v>49.63466733</v>
@@ -17375,7 +17375,7 @@
         <v>0.5683915333269507</v>
       </c>
       <c r="I532">
-        <v>0.6739770770072937</v>
+        <v>0.3855949342250824</v>
       </c>
       <c r="J532">
         <v>94328.00944447691</v>
@@ -17392,7 +17392,7 @@
         <v>0.4822126256051544</v>
       </c>
       <c r="D533">
-        <v>1.676299684046415</v>
+        <v>0.2595166562242562</v>
       </c>
       <c r="E533">
         <v>49.58605341</v>
@@ -17407,7 +17407,7 @@
         <v>-0.3491168530370792</v>
       </c>
       <c r="I533">
-        <v>0.6793329119682312</v>
+        <v>0.3846381306648254</v>
       </c>
       <c r="J533">
         <v>80647.7964108709</v>
@@ -17424,7 +17424,7 @@
         <v>0.4804242620176978</v>
       </c>
       <c r="D534">
-        <v>1.747061705502933</v>
+        <v>0.410448468732227</v>
       </c>
       <c r="E534">
         <v>48.40436123</v>
@@ -17439,7 +17439,7 @@
         <v>0.02874867293549688</v>
       </c>
       <c r="I534">
-        <v>0.6778740882873535</v>
+        <v>0.378296285867691</v>
       </c>
       <c r="J534">
         <v>82492.1028287551</v>
@@ -17456,7 +17456,7 @@
         <v>0.4787920636151367</v>
       </c>
       <c r="D535">
-        <v>1.879747782964211</v>
+        <v>0.5025127836762977</v>
       </c>
       <c r="E535">
         <v>48.06036485</v>
@@ -17471,7 +17471,7 @@
         <v>1.223103567428607</v>
       </c>
       <c r="I535">
-        <v>0.6729742884635925</v>
+        <v>0.3693774938583374</v>
       </c>
       <c r="J535">
         <v>85760.8814506137</v>
@@ -17488,7 +17488,7 @@
         <v>0.4808010010192146</v>
       </c>
       <c r="D536">
-        <v>1.707971996714991</v>
+        <v>0.3528721754326396</v>
       </c>
       <c r="E536">
         <v>46.84289835</v>
@@ -17503,7 +17503,7 @@
         <v>-0.2816868617440793</v>
       </c>
       <c r="I536">
-        <v>0.6691945791244507</v>
+        <v>0.3610128164291382</v>
       </c>
       <c r="J536">
         <v>82216.4666765049</v>
@@ -17520,7 +17520,7 @@
         <v>0.486073864997257</v>
       </c>
       <c r="D537">
-        <v>1.507336841296794</v>
+        <v>0.2501379438734911</v>
       </c>
       <c r="E537">
         <v>47.18767409</v>
@@ -17535,7 +17535,7 @@
         <v>0.1287631860676486</v>
       </c>
       <c r="I537">
-        <v>0.6637042164802551</v>
+        <v>0.350847601890564</v>
       </c>
       <c r="J537">
         <v>77949.0884926943</v>
@@ -17552,7 +17552,7 @@
         <v>0.4922369844524472</v>
       </c>
       <c r="D538">
-        <v>1.742335714943108</v>
+        <v>0.4047387794247876</v>
       </c>
       <c r="E538">
         <v>48.6275228</v>
@@ -17567,7 +17567,7 @@
         <v>1.054389511503784</v>
       </c>
       <c r="I538">
-        <v>0.6535871028900146</v>
+        <v>0.3369103670120239</v>
       </c>
       <c r="J538">
         <v>83568.9544360023</v>
@@ -17584,7 +17584,7 @@
         <v>0.4982502695345901</v>
       </c>
       <c r="D539">
-        <v>1.803936203964546</v>
+        <v>0.4912206664054044</v>
       </c>
       <c r="E539">
         <v>48.6653269</v>
@@ -17599,7 +17599,7 @@
         <v>1.166274397069444</v>
       </c>
       <c r="I539">
-        <v>0.6428312659263611</v>
+        <v>0.3229868113994598</v>
       </c>
       <c r="J539">
         <v>85101.74615458791</v>
@@ -17616,7 +17616,7 @@
         <v>0.5034619422573574</v>
       </c>
       <c r="D540">
-        <v>2.147256893765586</v>
+        <v>0.6743751238282341</v>
       </c>
       <c r="E540">
         <v>53.02736129</v>
@@ -17631,7 +17631,7 @@
         <v>1.806452948635795</v>
       </c>
       <c r="I540">
-        <v>0.6317317485809326</v>
+        <v>0.3093495965003967</v>
       </c>
       <c r="J540">
         <v>93812.876534775</v>
@@ -17648,7 +17648,7 @@
         <v>0.5094814150464051</v>
       </c>
       <c r="D541">
-        <v>2.142720974000468</v>
+        <v>0.6477265057844405</v>
       </c>
       <c r="E541">
         <v>53.61823884</v>
@@ -17663,7 +17663,7 @@
         <v>2.376017511654771</v>
       </c>
       <c r="I541">
-        <v>0.6231032609939575</v>
+        <v>0.2986767888069153</v>
       </c>
       <c r="J541">
         <v>94377.78991963759</v>
@@ -17680,7 +17680,7 @@
         <v>0.5108484896487172</v>
       </c>
       <c r="D542">
-        <v>2.515223878156271</v>
+        <v>0.8291627934307733</v>
       </c>
       <c r="E542">
         <v>56.4754816</v>
@@ -17695,7 +17695,7 @@
         <v>1.873749653244738</v>
       </c>
       <c r="I542">
-        <v>0.6178085803985596</v>
+        <v>0.291242778301239</v>
       </c>
       <c r="J542">
         <v>103976.137798948</v>
@@ -17712,7 +17712,7 @@
         <v>0.5113999241173621</v>
       </c>
       <c r="D543">
-        <v>2.537123351269218</v>
+        <v>0.8648499522079519</v>
       </c>
       <c r="E543">
         <v>55.82312804</v>
@@ -17727,7 +17727,7 @@
         <v>3.269186807331659</v>
       </c>
       <c r="I543">
-        <v>0.6168849468231201</v>
+        <v>0.2879840135574341</v>
       </c>
       <c r="J543">
         <v>106015.689848919</v>
@@ -17744,7 +17744,7 @@
         <v>0.5124785202579709</v>
       </c>
       <c r="D544">
-        <v>2.612049016062649</v>
+        <v>0.9206841403986284</v>
       </c>
       <c r="E544">
         <v>57.54764147</v>
@@ -17759,7 +17759,7 @@
         <v>4.23950764123433</v>
       </c>
       <c r="I544">
-        <v>0.619070291519165</v>
+        <v>0.2867499887943268</v>
       </c>
       <c r="J544">
         <v>108914.876558445</v>
@@ -17776,7 +17776,7 @@
         <v>0.5128004874223953</v>
       </c>
       <c r="D545">
-        <v>2.441753621040475</v>
+        <v>0.8108246693991363</v>
       </c>
       <c r="E545">
         <v>55.52576333</v>
@@ -17791,7 +17791,7 @@
         <v>2.99012184379075</v>
       </c>
       <c r="I545">
-        <v>0.6230307221412659</v>
+        <v>0.2869366407394409</v>
       </c>
       <c r="J545">
         <v>105750.15972443</v>
@@ -17808,7 +17808,7 @@
         <v>0.5147901687195232</v>
       </c>
       <c r="D546">
-        <v>2.403727800594599</v>
+        <v>0.8935488769300234</v>
       </c>
       <c r="E546">
         <v>55.50869566</v>
@@ -17823,7 +17823,7 @@
         <v>1.514825326039593</v>
       </c>
       <c r="I546">
-        <v>0.6233731508255005</v>
+        <v>0.2836263477802277</v>
       </c>
       <c r="J546">
         <v>105727.739632379</v>
@@ -17840,7 +17840,7 @@
         <v>0.5171794346541715</v>
       </c>
       <c r="D547">
-        <v>2.364345730522425</v>
+        <v>0.8039875189438265</v>
       </c>
       <c r="E547">
         <v>55.03723885</v>
@@ -17855,7 +17855,7 @@
         <v>3.508037523905916</v>
       </c>
       <c r="I547">
-        <v>0.6209878325462341</v>
+        <v>0.2780446708202362</v>
       </c>
       <c r="J547">
         <v>105512.797437756</v>
@@ -17872,7 +17872,7 @@
         <v>0.5190093422539663</v>
       </c>
       <c r="D548">
-        <v>2.150620344272843</v>
+        <v>0.7513837956876657</v>
       </c>
       <c r="E548">
         <v>53.10243876</v>
@@ -17887,7 +17887,7 @@
         <v>1.151974965899605</v>
       </c>
       <c r="I548">
-        <v>0.6179842352867126</v>
+        <v>0.2736177146434784</v>
       </c>
       <c r="J548">
         <v>100899.234151958</v>
@@ -17904,7 +17904,7 @@
         <v>0.5188469237730703</v>
       </c>
       <c r="D549">
-        <v>2.414030276453309</v>
+        <v>0.7631513684928982</v>
       </c>
       <c r="E549">
         <v>55.24069297</v>
@@ -17919,7 +17919,7 @@
         <v>3.743098061636552</v>
       </c>
       <c r="I549">
-        <v>0.6101090312004089</v>
+        <v>0.2668131589889526</v>
       </c>
       <c r="J549">
         <v>108360.901696376</v>
@@ -17936,7 +17936,7 @@
         <v>0.5183282424653912</v>
       </c>
       <c r="D550">
-        <v>2.394494527241864</v>
+        <v>0.7498705654281255</v>
       </c>
       <c r="E550">
         <v>54.83519549</v>
@@ -17951,7 +17951,7 @@
         <v>2.727419844005197</v>
       </c>
       <c r="I550">
-        <v>0.6072885394096375</v>
+        <v>0.2655936777591705</v>
       </c>
       <c r="J550">
         <v>109180.005545587</v>
@@ -17968,7 +17968,7 @@
         <v>0.5159748995353282</v>
       </c>
       <c r="D551">
-        <v>2.726680252377657</v>
+        <v>0.9691447445331872</v>
       </c>
       <c r="E551">
         <v>57.87352889</v>
@@ -17983,7 +17983,7 @@
         <v>3.183820381646951</v>
       </c>
       <c r="I551">
-        <v>0.6066531538963318</v>
+        <v>0.2679209113121033</v>
       </c>
       <c r="J551">
         <v>118899.737107832</v>
@@ -18000,7 +18000,7 @@
         <v>0.5134785305661046</v>
       </c>
       <c r="D552">
-        <v>2.600957314507738</v>
+        <v>0.8698068979597899</v>
       </c>
       <c r="E552">
         <v>57.08653384</v>
@@ -18015,7 +18015,7 @@
         <v>1.735295437499307</v>
       </c>
       <c r="I552">
-        <v>0.6098529696464539</v>
+        <v>0.2710323333740234</v>
       </c>
       <c r="J552">
         <v>117305.680953828</v>
@@ -18032,7 +18032,7 @@
         <v>0.5073202716351362</v>
       </c>
       <c r="D553">
-        <v>2.638712204040376</v>
+        <v>0.8539157467762448</v>
       </c>
       <c r="E553">
         <v>56.75465963</v>
@@ -18047,7 +18047,7 @@
         <v>1.663718955694704</v>
       </c>
       <c r="I553">
-        <v>0.6132102012634277</v>
+        <v>0.2732402086257935</v>
       </c>
       <c r="J553">
         <v>119438.164235535</v>
@@ -18064,7 +18064,7 @@
         <v>0.5026157914323811</v>
       </c>
       <c r="D554">
-        <v>2.406494895116896</v>
+        <v>0.7765324214215048</v>
       </c>
       <c r="E554">
         <v>54.50458753</v>
@@ -18079,7 +18079,7 @@
         <v>0.8136597326489525</v>
       </c>
       <c r="I554">
-        <v>0.6170238852500916</v>
+        <v>0.2757544815540314</v>
       </c>
       <c r="J554">
         <v>114263.693947691</v>
@@ -18096,7 +18096,7 @@
         <v>0.4975558624398717</v>
       </c>
       <c r="D555">
-        <v>2.561535747783036</v>
+        <v>0.8386372628086651</v>
       </c>
       <c r="E555">
         <v>55.66488389</v>
@@ -18111,7 +18111,7 @@
         <v>1.454310937743797</v>
       </c>
       <c r="I555">
-        <v>0.6164355278015137</v>
+        <v>0.2760662138462067</v>
       </c>
       <c r="J555">
         <v>119189.198160275</v>
@@ -18128,7 +18128,7 @@
         <v>0.491833934221841</v>
       </c>
       <c r="D556">
-        <v>2.463418421583583</v>
+        <v>0.7620125483216504</v>
       </c>
       <c r="E556">
         <v>55.59922485</v>
@@ -18143,7 +18143,7 @@
         <v>0.2462996964090358</v>
       </c>
       <c r="I556">
-        <v>0.6160538792610168</v>
+        <v>0.2772529721260071</v>
       </c>
       <c r="J556">
         <v>117601.952231888</v>
@@ -18160,10 +18160,10 @@
         <v>0.4860968930764186</v>
       </c>
       <c r="D557">
-        <v>2.296537065366966</v>
+        <v>0.6094995201119279</v>
       </c>
       <c r="E557">
-        <v>53.86024786</v>
+        <v>52.41010159</v>
       </c>
       <c r="F557">
         <v>59.13360865765748</v>
@@ -18175,7 +18175,7 @@
         <v>0.354976402658802</v>
       </c>
       <c r="I557">
-        <v>0.6157454252243042</v>
+        <v>0.2783142626285553</v>
       </c>
       <c r="J557">
         <v>113516.122474401</v>
@@ -18186,31 +18186,159 @@
         <v>45894</v>
       </c>
       <c r="B558">
-        <v>1.991738004448536</v>
+        <v>1.91577099636756</v>
       </c>
       <c r="C558">
-        <v>0.4820951416396765</v>
+        <v>0.4826920769800037</v>
       </c>
       <c r="D558">
-        <v>2.234390249765892</v>
+        <v>0.5509142070698118</v>
       </c>
       <c r="E558">
-        <v>52.34745256</v>
+        <v>51.32478228</v>
       </c>
       <c r="F558">
-        <v>57.01737485844533</v>
+        <v>53.49564992408288</v>
       </c>
       <c r="G558">
         <v>1.026320078706332</v>
       </c>
       <c r="H558">
-        <v>0.3628707858597924</v>
+        <v>2.630365314627037</v>
       </c>
       <c r="I558">
-        <v>0.6143681406974792</v>
+        <v>0.2775325179100037</v>
       </c>
       <c r="J558">
-        <v>111684.95</v>
+        <v>108316.44689481</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10">
+      <c r="A559" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B559">
+        <v>1.957164240434456</v>
+      </c>
+      <c r="C559">
+        <v>0.4791074133819433</v>
+      </c>
+      <c r="D559">
+        <v>0.6073626816209216</v>
+      </c>
+      <c r="E559">
+        <v>52.3986538</v>
+      </c>
+      <c r="F559">
+        <v>56.08941471488187</v>
+      </c>
+      <c r="G559">
+        <v>1.064858114853916</v>
+      </c>
+      <c r="H559">
+        <v>4.022337182205682</v>
+      </c>
+      <c r="I559">
+        <v>0.2763558626174927</v>
+      </c>
+      <c r="J559">
+        <v>111307.784421087</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10">
+      <c r="A560" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B560">
+        <v>2.019676286880152</v>
+      </c>
+      <c r="C560">
+        <v>0.4767007200945117</v>
+      </c>
+      <c r="D560">
+        <v>0.6848025681908796</v>
+      </c>
+      <c r="E560">
+        <v>54.05384804</v>
+      </c>
+      <c r="F560">
+        <v>59.42052786684859</v>
+      </c>
+      <c r="G560">
+        <v>1.055082307782701</v>
+      </c>
+      <c r="H560">
+        <v>0.7500000000000062</v>
+      </c>
+      <c r="I560">
+        <v>0.2740726470947266</v>
+      </c>
+      <c r="J560">
+        <v>115395.933423437</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10">
+      <c r="A561" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B561">
+        <v>2.001572619530331</v>
+      </c>
+      <c r="C561">
+        <v>0.4747434339094497</v>
+      </c>
+      <c r="D561">
+        <v>0.6668601723280397</v>
+      </c>
+      <c r="E561">
+        <v>53.523689</v>
+      </c>
+      <c r="F561">
+        <v>59.33151422842318</v>
+      </c>
+      <c r="G561">
+        <v>1.087808120914438</v>
+      </c>
+      <c r="H561">
+        <v>4.173054652382646</v>
+      </c>
+      <c r="I561">
+        <v>0.2698709070682526</v>
+      </c>
+      <c r="J561">
+        <v>115320.858829047</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10">
+      <c r="A562" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B562">
+        <v>1.887599842950226</v>
+      </c>
+      <c r="C562">
+        <v>0.4759137381963947</v>
+      </c>
+      <c r="D562">
+        <v>0.5291555514002459</v>
+      </c>
+      <c r="E562">
+        <v>50.97287773</v>
+      </c>
+      <c r="F562">
+        <v>52.71502886611102</v>
+      </c>
+      <c r="G562">
+        <v>1.074331685691663</v>
+      </c>
+      <c r="H562">
+        <v>1.770370775948638</v>
+      </c>
+      <c r="I562">
+        <v>0.2661793529987335</v>
+      </c>
+      <c r="J562">
+        <v>109479.94</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>Shifted CVDD Background Ratio</t>
@@ -44,15 +44,1554 @@
   </si>
   <si>
     <t>Predicted Variable</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-02-08</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2016-03-14</t>
+  </si>
+  <si>
+    <t>2016-03-21</t>
+  </si>
+  <si>
+    <t>2016-03-28</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>2016-05-02</t>
+  </si>
+  <si>
+    <t>2016-05-09</t>
+  </si>
+  <si>
+    <t>2016-05-16</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
+    <t>2016-06-06</t>
+  </si>
+  <si>
+    <t>2016-06-13</t>
+  </si>
+  <si>
+    <t>2016-06-20</t>
+  </si>
+  <si>
+    <t>2016-06-27</t>
+  </si>
+  <si>
+    <t>2016-07-04</t>
+  </si>
+  <si>
+    <t>2016-07-11</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2016-09-05</t>
+  </si>
+  <si>
+    <t>2016-09-12</t>
+  </si>
+  <si>
+    <t>2016-09-19</t>
+  </si>
+  <si>
+    <t>2016-09-26</t>
+  </si>
+  <si>
+    <t>2016-10-03</t>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>2016-10-24</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-11-07</t>
+  </si>
+  <si>
+    <t>2016-11-14</t>
+  </si>
+  <si>
+    <t>2016-11-21</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>2016-12-05</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>2016-12-26</t>
+  </si>
+  <si>
+    <t>2017-01-02</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2017-01-23</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-20</t>
+  </si>
+  <si>
+    <t>2017-02-27</t>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>2017-04-03</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>2017-05-22</t>
+  </si>
+  <si>
+    <t>2017-05-29</t>
+  </si>
+  <si>
+    <t>2017-06-05</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
+  <si>
+    <t>2017-08-14</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>2017-09-25</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>2017-10-09</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2017-12-04</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2017-12-25</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>2018-01-29</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-02-12</t>
+  </si>
+  <si>
+    <t>2018-02-19</t>
+  </si>
+  <si>
+    <t>2018-02-26</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-04-02</t>
+  </si>
+  <si>
+    <t>2018-04-09</t>
+  </si>
+  <si>
+    <t>2018-04-16</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-18</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2018-07-23</t>
+  </si>
+  <si>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>2018-08-20</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>2018-12-24</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-22</t>
+  </si>
+  <si>
+    <t>2019-04-29</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-06-24</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-07-22</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-08-12</t>
+  </si>
+  <si>
+    <t>2019-08-19</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-09-02</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -105,12 +1644,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,8 +1982,8 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>42373</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1.728082478096491</v>
@@ -476,8 +2014,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
-        <v>42380</v>
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1.465651208547882</v>
@@ -508,8 +2046,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>42387</v>
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1.528754939122745</v>
@@ -540,8 +2078,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
-        <v>42394</v>
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1.379874937709038</v>
@@ -572,8 +2110,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
-        <v>42401</v>
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1.408274749836439</v>
@@ -604,8 +2142,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
-        <v>42408</v>
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1.519643537655471</v>
@@ -636,8 +2174,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <v>42415</v>
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1.632126471298723</v>
@@ -668,8 +2206,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <v>42422</v>
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1.603061915044763</v>
@@ -700,8 +2238,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <v>42429</v>
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>1.470758405188909</v>
@@ -732,8 +2270,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <v>42436</v>
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <v>1.488673833945467</v>
@@ -764,8 +2302,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>42443</v>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1.482689536727483</v>
@@ -796,8 +2334,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>42450</v>
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1.523498058028507</v>
@@ -828,8 +2366,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <v>42457</v>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1.498160782582505</v>
@@ -860,8 +2398,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>42464</v>
+      <c r="A15" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1.49538046539521</v>
@@ -892,8 +2430,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <v>42471</v>
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>1.51755631473349</v>
@@ -924,8 +2462,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <v>42478</v>
+      <c r="A17" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1.633344022820019</v>
@@ -956,8 +2494,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>42485</v>
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>1.596410066363286</v>
@@ -988,8 +2526,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>42492</v>
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1.614440476515794</v>
@@ -1020,8 +2558,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>42499</v>
+      <c r="A20" t="s">
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1.606419198381519</v>
@@ -1052,8 +2590,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>42506</v>
+      <c r="A21" t="s">
+        <v>29</v>
       </c>
       <c r="B21">
         <v>1.517697142795112</v>
@@ -1084,8 +2622,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>42513</v>
+      <c r="A22" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1.799068652259432</v>
@@ -1116,8 +2654,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>42520</v>
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1.94623633743648</v>
@@ -1148,8 +2686,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>42527</v>
+      <c r="A24" t="s">
+        <v>32</v>
       </c>
       <c r="B24">
         <v>2.242028655925991</v>
@@ -1180,8 +2718,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>42534</v>
+      <c r="A25" t="s">
+        <v>33</v>
       </c>
       <c r="B25">
         <v>2.516924612594077</v>
@@ -1212,8 +2750,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2">
-        <v>42541</v>
+      <c r="A26" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>2.04784497905543</v>
@@ -1244,8 +2782,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>42548</v>
+      <c r="A27" t="s">
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2.138791889787861</v>
@@ -1276,8 +2814,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2">
-        <v>42555</v>
+      <c r="A28" t="s">
+        <v>36</v>
       </c>
       <c r="B28">
         <v>2.079908097441819</v>
@@ -1308,8 +2846,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2">
-        <v>42562</v>
+      <c r="A29" t="s">
+        <v>37</v>
       </c>
       <c r="B29">
         <v>2.170084194534788</v>
@@ -1340,8 +2878,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2">
-        <v>42569</v>
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
       <c r="B30">
         <v>2.09774288802593</v>
@@ -1372,8 +2910,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2">
-        <v>42576</v>
+      <c r="A31" t="s">
+        <v>39</v>
       </c>
       <c r="B31">
         <v>1.973515227837121</v>
@@ -1404,8 +2942,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2">
-        <v>42583</v>
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="B32">
         <v>1.865246706129192</v>
@@ -1436,8 +2974,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="2">
-        <v>42590</v>
+      <c r="A33" t="s">
+        <v>41</v>
       </c>
       <c r="B33">
         <v>1.789035594308122</v>
@@ -1468,8 +3006,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="2">
-        <v>42597</v>
+      <c r="A34" t="s">
+        <v>42</v>
       </c>
       <c r="B34">
         <v>1.807160920993606</v>
@@ -1500,8 +3038,8 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2">
-        <v>42604</v>
+      <c r="A35" t="s">
+        <v>43</v>
       </c>
       <c r="B35">
         <v>1.78148210218311</v>
@@ -1532,8 +3070,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="2">
-        <v>42611</v>
+      <c r="A36" t="s">
+        <v>44</v>
       </c>
       <c r="B36">
         <v>1.88222223282391</v>
@@ -1564,8 +3102,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="2">
-        <v>42618</v>
+      <c r="A37" t="s">
+        <v>45</v>
       </c>
       <c r="B37">
         <v>1.869052537180608</v>
@@ -1596,8 +3134,8 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="2">
-        <v>42625</v>
+      <c r="A38" t="s">
+        <v>46</v>
       </c>
       <c r="B38">
         <v>1.870958438980993</v>
@@ -1628,8 +3166,8 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="2">
-        <v>42632</v>
+      <c r="A39" t="s">
+        <v>47</v>
       </c>
       <c r="B39">
         <v>1.826287333687179</v>
@@ -1660,8 +3198,8 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="2">
-        <v>42639</v>
+      <c r="A40" t="s">
+        <v>48</v>
       </c>
       <c r="B40">
         <v>1.856559007412708</v>
@@ -1692,8 +3230,8 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="2">
-        <v>42646</v>
+      <c r="A41" t="s">
+        <v>49</v>
       </c>
       <c r="B41">
         <v>1.86513497255854</v>
@@ -1724,8 +3262,8 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="2">
-        <v>42653</v>
+      <c r="A42" t="s">
+        <v>50</v>
       </c>
       <c r="B42">
         <v>1.933850201755923</v>
@@ -1756,8 +3294,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="2">
-        <v>42660</v>
+      <c r="A43" t="s">
+        <v>51</v>
       </c>
       <c r="B43">
         <v>1.944892892956323</v>
@@ -1788,8 +3326,8 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="2">
-        <v>42667</v>
+      <c r="A44" t="s">
+        <v>52</v>
       </c>
       <c r="B44">
         <v>2.069494187327358</v>
@@ -1820,8 +3358,8 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="2">
-        <v>42674</v>
+      <c r="A45" t="s">
+        <v>53</v>
       </c>
       <c r="B45">
         <v>2.108955464271576</v>
@@ -1852,8 +3390,8 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="2">
-        <v>42681</v>
+      <c r="A46" t="s">
+        <v>54</v>
       </c>
       <c r="B46">
         <v>2.058555984079202</v>
@@ -1884,8 +3422,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="2">
-        <v>42688</v>
+      <c r="A47" t="s">
+        <v>55</v>
       </c>
       <c r="B47">
         <v>2.116220889640099</v>
@@ -1916,8 +3454,8 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="2">
-        <v>42695</v>
+      <c r="A48" t="s">
+        <v>56</v>
       </c>
       <c r="B48">
         <v>2.079952013430034</v>
@@ -1948,8 +3486,8 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="2">
-        <v>42702</v>
+      <c r="A49" t="s">
+        <v>57</v>
       </c>
       <c r="B49">
         <v>2.161030511947458</v>
@@ -1980,8 +3518,8 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="2">
-        <v>42709</v>
+      <c r="A50" t="s">
+        <v>58</v>
       </c>
       <c r="B50">
         <v>2.157299194009607</v>
@@ -2012,8 +3550,8 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="2">
-        <v>42716</v>
+      <c r="A51" t="s">
+        <v>59</v>
       </c>
       <c r="B51">
         <v>2.192775231876122</v>
@@ -2044,8 +3582,8 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="2">
-        <v>42723</v>
+      <c r="A52" t="s">
+        <v>60</v>
       </c>
       <c r="B52">
         <v>2.43824975189945</v>
@@ -2076,8 +3614,8 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="2">
-        <v>42730</v>
+      <c r="A53" t="s">
+        <v>61</v>
       </c>
       <c r="B53">
         <v>2.668209872206881</v>
@@ -2108,8 +3646,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="2">
-        <v>42737</v>
+      <c r="A54" t="s">
+        <v>62</v>
       </c>
       <c r="B54">
         <v>2.376301362001578</v>
@@ -2140,8 +3678,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="2">
-        <v>42744</v>
+      <c r="A55" t="s">
+        <v>63</v>
       </c>
       <c r="B55">
         <v>2.127542947878644</v>
@@ -2172,8 +3710,8 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="2">
-        <v>42751</v>
+      <c r="A56" t="s">
+        <v>64</v>
       </c>
       <c r="B56">
         <v>2.36814966994493</v>
@@ -2204,8 +3742,8 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="2">
-        <v>42758</v>
+      <c r="A57" t="s">
+        <v>65</v>
       </c>
       <c r="B57">
         <v>2.323076134421268</v>
@@ -2236,8 +3774,8 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="2">
-        <v>42765</v>
+      <c r="A58" t="s">
+        <v>66</v>
       </c>
       <c r="B58">
         <v>2.548437067979357</v>
@@ -2268,8 +3806,8 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="2">
-        <v>42772</v>
+      <c r="A59" t="s">
+        <v>67</v>
       </c>
       <c r="B59">
         <v>2.494849119019959</v>
@@ -2300,8 +3838,8 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="2">
-        <v>42779</v>
+      <c r="A60" t="s">
+        <v>68</v>
       </c>
       <c r="B60">
         <v>2.604141232662378</v>
@@ -2332,8 +3870,8 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="2">
-        <v>42786</v>
+      <c r="A61" t="s">
+        <v>69</v>
       </c>
       <c r="B61">
         <v>2.855805304149327</v>
@@ -2364,8 +3902,8 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="2">
-        <v>42793</v>
+      <c r="A62" t="s">
+        <v>70</v>
       </c>
       <c r="B62">
         <v>3.033918035044628</v>
@@ -2396,8 +3934,8 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="2">
-        <v>42800</v>
+      <c r="A63" t="s">
+        <v>71</v>
       </c>
       <c r="B63">
         <v>2.882740966649139</v>
@@ -2428,8 +3966,8 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="2">
-        <v>42807</v>
+      <c r="A64" t="s">
+        <v>72</v>
       </c>
       <c r="B64">
         <v>2.3252293390639</v>
@@ -2460,8 +3998,8 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="2">
-        <v>42814</v>
+      <c r="A65" t="s">
+        <v>73</v>
       </c>
       <c r="B65">
         <v>2.121974337643819</v>
@@ -2492,8 +4030,8 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="2">
-        <v>42821</v>
+      <c r="A66" t="s">
+        <v>74</v>
       </c>
       <c r="B66">
         <v>2.403467760669356</v>
@@ -2524,8 +4062,8 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="2">
-        <v>42828</v>
+      <c r="A67" t="s">
+        <v>75</v>
       </c>
       <c r="B67">
         <v>2.608914256394497</v>
@@ -2556,8 +4094,8 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="2">
-        <v>42835</v>
+      <c r="A68" t="s">
+        <v>76</v>
       </c>
       <c r="B68">
         <v>2.497472494634186</v>
@@ -2588,8 +4126,8 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="2">
-        <v>42842</v>
+      <c r="A69" t="s">
+        <v>77</v>
       </c>
       <c r="B69">
         <v>2.639011880050849</v>
@@ -2620,8 +4158,8 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="2">
-        <v>42849</v>
+      <c r="A70" t="s">
+        <v>78</v>
       </c>
       <c r="B70">
         <v>2.869500411515663</v>
@@ -2652,8 +4190,8 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="2">
-        <v>42856</v>
+      <c r="A71" t="s">
+        <v>79</v>
       </c>
       <c r="B71">
         <v>3.075164060501116</v>
@@ -2684,8 +4222,8 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="2">
-        <v>42863</v>
+      <c r="A72" t="s">
+        <v>80</v>
       </c>
       <c r="B72">
         <v>3.506912032562597</v>
@@ -2716,8 +4254,8 @@
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="2">
-        <v>42870</v>
+      <c r="A73" t="s">
+        <v>81</v>
       </c>
       <c r="B73">
         <v>3.899774327718606</v>
@@ -2748,8 +4286,8 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="2">
-        <v>42877</v>
+      <c r="A74" t="s">
+        <v>82</v>
       </c>
       <c r="B74">
         <v>3.978123956065837</v>
@@ -2780,8 +4318,8 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="2">
-        <v>42884</v>
+      <c r="A75" t="s">
+        <v>83</v>
       </c>
       <c r="B75">
         <v>4.365350387587858</v>
@@ -2812,8 +4350,8 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="2">
-        <v>42891</v>
+      <c r="A76" t="s">
+        <v>84</v>
       </c>
       <c r="B76">
         <v>4.921860873465437</v>
@@ -2844,8 +4382,8 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="2">
-        <v>42898</v>
+      <c r="A77" t="s">
+        <v>85</v>
       </c>
       <c r="B77">
         <v>3.838467687972645</v>
@@ -2876,8 +4414,8 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="2">
-        <v>42905</v>
+      <c r="A78" t="s">
+        <v>86</v>
       </c>
       <c r="B78">
         <v>3.732042463831093</v>
@@ -2908,8 +4446,8 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="2">
-        <v>42912</v>
+      <c r="A79" t="s">
+        <v>87</v>
       </c>
       <c r="B79">
         <v>3.685108685819668</v>
@@ -2940,8 +4478,8 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="2">
-        <v>42919</v>
+      <c r="A80" t="s">
+        <v>88</v>
       </c>
       <c r="B80">
         <v>3.578725582468794</v>
@@ -2972,8 +4510,8 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="2">
-        <v>42926</v>
+      <c r="A81" t="s">
+        <v>89</v>
       </c>
       <c r="B81">
         <v>2.688100534589839</v>
@@ -3004,8 +4542,8 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="2">
-        <v>42933</v>
+      <c r="A82" t="s">
+        <v>90</v>
       </c>
       <c r="B82">
         <v>3.788293070434524</v>
@@ -3036,8 +4574,8 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="2">
-        <v>42940</v>
+      <c r="A83" t="s">
+        <v>91</v>
       </c>
       <c r="B83">
         <v>3.412787585147385</v>
@@ -3068,8 +4606,8 @@
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="2">
-        <v>42947</v>
+      <c r="A84" t="s">
+        <v>92</v>
       </c>
       <c r="B84">
         <v>3.47001778666166</v>
@@ -3100,8 +4638,8 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="2">
-        <v>42954</v>
+      <c r="A85" t="s">
+        <v>93</v>
       </c>
       <c r="B85">
         <v>4.150012611890925</v>
@@ -3132,8 +4670,8 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="2">
-        <v>42961</v>
+      <c r="A86" t="s">
+        <v>94</v>
       </c>
       <c r="B86">
         <v>3.966864685254906</v>
@@ -3164,8 +4702,8 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="2">
-        <v>42968</v>
+      <c r="A87" t="s">
+        <v>95</v>
       </c>
       <c r="B87">
         <v>4.059182260375347</v>
@@ -3196,8 +4734,8 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="2">
-        <v>42975</v>
+      <c r="A88" t="s">
+        <v>96</v>
       </c>
       <c r="B88">
         <v>4.147387588866463</v>
@@ -3228,8 +4766,8 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="2">
-        <v>42982</v>
+      <c r="A89" t="s">
+        <v>97</v>
       </c>
       <c r="B89">
         <v>3.731119028659484</v>
@@ -3260,8 +4798,8 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="2">
-        <v>42989</v>
+      <c r="A90" t="s">
+        <v>98</v>
       </c>
       <c r="B90">
         <v>3.180595143336707</v>
@@ -3292,8 +4830,8 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="2">
-        <v>42996</v>
+      <c r="A91" t="s">
+        <v>99</v>
       </c>
       <c r="B91">
         <v>3.105495932967184</v>
@@ -3324,8 +4862,8 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="2">
-        <v>43003</v>
+      <c r="A92" t="s">
+        <v>100</v>
       </c>
       <c r="B92">
         <v>3.555216522912939</v>
@@ -3356,8 +4894,8 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="2">
-        <v>43010</v>
+      <c r="A93" t="s">
+        <v>101</v>
       </c>
       <c r="B93">
         <v>3.613551971916537</v>
@@ -3388,8 +4926,8 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="2">
-        <v>43017</v>
+      <c r="A94" t="s">
+        <v>102</v>
       </c>
       <c r="B94">
         <v>4.306807290845431</v>
@@ -3420,8 +4958,8 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="2">
-        <v>43024</v>
+      <c r="A95" t="s">
+        <v>103</v>
       </c>
       <c r="B95">
         <v>4.333799876679244</v>
@@ -3452,8 +4990,8 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="2">
-        <v>43031</v>
+      <c r="A96" t="s">
+        <v>104</v>
       </c>
       <c r="B96">
         <v>4.321644166176439</v>
@@ -3484,8 +5022,8 @@
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="2">
-        <v>43038</v>
+      <c r="A97" t="s">
+        <v>105</v>
       </c>
       <c r="B97">
         <v>4.895710789092628</v>
@@ -3516,8 +5054,8 @@
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="2">
-        <v>43045</v>
+      <c r="A98" t="s">
+        <v>106</v>
       </c>
       <c r="B98">
         <v>3.530920839287523</v>
@@ -3548,8 +5086,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="2">
-        <v>43052</v>
+      <c r="A99" t="s">
+        <v>107</v>
       </c>
       <c r="B99">
         <v>4.615228693380947</v>
@@ -3580,8 +5118,8 @@
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="2">
-        <v>43059</v>
+      <c r="A100" t="s">
+        <v>108</v>
       </c>
       <c r="B100">
         <v>5.106897987664827</v>
@@ -3612,8 +5150,8 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="2">
-        <v>43066</v>
+      <c r="A101" t="s">
+        <v>109</v>
       </c>
       <c r="B101">
         <v>5.823181883614509</v>
@@ -3644,8 +5182,8 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="2">
-        <v>43073</v>
+      <c r="A102" t="s">
+        <v>110</v>
       </c>
       <c r="B102">
         <v>7.12852005611887</v>
@@ -3676,8 +5214,8 @@
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="2">
-        <v>43080</v>
+      <c r="A103" t="s">
+        <v>111</v>
       </c>
       <c r="B103">
         <v>8.02809875044635</v>
@@ -3708,8 +5246,8 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="2">
-        <v>43087</v>
+      <c r="A104" t="s">
+        <v>112</v>
       </c>
       <c r="B104">
         <v>5.441477082873448</v>
@@ -3740,8 +5278,8 @@
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="2">
-        <v>43094</v>
+      <c r="A105" t="s">
+        <v>113</v>
       </c>
       <c r="B105">
         <v>5.139047311628532</v>
@@ -3772,8 +5310,8 @@
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="2">
-        <v>43101</v>
+      <c r="A106" t="s">
+        <v>114</v>
       </c>
       <c r="B106">
         <v>5.536034471284139</v>
@@ -3804,8 +5342,8 @@
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="2">
-        <v>43108</v>
+      <c r="A107" t="s">
+        <v>115</v>
       </c>
       <c r="B107">
         <v>4.522602568281615</v>
@@ -3836,8 +5374,8 @@
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="2">
-        <v>43115</v>
+      <c r="A108" t="s">
+        <v>116</v>
       </c>
       <c r="B108">
         <v>3.688616032856609</v>
@@ -3868,8 +5406,8 @@
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="2">
-        <v>43122</v>
+      <c r="A109" t="s">
+        <v>117</v>
       </c>
       <c r="B109">
         <v>3.673238395518645</v>
@@ -3900,8 +5438,8 @@
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="2">
-        <v>43129</v>
+      <c r="A110" t="s">
+        <v>118</v>
       </c>
       <c r="B110">
         <v>2.523003645176095</v>
@@ -3932,8 +5470,8 @@
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="2">
-        <v>43136</v>
+      <c r="A111" t="s">
+        <v>119</v>
       </c>
       <c r="B111">
         <v>2.424037114261578</v>
@@ -3964,8 +5502,8 @@
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="2">
-        <v>43143</v>
+      <c r="A112" t="s">
+        <v>120</v>
       </c>
       <c r="B112">
         <v>3.103377300482585</v>
@@ -3996,8 +5534,8 @@
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="2">
-        <v>43150</v>
+      <c r="A113" t="s">
+        <v>121</v>
       </c>
       <c r="B113">
         <v>2.785742166082628</v>
@@ -4028,8 +5566,8 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="2">
-        <v>43157</v>
+      <c r="A114" t="s">
+        <v>122</v>
       </c>
       <c r="B114">
         <v>3.293457753971109</v>
@@ -4060,8 +5598,8 @@
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="2">
-        <v>43164</v>
+      <c r="A115" t="s">
+        <v>123</v>
       </c>
       <c r="B115">
         <v>2.712809493550806</v>
@@ -4092,8 +5630,8 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="2">
-        <v>43171</v>
+      <c r="A116" t="s">
+        <v>124</v>
       </c>
       <c r="B116">
         <v>2.322477353282669</v>
@@ -4124,8 +5662,8 @@
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="2">
-        <v>43178</v>
+      <c r="A117" t="s">
+        <v>125</v>
       </c>
       <c r="B117">
         <v>2.384355591602842</v>
@@ -4156,8 +5694,8 @@
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="2">
-        <v>43185</v>
+      <c r="A118" t="s">
+        <v>126</v>
       </c>
       <c r="B118">
         <v>1.914575500148512</v>
@@ -4188,8 +5726,8 @@
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="2">
-        <v>43192</v>
+      <c r="A119" t="s">
+        <v>127</v>
       </c>
       <c r="B119">
         <v>1.967082190439243</v>
@@ -4220,8 +5758,8 @@
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="2">
-        <v>43199</v>
+      <c r="A120" t="s">
+        <v>128</v>
       </c>
       <c r="B120">
         <v>2.327415329114248</v>
@@ -4252,8 +5790,8 @@
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="2">
-        <v>43206</v>
+      <c r="A121" t="s">
+        <v>129</v>
       </c>
       <c r="B121">
         <v>2.415432091986331</v>
@@ -4284,8 +5822,8 @@
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="2">
-        <v>43213</v>
+      <c r="A122" t="s">
+        <v>130</v>
       </c>
       <c r="B122">
         <v>2.551091691307391</v>
@@ -4316,8 +5854,8 @@
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="2">
-        <v>43220</v>
+      <c r="A123" t="s">
+        <v>131</v>
       </c>
       <c r="B123">
         <v>2.585887947710869</v>
@@ -4348,8 +5886,8 @@
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="2">
-        <v>43227</v>
+      <c r="A124" t="s">
+        <v>132</v>
       </c>
       <c r="B124">
         <v>2.330759401566413</v>
@@ -4380,8 +5918,8 @@
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="2">
-        <v>43234</v>
+      <c r="A125" t="s">
+        <v>133</v>
       </c>
       <c r="B125">
         <v>2.242839487513161</v>
@@ -4412,8 +5950,8 @@
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="2">
-        <v>43241</v>
+      <c r="A126" t="s">
+        <v>134</v>
       </c>
       <c r="B126">
         <v>1.927222984255688</v>
@@ -4444,8 +5982,8 @@
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="2">
-        <v>43248</v>
+      <c r="A127" t="s">
+        <v>135</v>
       </c>
       <c r="B127">
         <v>2.018997694587926</v>
@@ -4476,8 +6014,8 @@
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="2">
-        <v>43255</v>
+      <c r="A128" t="s">
+        <v>136</v>
       </c>
       <c r="B128">
         <v>1.7635188081257</v>
@@ -4508,8 +6046,8 @@
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="2">
-        <v>43262</v>
+      <c r="A129" t="s">
+        <v>137</v>
       </c>
       <c r="B129">
         <v>1.6840331476836</v>
@@ -4540,8 +6078,8 @@
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="2">
-        <v>43269</v>
+      <c r="A130" t="s">
+        <v>138</v>
       </c>
       <c r="B130">
         <v>1.600446294653932</v>
@@ -4572,8 +6110,8 @@
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="2">
-        <v>43276</v>
+      <c r="A131" t="s">
+        <v>139</v>
       </c>
       <c r="B131">
         <v>1.650739716801487</v>
@@ -4604,8 +6142,8 @@
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="2">
-        <v>43283</v>
+      <c r="A132" t="s">
+        <v>140</v>
       </c>
       <c r="B132">
         <v>1.736026906280422</v>
@@ -4636,8 +6174,8 @@
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="2">
-        <v>43290</v>
+      <c r="A133" t="s">
+        <v>141</v>
       </c>
       <c r="B133">
         <v>1.640917378798554</v>
@@ -4668,8 +6206,8 @@
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="2">
-        <v>43297</v>
+      <c r="A134" t="s">
+        <v>142</v>
       </c>
       <c r="B134">
         <v>1.906909151014572</v>
@@ -4700,8 +6238,8 @@
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="2">
-        <v>43304</v>
+      <c r="A135" t="s">
+        <v>143</v>
       </c>
       <c r="B135">
         <v>2.113733841261919</v>
@@ -4732,8 +6270,8 @@
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="2">
-        <v>43311</v>
+      <c r="A136" t="s">
+        <v>144</v>
       </c>
       <c r="B136">
         <v>1.802515073560301</v>
@@ -4764,8 +6302,8 @@
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="2">
-        <v>43318</v>
+      <c r="A137" t="s">
+        <v>145</v>
       </c>
       <c r="B137">
         <v>1.61455723302827</v>
@@ -4796,8 +6334,8 @@
       </c>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="2">
-        <v>43325</v>
+      <c r="A138" t="s">
+        <v>146</v>
       </c>
       <c r="B138">
         <v>1.648465163335531</v>
@@ -4828,8 +6366,8 @@
       </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="2">
-        <v>43332</v>
+      <c r="A139" t="s">
+        <v>147</v>
       </c>
       <c r="B139">
         <v>1.682535610416759</v>
@@ -4860,8 +6398,8 @@
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="2">
-        <v>43339</v>
+      <c r="A140" t="s">
+        <v>148</v>
       </c>
       <c r="B140">
         <v>1.816885791561183</v>
@@ -4892,8 +6430,8 @@
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="2">
-        <v>43346</v>
+      <c r="A141" t="s">
+        <v>149</v>
       </c>
       <c r="B141">
         <v>1.555768978573404</v>
@@ -4924,8 +6462,8 @@
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="2">
-        <v>43353</v>
+      <c r="A142" t="s">
+        <v>150</v>
       </c>
       <c r="B142">
         <v>1.610619046021598</v>
@@ -4956,8 +6494,8 @@
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="2">
-        <v>43360</v>
+      <c r="A143" t="s">
+        <v>151</v>
       </c>
       <c r="B143">
         <v>1.658587733401182</v>
@@ -4988,8 +6526,8 @@
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="2">
-        <v>43367</v>
+      <c r="A144" t="s">
+        <v>152</v>
       </c>
       <c r="B144">
         <v>1.629450932628036</v>
@@ -5020,8 +6558,8 @@
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="2">
-        <v>43374</v>
+      <c r="A145" t="s">
+        <v>153</v>
       </c>
       <c r="B145">
         <v>1.616585383574155</v>
@@ -5052,8 +6590,8 @@
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="2">
-        <v>43381</v>
+      <c r="A146" t="s">
+        <v>154</v>
       </c>
       <c r="B146">
         <v>1.517882188877988</v>
@@ -5084,8 +6622,8 @@
       </c>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="2">
-        <v>43388</v>
+      <c r="A147" t="s">
+        <v>155</v>
       </c>
       <c r="B147">
         <v>1.566919201157449</v>
@@ -5116,8 +6654,8 @@
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="2">
-        <v>43395</v>
+      <c r="A148" t="s">
+        <v>156</v>
       </c>
       <c r="B148">
         <v>1.561731722168907</v>
@@ -5148,8 +6686,8 @@
       </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="2">
-        <v>43402</v>
+      <c r="A149" t="s">
+        <v>157</v>
       </c>
       <c r="B149">
         <v>1.56235237189981</v>
@@ -5180,8 +6718,8 @@
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="2">
-        <v>43409</v>
+      <c r="A150" t="s">
+        <v>158</v>
       </c>
       <c r="B150">
         <v>1.539026030974279</v>
@@ -5212,8 +6750,8 @@
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="2">
-        <v>43416</v>
+      <c r="A151" t="s">
+        <v>159</v>
       </c>
       <c r="B151">
         <v>1.340777675113925</v>
@@ -5244,8 +6782,8 @@
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="2">
-        <v>43423</v>
+      <c r="A152" t="s">
+        <v>160</v>
       </c>
       <c r="B152">
         <v>0.9494380311409629</v>
@@ -5276,8 +6814,8 @@
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="2">
-        <v>43430</v>
+      <c r="A153" t="s">
+        <v>161</v>
       </c>
       <c r="B153">
         <v>0.9715152262136451</v>
@@ -5308,8 +6846,8 @@
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="2">
-        <v>43437</v>
+      <c r="A154" t="s">
+        <v>162</v>
       </c>
       <c r="B154">
         <v>0.8066779185783993</v>
@@ -5340,8 +6878,8 @@
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="2">
-        <v>43444</v>
+      <c r="A155" t="s">
+        <v>163</v>
       </c>
       <c r="B155">
         <v>0.7274418158096985</v>
@@ -5372,8 +6910,8 @@
       </c>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="2">
-        <v>43451</v>
+      <c r="A156" t="s">
+        <v>164</v>
       </c>
       <c r="B156">
         <v>0.8964164423110298</v>
@@ -5404,8 +6942,8 @@
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="2">
-        <v>43458</v>
+      <c r="A157" t="s">
+        <v>165</v>
       </c>
       <c r="B157">
         <v>0.8690941272517592</v>
@@ -5436,8 +6974,8 @@
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="2">
-        <v>43465</v>
+      <c r="A158" t="s">
+        <v>166</v>
       </c>
       <c r="B158">
         <v>0.9194754647786845</v>
@@ -5468,8 +7006,8 @@
       </c>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="2">
-        <v>43472</v>
+      <c r="A159" t="s">
+        <v>167</v>
       </c>
       <c r="B159">
         <v>0.794246605285154</v>
@@ -5500,8 +7038,8 @@
       </c>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="2">
-        <v>43479</v>
+      <c r="A160" t="s">
+        <v>168</v>
       </c>
       <c r="B160">
         <v>0.7927948898661473</v>
@@ -5532,8 +7070,8 @@
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="2">
-        <v>43486</v>
+      <c r="A161" t="s">
+        <v>169</v>
       </c>
       <c r="B161">
         <v>0.792634396291699</v>
@@ -5564,8 +7102,8 @@
       </c>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="2">
-        <v>43493</v>
+      <c r="A162" t="s">
+        <v>170</v>
       </c>
       <c r="B162">
         <v>0.7643371282106692</v>
@@ -5596,8 +7134,8 @@
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="2">
-        <v>43500</v>
+      <c r="A163" t="s">
+        <v>171</v>
       </c>
       <c r="B163">
         <v>0.8155036554629258</v>
@@ -5628,8 +7166,8 @@
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="2">
-        <v>43507</v>
+      <c r="A164" t="s">
+        <v>172</v>
       </c>
       <c r="B164">
         <v>0.8108582683670462</v>
@@ -5660,8 +7198,8 @@
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="2">
-        <v>43514</v>
+      <c r="A165" t="s">
+        <v>173</v>
       </c>
       <c r="B165">
         <v>0.8384908761767392</v>
@@ -5692,8 +7230,8 @@
       </c>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="2">
-        <v>43521</v>
+      <c r="A166" t="s">
+        <v>174</v>
       </c>
       <c r="B166">
         <v>0.8419329619666411</v>
@@ -5724,8 +7262,8 @@
       </c>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="2">
-        <v>43528</v>
+      <c r="A167" t="s">
+        <v>175</v>
       </c>
       <c r="B167">
         <v>0.8686430745132522</v>
@@ -5756,8 +7294,8 @@
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="2">
-        <v>43535</v>
+      <c r="A168" t="s">
+        <v>176</v>
       </c>
       <c r="B168">
         <v>0.882137410236781</v>
@@ -5788,8 +7326,8 @@
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="2">
-        <v>43542</v>
+      <c r="A169" t="s">
+        <v>177</v>
       </c>
       <c r="B169">
         <v>0.8824583028671348</v>
@@ -5820,8 +7358,8 @@
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="2">
-        <v>43549</v>
+      <c r="A170" t="s">
+        <v>178</v>
       </c>
       <c r="B170">
         <v>0.9089790412329759</v>
@@ -5852,8 +7390,8 @@
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="2">
-        <v>43556</v>
+      <c r="A171" t="s">
+        <v>179</v>
       </c>
       <c r="B171">
         <v>1.148613704982746</v>
@@ -5884,8 +7422,8 @@
       </c>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="2">
-        <v>43563</v>
+      <c r="A172" t="s">
+        <v>180</v>
       </c>
       <c r="B172">
         <v>1.137506900797498</v>
@@ -5916,8 +7454,8 @@
       </c>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="2">
-        <v>43570</v>
+      <c r="A173" t="s">
+        <v>181</v>
       </c>
       <c r="B173">
         <v>1.16613779714092</v>
@@ -5948,8 +7486,8 @@
       </c>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="2">
-        <v>43577</v>
+      <c r="A174" t="s">
+        <v>182</v>
       </c>
       <c r="B174">
         <v>1.12966880346466</v>
@@ -5980,8 +7518,8 @@
       </c>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="2">
-        <v>43584</v>
+      <c r="A175" t="s">
+        <v>183</v>
       </c>
       <c r="B175">
         <v>1.253049950578619</v>
@@ -6012,8 +7550,8 @@
       </c>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="2">
-        <v>43591</v>
+      <c r="A176" t="s">
+        <v>184</v>
       </c>
       <c r="B176">
         <v>1.510129582378244</v>
@@ -6044,8 +7582,8 @@
       </c>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="2">
-        <v>43598</v>
+      <c r="A177" t="s">
+        <v>185</v>
       </c>
       <c r="B177">
         <v>1.768678357740926</v>
@@ -6076,8 +7614,8 @@
       </c>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="2">
-        <v>43605</v>
+      <c r="A178" t="s">
+        <v>186</v>
       </c>
       <c r="B178">
         <v>1.86825275605716</v>
@@ -6108,8 +7646,8 @@
       </c>
     </row>
     <row r="179" spans="1:10">
-      <c r="A179" s="2">
-        <v>43612</v>
+      <c r="A179" t="s">
+        <v>187</v>
       </c>
       <c r="B179">
         <v>1.856917710067899</v>
@@ -6140,8 +7678,8 @@
       </c>
     </row>
     <row r="180" spans="1:10">
-      <c r="A180" s="2">
-        <v>43619</v>
+      <c r="A180" t="s">
+        <v>188</v>
       </c>
       <c r="B180">
         <v>1.605106853836793</v>
@@ -6172,8 +7710,8 @@
       </c>
     </row>
     <row r="181" spans="1:10">
-      <c r="A181" s="2">
-        <v>43626</v>
+      <c r="A181" t="s">
+        <v>189</v>
       </c>
       <c r="B181">
         <v>1.884630690537638</v>
@@ -6204,8 +7742,8 @@
       </c>
     </row>
     <row r="182" spans="1:10">
-      <c r="A182" s="2">
-        <v>43633</v>
+      <c r="A182" t="s">
+        <v>190</v>
       </c>
       <c r="B182">
         <v>2.236878249321135</v>
@@ -6236,8 +7774,8 @@
       </c>
     </row>
     <row r="183" spans="1:10">
-      <c r="A183" s="2">
-        <v>43640</v>
+      <c r="A183" t="s">
+        <v>191</v>
       </c>
       <c r="B183">
         <v>2.197070436022055</v>
@@ -6268,8 +7806,8 @@
       </c>
     </row>
     <row r="184" spans="1:10">
-      <c r="A184" s="2">
-        <v>43647</v>
+      <c r="A184" t="s">
+        <v>192</v>
       </c>
       <c r="B184">
         <v>2.304154113258335</v>
@@ -6300,8 +7838,8 @@
       </c>
     </row>
     <row r="185" spans="1:10">
-      <c r="A185" s="2">
-        <v>43654</v>
+      <c r="A185" t="s">
+        <v>193</v>
       </c>
       <c r="B185">
         <v>2.051539264698626</v>
@@ -6332,8 +7870,8 @@
       </c>
     </row>
     <row r="186" spans="1:10">
-      <c r="A186" s="2">
-        <v>43661</v>
+      <c r="A186" t="s">
+        <v>194</v>
       </c>
       <c r="B186">
         <v>2.09354258393387</v>
@@ -6364,8 +7902,8 @@
       </c>
     </row>
     <row r="187" spans="1:10">
-      <c r="A187" s="2">
-        <v>43668</v>
+      <c r="A187" t="s">
+        <v>195</v>
       </c>
       <c r="B187">
         <v>1.869023608968539</v>
@@ -6396,8 +7934,8 @@
       </c>
     </row>
     <row r="188" spans="1:10">
-      <c r="A188" s="2">
-        <v>43675</v>
+      <c r="A188" t="s">
+        <v>196</v>
       </c>
       <c r="B188">
         <v>2.083572699400091</v>
@@ -6428,8 +7966,8 @@
       </c>
     </row>
     <row r="189" spans="1:10">
-      <c r="A189" s="2">
-        <v>43682</v>
+      <c r="A189" t="s">
+        <v>197</v>
       </c>
       <c r="B189">
         <v>2.163214560812233</v>
@@ -6460,8 +7998,8 @@
       </c>
     </row>
     <row r="190" spans="1:10">
-      <c r="A190" s="2">
-        <v>43689</v>
+      <c r="A190" t="s">
+        <v>198</v>
       </c>
       <c r="B190">
         <v>1.93258740289867</v>
@@ -6492,8 +8030,8 @@
       </c>
     </row>
     <row r="191" spans="1:10">
-      <c r="A191" s="2">
-        <v>43696</v>
+      <c r="A191" t="s">
+        <v>199</v>
       </c>
       <c r="B191">
         <v>1.881463152423651</v>
@@ -6524,8 +8062,8 @@
       </c>
     </row>
     <row r="192" spans="1:10">
-      <c r="A192" s="2">
-        <v>43703</v>
+      <c r="A192" t="s">
+        <v>200</v>
       </c>
       <c r="B192">
         <v>1.814104239383731</v>
@@ -6556,8 +8094,8 @@
       </c>
     </row>
     <row r="193" spans="1:10">
-      <c r="A193" s="2">
-        <v>43710</v>
+      <c r="A193" t="s">
+        <v>201</v>
       </c>
       <c r="B193">
         <v>1.90778001273157</v>
@@ -6588,8 +8126,8 @@
       </c>
     </row>
     <row r="194" spans="1:10">
-      <c r="A194" s="2">
-        <v>43717</v>
+      <c r="A194" t="s">
+        <v>202</v>
       </c>
       <c r="B194">
         <v>1.881583229877104</v>
@@ -6620,8 +8158,8 @@
       </c>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="2">
-        <v>43724</v>
+      <c r="A195" t="s">
+        <v>203</v>
       </c>
       <c r="B195">
         <v>1.828799727720377</v>
@@ -6652,8 +8190,8 @@
       </c>
     </row>
     <row r="196" spans="1:10">
-      <c r="A196" s="2">
-        <v>43731</v>
+      <c r="A196" t="s">
+        <v>204</v>
       </c>
       <c r="B196">
         <v>1.459718850561741</v>
@@ -6684,8 +8222,8 @@
       </c>
     </row>
     <row r="197" spans="1:10">
-      <c r="A197" s="2">
-        <v>43738</v>
+      <c r="A197" t="s">
+        <v>205</v>
       </c>
       <c r="B197">
         <v>1.420686920045346</v>
@@ -6716,8 +8254,8 @@
       </c>
     </row>
     <row r="198" spans="1:10">
-      <c r="A198" s="2">
-        <v>43745</v>
+      <c r="A198" t="s">
+        <v>206</v>
       </c>
       <c r="B198">
         <v>1.497255266755487</v>
@@ -6748,8 +8286,8 @@
       </c>
     </row>
     <row r="199" spans="1:10">
-      <c r="A199" s="2">
-        <v>43752</v>
+      <c r="A199" t="s">
+        <v>207</v>
       </c>
       <c r="B199">
         <v>1.468840827583398</v>
@@ -6780,8 +8318,8 @@
       </c>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="2">
-        <v>43759</v>
+      <c r="A200" t="s">
+        <v>208</v>
       </c>
       <c r="B200">
         <v>1.699624020713533</v>
@@ -6812,8 +8350,8 @@
       </c>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="2">
-        <v>43766</v>
+      <c r="A201" t="s">
+        <v>209</v>
       </c>
       <c r="B201">
         <v>1.625711065917166</v>
@@ -6844,8 +8382,8 @@
       </c>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="2">
-        <v>43773</v>
+      <c r="A202" t="s">
+        <v>210</v>
       </c>
       <c r="B202">
         <v>1.586378790005081</v>
@@ -6876,8 +8414,8 @@
       </c>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="2">
-        <v>43780</v>
+      <c r="A203" t="s">
+        <v>211</v>
       </c>
       <c r="B203">
         <v>1.485691690782228</v>
@@ -6908,8 +8446,8 @@
       </c>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="2">
-        <v>43787</v>
+      <c r="A204" t="s">
+        <v>212</v>
       </c>
       <c r="B204">
         <v>1.205589187498912</v>
@@ -6940,8 +8478,8 @@
       </c>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="2">
-        <v>43794</v>
+      <c r="A205" t="s">
+        <v>213</v>
       </c>
       <c r="B205">
         <v>1.28492207911172</v>
@@ -6972,8 +8510,8 @@
       </c>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="2">
-        <v>43801</v>
+      <c r="A206" t="s">
+        <v>214</v>
       </c>
       <c r="B206">
         <v>1.302323184849257</v>
@@ -7004,8 +8542,8 @@
       </c>
     </row>
     <row r="207" spans="1:10">
-      <c r="A207" s="2">
-        <v>43808</v>
+      <c r="A207" t="s">
+        <v>215</v>
       </c>
       <c r="B207">
         <v>1.229044898246015</v>
@@ -7036,8 +8574,8 @@
       </c>
     </row>
     <row r="208" spans="1:10">
-      <c r="A208" s="2">
-        <v>43815</v>
+      <c r="A208" t="s">
+        <v>216</v>
       </c>
       <c r="B208">
         <v>1.288429823151878</v>
@@ -7068,8 +8606,8 @@
       </c>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="2">
-        <v>43822</v>
+      <c r="A209" t="s">
+        <v>217</v>
       </c>
       <c r="B209">
         <v>1.270116761367061</v>
@@ -7100,8 +8638,8 @@
       </c>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="2">
-        <v>43829</v>
+      <c r="A210" t="s">
+        <v>218</v>
       </c>
       <c r="B210">
         <v>1.260761061671337</v>
@@ -7132,8 +8670,8 @@
       </c>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" s="2">
-        <v>43836</v>
+      <c r="A211" t="s">
+        <v>219</v>
       </c>
       <c r="B211">
         <v>1.399250248808745</v>
@@ -7164,8 +8702,8 @@
       </c>
     </row>
     <row r="212" spans="1:10">
-      <c r="A212" s="2">
-        <v>43843</v>
+      <c r="A212" t="s">
+        <v>220</v>
       </c>
       <c r="B212">
         <v>1.482362663607155</v>
@@ -7196,8 +8734,8 @@
       </c>
     </row>
     <row r="213" spans="1:10">
-      <c r="A213" s="2">
-        <v>43850</v>
+      <c r="A213" t="s">
+        <v>221</v>
       </c>
       <c r="B213">
         <v>1.458938868307054</v>
@@ -7228,8 +8766,8 @@
       </c>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="2">
-        <v>43857</v>
+      <c r="A214" t="s">
+        <v>222</v>
       </c>
       <c r="B214">
         <v>1.582019536447863</v>
@@ -7260,8 +8798,8 @@
       </c>
     </row>
     <row r="215" spans="1:10">
-      <c r="A215" s="2">
-        <v>43864</v>
+      <c r="A215" t="s">
+        <v>223</v>
       </c>
       <c r="B215">
         <v>1.693241346274311</v>
@@ -7292,8 +8830,8 @@
       </c>
     </row>
     <row r="216" spans="1:10">
-      <c r="A216" s="2">
-        <v>43871</v>
+      <c r="A216" t="s">
+        <v>224</v>
       </c>
       <c r="B216">
         <v>1.650397834924375</v>
@@ -7324,8 +8862,8 @@
       </c>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="2">
-        <v>43878</v>
+      <c r="A217" t="s">
+        <v>225</v>
       </c>
       <c r="B217">
         <v>1.647554628691725</v>
@@ -7356,8 +8894,8 @@
       </c>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="2">
-        <v>43885</v>
+      <c r="A218" t="s">
+        <v>226</v>
       </c>
       <c r="B218">
         <v>1.405966372355343</v>
@@ -7388,8 +8926,8 @@
       </c>
     </row>
     <row r="219" spans="1:10">
-      <c r="A219" s="2">
-        <v>43892</v>
+      <c r="A219" t="s">
+        <v>227</v>
       </c>
       <c r="B219">
         <v>1.329388604520578</v>
@@ -7420,8 +8958,8 @@
       </c>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="2">
-        <v>43899</v>
+      <c r="A220" t="s">
+        <v>228</v>
       </c>
       <c r="B220">
         <v>0.8711972197844523</v>
@@ -7452,8 +8990,8 @@
       </c>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="2">
-        <v>43906</v>
+      <c r="A221" t="s">
+        <v>229</v>
       </c>
       <c r="B221">
         <v>0.9463033988950192</v>
@@ -7484,8 +9022,8 @@
       </c>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="2">
-        <v>43913</v>
+      <c r="A222" t="s">
+        <v>230</v>
       </c>
       <c r="B222">
         <v>0.9569051693585561</v>
@@ -7516,8 +9054,8 @@
       </c>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="2">
-        <v>43920</v>
+      <c r="A223" t="s">
+        <v>231</v>
       </c>
       <c r="B223">
         <v>1.099924804029584</v>
@@ -7548,8 +9086,8 @@
       </c>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="2">
-        <v>43927</v>
+      <c r="A224" t="s">
+        <v>232</v>
       </c>
       <c r="B224">
         <v>1.128863377933116</v>
@@ -7580,8 +9118,8 @@
       </c>
     </row>
     <row r="225" spans="1:10">
-      <c r="A225" s="2">
-        <v>43934</v>
+      <c r="A225" t="s">
+        <v>233</v>
       </c>
       <c r="B225">
         <v>1.155806532539947</v>
@@ -7612,8 +9150,8 @@
       </c>
     </row>
     <row r="226" spans="1:10">
-      <c r="A226" s="2">
-        <v>43941</v>
+      <c r="A226" t="s">
+        <v>234</v>
       </c>
       <c r="B226">
         <v>1.240767881285074</v>
@@ -7644,8 +9182,8 @@
       </c>
     </row>
     <row r="227" spans="1:10">
-      <c r="A227" s="2">
-        <v>43948</v>
+      <c r="A227" t="s">
+        <v>235</v>
       </c>
       <c r="B227">
         <v>1.431679487983477</v>
@@ -7676,8 +9214,8 @@
       </c>
     </row>
     <row r="228" spans="1:10">
-      <c r="A228" s="2">
-        <v>43955</v>
+      <c r="A228" t="s">
+        <v>236</v>
       </c>
       <c r="B228">
         <v>1.393995712275499</v>
@@ -7708,8 +9246,8 @@
       </c>
     </row>
     <row r="229" spans="1:10">
-      <c r="A229" s="2">
-        <v>43962</v>
+      <c r="A229" t="s">
+        <v>237</v>
       </c>
       <c r="B229">
         <v>1.544957735050305</v>
@@ -7740,8 +9278,8 @@
       </c>
     </row>
     <row r="230" spans="1:10">
-      <c r="A230" s="2">
-        <v>43969</v>
+      <c r="A230" t="s">
+        <v>238</v>
       </c>
       <c r="B230">
         <v>1.402722668118981</v>
@@ -7772,8 +9310,8 @@
       </c>
     </row>
     <row r="231" spans="1:10">
-      <c r="A231" s="2">
-        <v>43976</v>
+      <c r="A231" t="s">
+        <v>239</v>
       </c>
       <c r="B231">
         <v>1.499723842985236</v>
@@ -7804,8 +9342,8 @@
       </c>
     </row>
     <row r="232" spans="1:10">
-      <c r="A232" s="2">
-        <v>43983</v>
+      <c r="A232" t="s">
+        <v>240</v>
       </c>
       <c r="B232">
         <v>1.543169971106606</v>
@@ -7836,8 +9374,8 @@
       </c>
     </row>
     <row r="233" spans="1:10">
-      <c r="A233" s="2">
-        <v>43990</v>
+      <c r="A233" t="s">
+        <v>241</v>
       </c>
       <c r="B233">
         <v>1.475566348243377</v>
@@ -7868,8 +9406,8 @@
       </c>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="2">
-        <v>43997</v>
+      <c r="A234" t="s">
+        <v>242</v>
       </c>
       <c r="B234">
         <v>1.463133772314459</v>
@@ -7900,8 +9438,8 @@
       </c>
     </row>
     <row r="235" spans="1:10">
-      <c r="A235" s="2">
-        <v>44004</v>
+      <c r="A235" t="s">
+        <v>243</v>
       </c>
       <c r="B235">
         <v>1.429093587476556</v>
@@ -7932,8 +9470,8 @@
       </c>
     </row>
     <row r="236" spans="1:10">
-      <c r="A236" s="2">
-        <v>44011</v>
+      <c r="A236" t="s">
+        <v>244</v>
       </c>
       <c r="B236">
         <v>1.422351774937486</v>
@@ -7964,8 +9502,8 @@
       </c>
     </row>
     <row r="237" spans="1:10">
-      <c r="A237" s="2">
-        <v>44018</v>
+      <c r="A237" t="s">
+        <v>245</v>
       </c>
       <c r="B237">
         <v>1.451872834179695</v>
@@ -7996,8 +9534,8 @@
       </c>
     </row>
     <row r="238" spans="1:10">
-      <c r="A238" s="2">
-        <v>44025</v>
+      <c r="A238" t="s">
+        <v>246</v>
       </c>
       <c r="B238">
         <v>1.43688540139882</v>
@@ -8028,8 +9566,8 @@
       </c>
     </row>
     <row r="239" spans="1:10">
-      <c r="A239" s="2">
-        <v>44032</v>
+      <c r="A239" t="s">
+        <v>247</v>
       </c>
       <c r="B239">
         <v>1.544271266843855</v>
@@ -8060,8 +9598,8 @@
       </c>
     </row>
     <row r="240" spans="1:10">
-      <c r="A240" s="2">
-        <v>44039</v>
+      <c r="A240" t="s">
+        <v>248</v>
       </c>
       <c r="B240">
         <v>1.711378049936983</v>
@@ -8092,8 +9630,8 @@
       </c>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="2">
-        <v>44046</v>
+      <c r="A241" t="s">
+        <v>249</v>
       </c>
       <c r="B241">
         <v>1.788916660812095</v>
@@ -8124,8 +9662,8 @@
       </c>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="2">
-        <v>44053</v>
+      <c r="A242" t="s">
+        <v>250</v>
       </c>
       <c r="B242">
         <v>1.813030185706998</v>
@@ -8156,8 +9694,8 @@
       </c>
     </row>
     <row r="243" spans="1:10">
-      <c r="A243" s="2">
-        <v>44060</v>
+      <c r="A243" t="s">
+        <v>251</v>
       </c>
       <c r="B243">
         <v>1.768424197004657</v>
@@ -8188,8 +9726,8 @@
       </c>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="2">
-        <v>44067</v>
+      <c r="A244" t="s">
+        <v>252</v>
       </c>
       <c r="B244">
         <v>1.766221274962062</v>
@@ -8220,8 +9758,8 @@
       </c>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="2">
-        <v>44074</v>
+      <c r="A245" t="s">
+        <v>253</v>
       </c>
       <c r="B245">
         <v>1.537871122429924</v>
@@ -8252,8 +9790,8 @@
       </c>
     </row>
     <row r="246" spans="1:10">
-      <c r="A246" s="2">
-        <v>44081</v>
+      <c r="A246" t="s">
+        <v>254</v>
       </c>
       <c r="B246">
         <v>1.544423040988042</v>
@@ -8284,8 +9822,8 @@
       </c>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="2">
-        <v>44088</v>
+      <c r="A247" t="s">
+        <v>255</v>
       </c>
       <c r="B247">
         <v>1.625935442270656</v>
@@ -8316,8 +9854,8 @@
       </c>
     </row>
     <row r="248" spans="1:10">
-      <c r="A248" s="2">
-        <v>44095</v>
+      <c r="A248" t="s">
+        <v>256</v>
       </c>
       <c r="B248">
         <v>1.595378750479683</v>
@@ -8348,8 +9886,8 @@
       </c>
     </row>
     <row r="249" spans="1:10">
-      <c r="A249" s="2">
-        <v>44102</v>
+      <c r="A249" t="s">
+        <v>257</v>
       </c>
       <c r="B249">
         <v>1.57532310733655</v>
@@ -8380,8 +9918,8 @@
       </c>
     </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="2">
-        <v>44109</v>
+      <c r="A250" t="s">
+        <v>258</v>
       </c>
       <c r="B250">
         <v>1.674989784260311</v>
@@ -8412,8 +9950,8 @@
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="2">
-        <v>44116</v>
+      <c r="A251" t="s">
+        <v>259</v>
       </c>
       <c r="B251">
         <v>1.686123308657468</v>
@@ -8444,8 +9982,8 @@
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="2">
-        <v>44123</v>
+      <c r="A252" t="s">
+        <v>260</v>
       </c>
       <c r="B252">
         <v>1.883743976224158</v>
@@ -8476,8 +10014,8 @@
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="2">
-        <v>44130</v>
+      <c r="A253" t="s">
+        <v>261</v>
       </c>
       <c r="B253">
         <v>1.970396946715059</v>
@@ -8508,8 +10046,8 @@
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="2">
-        <v>44137</v>
+      <c r="A254" t="s">
+        <v>262</v>
       </c>
       <c r="B254">
         <v>2.153778598108775</v>
@@ -8540,8 +10078,8 @@
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="2">
-        <v>44144</v>
+      <c r="A255" t="s">
+        <v>263</v>
       </c>
       <c r="B255">
         <v>2.198649613290575</v>
@@ -8572,8 +10110,8 @@
       </c>
     </row>
     <row r="256" spans="1:10">
-      <c r="A256" s="2">
-        <v>44151</v>
+      <c r="A256" t="s">
+        <v>264</v>
       </c>
       <c r="B256">
         <v>2.496462845125929</v>
@@ -8604,8 +10142,8 @@
       </c>
     </row>
     <row r="257" spans="1:10">
-      <c r="A257" s="2">
-        <v>44158</v>
+      <c r="A257" t="s">
+        <v>265</v>
       </c>
       <c r="B257">
         <v>2.416153009339695</v>
@@ -8636,8 +10174,8 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="2">
-        <v>44165</v>
+      <c r="A258" t="s">
+        <v>266</v>
       </c>
       <c r="B258">
         <v>2.530336996225274</v>
@@ -8668,8 +10206,8 @@
       </c>
     </row>
     <row r="259" spans="1:10">
-      <c r="A259" s="2">
-        <v>44172</v>
+      <c r="A259" t="s">
+        <v>267</v>
       </c>
       <c r="B259">
         <v>2.456195502807712</v>
@@ -8700,8 +10238,8 @@
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="A260" s="2">
-        <v>44179</v>
+      <c r="A260" t="s">
+        <v>268</v>
       </c>
       <c r="B260">
         <v>2.946581504975688</v>
@@ -8732,8 +10270,8 @@
       </c>
     </row>
     <row r="261" spans="1:10">
-      <c r="A261" s="2">
-        <v>44186</v>
+      <c r="A261" t="s">
+        <v>269</v>
       </c>
       <c r="B261">
         <v>3.229081879525173</v>
@@ -8764,8 +10302,8 @@
       </c>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="2">
-        <v>44193</v>
+      <c r="A262" t="s">
+        <v>270</v>
       </c>
       <c r="B262">
         <v>3.881378386773443</v>
@@ -8796,8 +10334,8 @@
       </c>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="2">
-        <v>44200</v>
+      <c r="A263" t="s">
+        <v>271</v>
       </c>
       <c r="B263">
         <v>4.244385024586466</v>
@@ -8828,8 +10366,8 @@
       </c>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="2">
-        <v>44207</v>
+      <c r="A264" t="s">
+        <v>272</v>
       </c>
       <c r="B264">
         <v>3.902212030415755</v>
@@ -8860,8 +10398,8 @@
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="2">
-        <v>44214</v>
+      <c r="A265" t="s">
+        <v>273</v>
       </c>
       <c r="B265">
         <v>3.439470032112835</v>
@@ -8892,8 +10430,8 @@
       </c>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="2">
-        <v>44221</v>
+      <c r="A266" t="s">
+        <v>274</v>
       </c>
       <c r="B266">
         <v>3.465540565443854</v>
@@ -8924,8 +10462,8 @@
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="2">
-        <v>44228</v>
+      <c r="A267" t="s">
+        <v>275</v>
       </c>
       <c r="B267">
         <v>3.995345942205376</v>
@@ -8956,8 +10494,8 @@
       </c>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="2">
-        <v>44235</v>
+      <c r="A268" t="s">
+        <v>276</v>
       </c>
       <c r="B268">
         <v>4.867790456516587</v>
@@ -8988,8 +10526,8 @@
       </c>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="2">
-        <v>44242</v>
+      <c r="A269" t="s">
+        <v>277</v>
       </c>
       <c r="B269">
         <v>5.533936413263165</v>
@@ -9020,8 +10558,8 @@
       </c>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="2">
-        <v>44249</v>
+      <c r="A270" t="s">
+        <v>278</v>
       </c>
       <c r="B270">
         <v>4.21759884651062</v>
@@ -9052,8 +10590,8 @@
       </c>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="2">
-        <v>44256</v>
+      <c r="A271" t="s">
+        <v>279</v>
       </c>
       <c r="B271">
         <v>4.670297808511451</v>
@@ -9084,8 +10622,8 @@
       </c>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="2">
-        <v>44263</v>
+      <c r="A272" t="s">
+        <v>280</v>
       </c>
       <c r="B272">
         <v>5.287838926220999</v>
@@ -9116,8 +10654,8 @@
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="2">
-        <v>44270</v>
+      <c r="A273" t="s">
+        <v>281</v>
       </c>
       <c r="B273">
         <v>4.971908805943028</v>
@@ -9148,8 +10686,8 @@
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="2">
-        <v>44277</v>
+      <c r="A274" t="s">
+        <v>282</v>
       </c>
       <c r="B274">
         <v>4.703504117957894</v>
@@ -9180,8 +10718,8 @@
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="2">
-        <v>44284</v>
+      <c r="A275" t="s">
+        <v>283</v>
       </c>
       <c r="B275">
         <v>4.798564561613446</v>
@@ -9212,8 +10750,8 @@
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="2">
-        <v>44291</v>
+      <c r="A276" t="s">
+        <v>284</v>
       </c>
       <c r="B276">
         <v>4.817436333584306</v>
@@ -9244,8 +10782,8 @@
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="2">
-        <v>44298</v>
+      <c r="A277" t="s">
+        <v>285</v>
       </c>
       <c r="B277">
         <v>4.36918565112359</v>
@@ -9276,8 +10814,8 @@
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="2">
-        <v>44305</v>
+      <c r="A278" t="s">
+        <v>286</v>
       </c>
       <c r="B278">
         <v>3.720269628981184</v>
@@ -9308,8 +10846,8 @@
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="2">
-        <v>44312</v>
+      <c r="A279" t="s">
+        <v>287</v>
       </c>
       <c r="B279">
         <v>4.209476615825341</v>
@@ -9340,8 +10878,8 @@
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="2">
-        <v>44319</v>
+      <c r="A280" t="s">
+        <v>288</v>
       </c>
       <c r="B280">
         <v>4.25664967290682</v>
@@ -9372,8 +10910,8 @@
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="2">
-        <v>44326</v>
+      <c r="A281" t="s">
+        <v>289</v>
       </c>
       <c r="B281">
         <v>3.305328000591206</v>
@@ -9404,8 +10942,8 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="2">
-        <v>44333</v>
+      <c r="A282" t="s">
+        <v>290</v>
       </c>
       <c r="B282">
         <v>2.461036241298174</v>
@@ -9436,8 +10974,8 @@
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="2">
-        <v>44340</v>
+      <c r="A283" t="s">
+        <v>291</v>
       </c>
       <c r="B283">
         <v>2.496741307470947</v>
@@ -9468,8 +11006,8 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="2">
-        <v>44347</v>
+      <c r="A284" t="s">
+        <v>292</v>
       </c>
       <c r="B284">
         <v>2.481399813401759</v>
@@ -9500,8 +11038,8 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="2">
-        <v>44354</v>
+      <c r="A285" t="s">
+        <v>293</v>
       </c>
       <c r="B285">
         <v>2.686944680366717</v>
@@ -9532,8 +11070,8 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="2">
-        <v>44361</v>
+      <c r="A286" t="s">
+        <v>294</v>
       </c>
       <c r="B286">
         <v>2.395424644451151</v>
@@ -9564,8 +11102,8 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="2">
-        <v>44368</v>
+      <c r="A287" t="s">
+        <v>295</v>
       </c>
       <c r="B287">
         <v>2.231045924430703</v>
@@ -9596,8 +11134,8 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="2">
-        <v>44375</v>
+      <c r="A288" t="s">
+        <v>296</v>
       </c>
       <c r="B288">
         <v>2.409193676467039</v>
@@ -9628,8 +11166,8 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="2">
-        <v>44382</v>
+      <c r="A289" t="s">
+        <v>297</v>
       </c>
       <c r="B289">
         <v>2.300610726177719</v>
@@ -9660,8 +11198,8 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="2">
-        <v>44389</v>
+      <c r="A290" t="s">
+        <v>298</v>
       </c>
       <c r="B290">
         <v>2.124820956621716</v>
@@ -9692,8 +11230,8 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="2">
-        <v>44396</v>
+      <c r="A291" t="s">
+        <v>299</v>
       </c>
       <c r="B291">
         <v>2.35124243350281</v>
@@ -9724,8 +11262,8 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="2">
-        <v>44403</v>
+      <c r="A292" t="s">
+        <v>300</v>
       </c>
       <c r="B292">
         <v>2.677226737883045</v>
@@ -9756,8 +11294,8 @@
       </c>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="2">
-        <v>44410</v>
+      <c r="A293" t="s">
+        <v>301</v>
       </c>
       <c r="B293">
         <v>2.832722663819523</v>
@@ -9788,8 +11326,8 @@
       </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="2">
-        <v>44417</v>
+      <c r="A294" t="s">
+        <v>302</v>
       </c>
       <c r="B294">
         <v>3.003803220412004</v>
@@ -9820,8 +11358,8 @@
       </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="2">
-        <v>44424</v>
+      <c r="A295" t="s">
+        <v>303</v>
       </c>
       <c r="B295">
         <v>3.095968133928668</v>
@@ -9852,8 +11390,8 @@
       </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="2">
-        <v>44431</v>
+      <c r="A296" t="s">
+        <v>304</v>
       </c>
       <c r="B296">
         <v>3.09490710784404</v>
@@ -9884,8 +11422,8 @@
       </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="2">
-        <v>44438</v>
+      <c r="A297" t="s">
+        <v>305</v>
       </c>
       <c r="B297">
         <v>3.252188670582711</v>
@@ -9916,8 +11454,8 @@
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="2">
-        <v>44445</v>
+      <c r="A298" t="s">
+        <v>306</v>
       </c>
       <c r="B298">
         <v>2.889488506249116</v>
@@ -9948,8 +11486,8 @@
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="2">
-        <v>44452</v>
+      <c r="A299" t="s">
+        <v>307</v>
       </c>
       <c r="B299">
         <v>2.95748184158486</v>
@@ -9980,8 +11518,8 @@
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="2">
-        <v>44459</v>
+      <c r="A300" t="s">
+        <v>308</v>
       </c>
       <c r="B300">
         <v>2.647149880589799</v>
@@ -10012,8 +11550,8 @@
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="2">
-        <v>44466</v>
+      <c r="A301" t="s">
+        <v>309</v>
       </c>
       <c r="B301">
         <v>2.957654146135624</v>
@@ -10044,8 +11582,8 @@
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="2">
-        <v>44473</v>
+      <c r="A302" t="s">
+        <v>310</v>
       </c>
       <c r="B302">
         <v>3.354837738437022</v>
@@ -10076,8 +11614,8 @@
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="2">
-        <v>44480</v>
+      <c r="A303" t="s">
+        <v>311</v>
       </c>
       <c r="B303">
         <v>3.680422577168567</v>
@@ -10108,8 +11646,8 @@
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="2">
-        <v>44487</v>
+      <c r="A304" t="s">
+        <v>312</v>
       </c>
       <c r="B304">
         <v>3.57351157088632</v>
@@ -10140,8 +11678,8 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="2">
-        <v>44494</v>
+      <c r="A305" t="s">
+        <v>313</v>
       </c>
       <c r="B305">
         <v>3.565612773339667</v>
@@ -10172,8 +11710,8 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="2">
-        <v>44501</v>
+      <c r="A306" t="s">
+        <v>314</v>
       </c>
       <c r="B306">
         <v>3.595499578330681</v>
@@ -10204,8 +11742,8 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="2">
-        <v>44508</v>
+      <c r="A307" t="s">
+        <v>315</v>
       </c>
       <c r="B307">
         <v>3.633869842574474</v>
@@ -10236,8 +11774,8 @@
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="2">
-        <v>44515</v>
+      <c r="A308" t="s">
+        <v>316</v>
       </c>
       <c r="B308">
         <v>3.259691874973272</v>
@@ -10268,8 +11806,8 @@
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="2">
-        <v>44522</v>
+      <c r="A309" t="s">
+        <v>317</v>
       </c>
       <c r="B309">
         <v>3.118839543071309</v>
@@ -10300,8 +11838,8 @@
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="2">
-        <v>44529</v>
+      <c r="A310" t="s">
+        <v>318</v>
       </c>
       <c r="B310">
         <v>2.665149714555073</v>
@@ -10332,8 +11870,8 @@
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="2">
-        <v>44536</v>
+      <c r="A311" t="s">
+        <v>319</v>
       </c>
       <c r="B311">
         <v>2.686280254424208</v>
@@ -10364,8 +11902,8 @@
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="2">
-        <v>44543</v>
+      <c r="A312" t="s">
+        <v>320</v>
       </c>
       <c r="B312">
         <v>2.493938919568124</v>
@@ -10396,8 +11934,8 @@
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="2">
-        <v>44550</v>
+      <c r="A313" t="s">
+        <v>321</v>
       </c>
       <c r="B313">
         <v>2.688010004115707</v>
@@ -10428,8 +11966,8 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="2">
-        <v>44557</v>
+      <c r="A314" t="s">
+        <v>322</v>
       </c>
       <c r="B314">
         <v>2.488467268522224</v>
@@ -10460,8 +11998,8 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="2">
-        <v>44564</v>
+      <c r="A315" t="s">
+        <v>323</v>
       </c>
       <c r="B315">
         <v>2.191032920716109</v>
@@ -10492,8 +12030,8 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="2">
-        <v>44571</v>
+      <c r="A316" t="s">
+        <v>324</v>
       </c>
       <c r="B316">
         <v>2.251902284791492</v>
@@ -10524,8 +12062,8 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="2">
-        <v>44578</v>
+      <c r="A317" t="s">
+        <v>325</v>
       </c>
       <c r="B317">
         <v>1.88270216099759</v>
@@ -10556,8 +12094,8 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="2">
-        <v>44585</v>
+      <c r="A318" t="s">
+        <v>326</v>
       </c>
       <c r="B318">
         <v>1.96336559093486</v>
@@ -10588,8 +12126,8 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="2">
-        <v>44592</v>
+      <c r="A319" t="s">
+        <v>327</v>
       </c>
       <c r="B319">
         <v>2.141765675495642</v>
@@ -10620,8 +12158,8 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="2">
-        <v>44599</v>
+      <c r="A320" t="s">
+        <v>328</v>
       </c>
       <c r="B320">
         <v>2.124797849115497</v>
@@ -10652,8 +12190,8 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="2">
-        <v>44606</v>
+      <c r="A321" t="s">
+        <v>329</v>
       </c>
       <c r="B321">
         <v>1.936072500053442</v>
@@ -10684,8 +12222,8 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="2">
-        <v>44613</v>
+      <c r="A322" t="s">
+        <v>330</v>
       </c>
       <c r="B322">
         <v>1.883324768077366</v>
@@ -10716,8 +12254,8 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="2">
-        <v>44620</v>
+      <c r="A323" t="s">
+        <v>331</v>
       </c>
       <c r="B323">
         <v>1.901828753460712</v>
@@ -10748,8 +12286,8 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="2">
-        <v>44627</v>
+      <c r="A324" t="s">
+        <v>332</v>
       </c>
       <c r="B324">
         <v>1.857758092354381</v>
@@ -10780,8 +12318,8 @@
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="2">
-        <v>44634</v>
+      <c r="A325" t="s">
+        <v>333</v>
       </c>
       <c r="B325">
         <v>2.019349672298182</v>
@@ -10812,8 +12350,8 @@
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="2">
-        <v>44641</v>
+      <c r="A326" t="s">
+        <v>334</v>
       </c>
       <c r="B326">
         <v>2.268245614878597</v>
@@ -10844,8 +12382,8 @@
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="2">
-        <v>44648</v>
+      <c r="A327" t="s">
+        <v>335</v>
       </c>
       <c r="B327">
         <v>2.235122983605745</v>
@@ -10876,8 +12414,8 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="2">
-        <v>44655</v>
+      <c r="A328" t="s">
+        <v>336</v>
       </c>
       <c r="B328">
         <v>2.027528432588247</v>
@@ -10908,8 +12446,8 @@
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="2">
-        <v>44662</v>
+      <c r="A329" t="s">
+        <v>337</v>
       </c>
       <c r="B329">
         <v>1.892735396910336</v>
@@ -10940,8 +12478,8 @@
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="2">
-        <v>44669</v>
+      <c r="A330" t="s">
+        <v>338</v>
       </c>
       <c r="B330">
         <v>1.873196200461664</v>
@@ -10972,8 +12510,8 @@
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="2">
-        <v>44676</v>
+      <c r="A331" t="s">
+        <v>339</v>
       </c>
       <c r="B331">
         <v>1.818791296684778</v>
@@ -11004,8 +12542,8 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="2">
-        <v>44683</v>
+      <c r="A332" t="s">
+        <v>340</v>
       </c>
       <c r="B332">
         <v>1.603379529008756</v>
@@ -11036,8 +12574,8 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="2">
-        <v>44690</v>
+      <c r="A333" t="s">
+        <v>341</v>
       </c>
       <c r="B333">
         <v>1.453515194288443</v>
@@ -11068,8 +12606,8 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="2">
-        <v>44697</v>
+      <c r="A334" t="s">
+        <v>342</v>
       </c>
       <c r="B334">
         <v>1.410492161551409</v>
@@ -11100,8 +12638,8 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="2">
-        <v>44704</v>
+      <c r="A335" t="s">
+        <v>343</v>
       </c>
       <c r="B335">
         <v>1.360134359181275</v>
@@ -11132,8 +12670,8 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="2">
-        <v>44711</v>
+      <c r="A336" t="s">
+        <v>344</v>
       </c>
       <c r="B336">
         <v>1.383438763052774</v>
@@ -11164,8 +12702,8 @@
       </c>
     </row>
     <row r="337" spans="1:10">
-      <c r="A337" s="2">
-        <v>44718</v>
+      <c r="A337" t="s">
+        <v>345</v>
       </c>
       <c r="B337">
         <v>1.237170424133274</v>
@@ -11196,8 +12734,8 @@
       </c>
     </row>
     <row r="338" spans="1:10">
-      <c r="A338" s="2">
-        <v>44725</v>
+      <c r="A338" t="s">
+        <v>346</v>
       </c>
       <c r="B338">
         <v>0.9376141974321357</v>
@@ -11228,8 +12766,8 @@
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="2">
-        <v>44732</v>
+      <c r="A339" t="s">
+        <v>347</v>
       </c>
       <c r="B339">
         <v>0.9624777275084089</v>
@@ -11260,8 +12798,8 @@
       </c>
     </row>
     <row r="340" spans="1:10">
-      <c r="A340" s="2">
-        <v>44739</v>
+      <c r="A340" t="s">
+        <v>348</v>
       </c>
       <c r="B340">
         <v>0.8793162748191352</v>
@@ -11292,8 +12830,8 @@
       </c>
     </row>
     <row r="341" spans="1:10">
-      <c r="A341" s="2">
-        <v>44746</v>
+      <c r="A341" t="s">
+        <v>349</v>
       </c>
       <c r="B341">
         <v>0.9499902207978137</v>
@@ -11324,8 +12862,8 @@
       </c>
     </row>
     <row r="342" spans="1:10">
-      <c r="A342" s="2">
-        <v>44753</v>
+      <c r="A342" t="s">
+        <v>350</v>
       </c>
       <c r="B342">
         <v>0.9650194303464286</v>
@@ -11356,8 +12894,8 @@
       </c>
     </row>
     <row r="343" spans="1:10">
-      <c r="A343" s="2">
-        <v>44760</v>
+      <c r="A343" t="s">
+        <v>351</v>
       </c>
       <c r="B343">
         <v>1.027364006589166</v>
@@ -11388,8 +12926,8 @@
       </c>
     </row>
     <row r="344" spans="1:10">
-      <c r="A344" s="2">
-        <v>44767</v>
+      <c r="A344" t="s">
+        <v>352</v>
       </c>
       <c r="B344">
         <v>1.058924480670299</v>
@@ -11420,8 +12958,8 @@
       </c>
     </row>
     <row r="345" spans="1:10">
-      <c r="A345" s="2">
-        <v>44774</v>
+      <c r="A345" t="s">
+        <v>353</v>
       </c>
       <c r="B345">
         <v>1.049304643754141</v>
@@ -11452,8 +12990,8 @@
       </c>
     </row>
     <row r="346" spans="1:10">
-      <c r="A346" s="2">
-        <v>44781</v>
+      <c r="A346" t="s">
+        <v>354</v>
       </c>
       <c r="B346">
         <v>1.100784275712342</v>
@@ -11484,8 +13022,8 @@
       </c>
     </row>
     <row r="347" spans="1:10">
-      <c r="A347" s="2">
-        <v>44788</v>
+      <c r="A347" t="s">
+        <v>355</v>
       </c>
       <c r="B347">
         <v>0.9756207984985623</v>
@@ -11516,8 +13054,8 @@
       </c>
     </row>
     <row r="348" spans="1:10">
-      <c r="A348" s="2">
-        <v>44795</v>
+      <c r="A348" t="s">
+        <v>356</v>
       </c>
       <c r="B348">
         <v>0.8898562239507827</v>
@@ -11548,8 +13086,8 @@
       </c>
     </row>
     <row r="349" spans="1:10">
-      <c r="A349" s="2">
-        <v>44802</v>
+      <c r="A349" t="s">
+        <v>357</v>
       </c>
       <c r="B349">
         <v>0.9014222563173671</v>
@@ -11580,8 +13118,8 @@
       </c>
     </row>
     <row r="350" spans="1:10">
-      <c r="A350" s="2">
-        <v>44809</v>
+      <c r="A350" t="s">
+        <v>358</v>
       </c>
       <c r="B350">
         <v>0.9811316012309753</v>
@@ -11612,8 +13150,8 @@
       </c>
     </row>
     <row r="351" spans="1:10">
-      <c r="A351" s="2">
-        <v>44816</v>
+      <c r="A351" t="s">
+        <v>359</v>
       </c>
       <c r="B351">
         <v>0.8766011251412779</v>
@@ -11644,8 +13182,8 @@
       </c>
     </row>
     <row r="352" spans="1:10">
-      <c r="A352" s="2">
-        <v>44823</v>
+      <c r="A352" t="s">
+        <v>360</v>
       </c>
       <c r="B352">
         <v>0.8477426693037354</v>
@@ -11676,8 +13214,8 @@
       </c>
     </row>
     <row r="353" spans="1:10">
-      <c r="A353" s="2">
-        <v>44830</v>
+      <c r="A353" t="s">
+        <v>361</v>
       </c>
       <c r="B353">
         <v>0.8574300989052765</v>
@@ -11708,8 +13246,8 @@
       </c>
     </row>
     <row r="354" spans="1:10">
-      <c r="A354" s="2">
-        <v>44837</v>
+      <c r="A354" t="s">
+        <v>362</v>
       </c>
       <c r="B354">
         <v>0.8758864395413282</v>
@@ -11740,8 +13278,8 @@
       </c>
     </row>
     <row r="355" spans="1:10">
-      <c r="A355" s="2">
-        <v>44844</v>
+      <c r="A355" t="s">
+        <v>363</v>
       </c>
       <c r="B355">
         <v>0.8682544060000108</v>
@@ -11772,8 +13310,8 @@
       </c>
     </row>
     <row r="356" spans="1:10">
-      <c r="A356" s="2">
-        <v>44851</v>
+      <c r="A356" t="s">
+        <v>364</v>
       </c>
       <c r="B356">
         <v>0.8789520683755688</v>
@@ -11804,8 +13342,8 @@
       </c>
     </row>
     <row r="357" spans="1:10">
-      <c r="A357" s="2">
-        <v>44858</v>
+      <c r="A357" t="s">
+        <v>365</v>
       </c>
       <c r="B357">
         <v>0.9249568217116715</v>
@@ -11836,8 +13374,8 @@
       </c>
     </row>
     <row r="358" spans="1:10">
-      <c r="A358" s="2">
-        <v>44865</v>
+      <c r="A358" t="s">
+        <v>366</v>
       </c>
       <c r="B358">
         <v>0.9369116002891614</v>
@@ -11868,8 +13406,8 @@
       </c>
     </row>
     <row r="359" spans="1:10">
-      <c r="A359" s="2">
-        <v>44872</v>
+      <c r="A359" t="s">
+        <v>367</v>
       </c>
       <c r="B359">
         <v>0.726507723598524</v>
@@ -11900,8 +13438,8 @@
       </c>
     </row>
     <row r="360" spans="1:10">
-      <c r="A360" s="2">
-        <v>44879</v>
+      <c r="A360" t="s">
+        <v>368</v>
       </c>
       <c r="B360">
         <v>0.7197099538584402</v>
@@ -11932,8 +13470,8 @@
       </c>
     </row>
     <row r="361" spans="1:10">
-      <c r="A361" s="2">
-        <v>44886</v>
+      <c r="A361" t="s">
+        <v>369</v>
       </c>
       <c r="B361">
         <v>0.7254848109563584</v>
@@ -11964,8 +13502,8 @@
       </c>
     </row>
     <row r="362" spans="1:10">
-      <c r="A362" s="2">
-        <v>44893</v>
+      <c r="A362" t="s">
+        <v>370</v>
       </c>
       <c r="B362">
         <v>0.7552088020851424</v>
@@ -11996,8 +13534,8 @@
       </c>
     </row>
     <row r="363" spans="1:10">
-      <c r="A363" s="2">
-        <v>44900</v>
+      <c r="A363" t="s">
+        <v>371</v>
       </c>
       <c r="B363">
         <v>0.7534603523250549</v>
@@ -12028,8 +13566,8 @@
       </c>
     </row>
     <row r="364" spans="1:10">
-      <c r="A364" s="2">
-        <v>44907</v>
+      <c r="A364" t="s">
+        <v>372</v>
       </c>
       <c r="B364">
         <v>0.7389686896850498</v>
@@ -12060,8 +13598,8 @@
       </c>
     </row>
     <row r="365" spans="1:10">
-      <c r="A365" s="2">
-        <v>44914</v>
+      <c r="A365" t="s">
+        <v>373</v>
       </c>
       <c r="B365">
         <v>0.7407552664570678</v>
@@ -12092,8 +13630,8 @@
       </c>
     </row>
     <row r="366" spans="1:10">
-      <c r="A366" s="2">
-        <v>44921</v>
+      <c r="A366" t="s">
+        <v>374</v>
       </c>
       <c r="B366">
         <v>0.7302292971572556</v>
@@ -12124,8 +13662,8 @@
       </c>
     </row>
     <row r="367" spans="1:10">
-      <c r="A367" s="2">
-        <v>44928</v>
+      <c r="A367" t="s">
+        <v>375</v>
       </c>
       <c r="B367">
         <v>0.7490942754643277</v>
@@ -12156,8 +13694,8 @@
       </c>
     </row>
     <row r="368" spans="1:10">
-      <c r="A368" s="2">
-        <v>44935</v>
+      <c r="A368" t="s">
+        <v>376</v>
       </c>
       <c r="B368">
         <v>0.9159077454856687</v>
@@ -12188,8 +13726,8 @@
       </c>
     </row>
     <row r="369" spans="1:10">
-      <c r="A369" s="2">
-        <v>44942</v>
+      <c r="A369" t="s">
+        <v>377</v>
       </c>
       <c r="B369">
         <v>0.9954764595189706</v>
@@ -12220,8 +13758,8 @@
       </c>
     </row>
     <row r="370" spans="1:10">
-      <c r="A370" s="2">
-        <v>44949</v>
+      <c r="A370" t="s">
+        <v>378</v>
       </c>
       <c r="B370">
         <v>1.039876200169117</v>
@@ -12252,8 +13790,8 @@
       </c>
     </row>
     <row r="371" spans="1:10">
-      <c r="A371" s="2">
-        <v>44956</v>
+      <c r="A371" t="s">
+        <v>379</v>
       </c>
       <c r="B371">
         <v>1.003448591798224</v>
@@ -12284,8 +13822,8 @@
       </c>
     </row>
     <row r="372" spans="1:10">
-      <c r="A372" s="2">
-        <v>44963</v>
+      <c r="A372" t="s">
+        <v>380</v>
       </c>
       <c r="B372">
         <v>0.951331906712399</v>
@@ -12316,8 +13854,8 @@
       </c>
     </row>
     <row r="373" spans="1:10">
-      <c r="A373" s="2">
-        <v>44970</v>
+      <c r="A373" t="s">
+        <v>381</v>
       </c>
       <c r="B373">
         <v>1.064401949774088</v>
@@ -12348,8 +13886,8 @@
       </c>
     </row>
     <row r="374" spans="1:10">
-      <c r="A374" s="2">
-        <v>44977</v>
+      <c r="A374" t="s">
+        <v>382</v>
       </c>
       <c r="B374">
         <v>1.027894160120641</v>
@@ -12380,8 +13918,8 @@
       </c>
     </row>
     <row r="375" spans="1:10">
-      <c r="A375" s="2">
-        <v>44984</v>
+      <c r="A375" t="s">
+        <v>383</v>
       </c>
       <c r="B375">
         <v>0.9771941313824304</v>
@@ -12412,8 +13950,8 @@
       </c>
     </row>
     <row r="376" spans="1:10">
-      <c r="A376" s="2">
-        <v>44991</v>
+      <c r="A376" t="s">
+        <v>384</v>
       </c>
       <c r="B376">
         <v>0.8683359914250931</v>
@@ -12444,8 +13982,8 @@
       </c>
     </row>
     <row r="377" spans="1:10">
-      <c r="A377" s="2">
-        <v>44998</v>
+      <c r="A377" t="s">
+        <v>385</v>
       </c>
       <c r="B377">
         <v>1.224579100344865</v>
@@ -12476,8 +14014,8 @@
       </c>
     </row>
     <row r="378" spans="1:10">
-      <c r="A378" s="2">
-        <v>45005</v>
+      <c r="A378" t="s">
+        <v>386</v>
       </c>
       <c r="B378">
         <v>1.193516500096274</v>
@@ -12508,8 +14046,8 @@
       </c>
     </row>
     <row r="379" spans="1:10">
-      <c r="A379" s="2">
-        <v>45012</v>
+      <c r="A379" t="s">
+        <v>387</v>
       </c>
       <c r="B379">
         <v>1.213524716428345</v>
@@ -12540,8 +14078,8 @@
       </c>
     </row>
     <row r="380" spans="1:10">
-      <c r="A380" s="2">
-        <v>45019</v>
+      <c r="A380" t="s">
+        <v>388</v>
       </c>
       <c r="B380">
         <v>1.219974238998058</v>
@@ -12572,8 +14110,8 @@
       </c>
     </row>
     <row r="381" spans="1:10">
-      <c r="A381" s="2">
-        <v>45026</v>
+      <c r="A381" t="s">
+        <v>389</v>
       </c>
       <c r="B381">
         <v>1.299755942505624</v>
@@ -12604,8 +14142,8 @@
       </c>
     </row>
     <row r="382" spans="1:10">
-      <c r="A382" s="2">
-        <v>45033</v>
+      <c r="A382" t="s">
+        <v>390</v>
       </c>
       <c r="B382">
         <v>1.181234075803636</v>
@@ -12636,8 +14174,8 @@
       </c>
     </row>
     <row r="383" spans="1:10">
-      <c r="A383" s="2">
-        <v>45040</v>
+      <c r="A383" t="s">
+        <v>391</v>
       </c>
       <c r="B383">
         <v>1.255179779392954</v>
@@ -12668,8 +14206,8 @@
       </c>
     </row>
     <row r="384" spans="1:10">
-      <c r="A384" s="2">
-        <v>45047</v>
+      <c r="A384" t="s">
+        <v>392</v>
       </c>
       <c r="B384">
         <v>1.226627093937223</v>
@@ -12700,8 +14238,8 @@
       </c>
     </row>
     <row r="385" spans="1:10">
-      <c r="A385" s="2">
-        <v>45054</v>
+      <c r="A385" t="s">
+        <v>393</v>
       </c>
       <c r="B385">
         <v>1.14655712977296</v>
@@ -12732,8 +14270,8 @@
       </c>
     </row>
     <row r="386" spans="1:10">
-      <c r="A386" s="2">
-        <v>45061</v>
+      <c r="A386" t="s">
+        <v>394</v>
       </c>
       <c r="B386">
         <v>1.138177999713809</v>
@@ -12764,8 +14302,8 @@
       </c>
     </row>
     <row r="387" spans="1:10">
-      <c r="A387" s="2">
-        <v>45068</v>
+      <c r="A387" t="s">
+        <v>395</v>
       </c>
       <c r="B387">
         <v>1.190492162202959</v>
@@ -12796,8 +14334,8 @@
       </c>
     </row>
     <row r="388" spans="1:10">
-      <c r="A388" s="2">
-        <v>45075</v>
+      <c r="A388" t="s">
+        <v>396</v>
       </c>
       <c r="B388">
         <v>1.14899020763481</v>
@@ -12828,8 +14366,8 @@
       </c>
     </row>
     <row r="389" spans="1:10">
-      <c r="A389" s="2">
-        <v>45082</v>
+      <c r="A389" t="s">
+        <v>397</v>
       </c>
       <c r="B389">
         <v>1.094924165892855</v>
@@ -12860,8 +14398,8 @@
       </c>
     </row>
     <row r="390" spans="1:10">
-      <c r="A390" s="2">
-        <v>45089</v>
+      <c r="A390" t="s">
+        <v>398</v>
       </c>
       <c r="B390">
         <v>1.111952616535622</v>
@@ -12892,8 +14430,8 @@
       </c>
     </row>
     <row r="391" spans="1:10">
-      <c r="A391" s="2">
-        <v>45096</v>
+      <c r="A391" t="s">
+        <v>399</v>
       </c>
       <c r="B391">
         <v>1.280542754483883</v>
@@ -12924,8 +14462,8 @@
       </c>
     </row>
     <row r="392" spans="1:10">
-      <c r="A392" s="2">
-        <v>45103</v>
+      <c r="A392" t="s">
+        <v>400</v>
       </c>
       <c r="B392">
         <v>1.281047224895428</v>
@@ -12956,8 +14494,8 @@
       </c>
     </row>
     <row r="393" spans="1:10">
-      <c r="A393" s="2">
-        <v>45110</v>
+      <c r="A393" t="s">
+        <v>401</v>
       </c>
       <c r="B393">
         <v>1.260988393968294</v>
@@ -12988,8 +14526,8 @@
       </c>
     </row>
     <row r="394" spans="1:10">
-      <c r="A394" s="2">
-        <v>45117</v>
+      <c r="A394" t="s">
+        <v>402</v>
       </c>
       <c r="B394">
         <v>1.262397119393275</v>
@@ -13020,8 +14558,8 @@
       </c>
     </row>
     <row r="395" spans="1:10">
-      <c r="A395" s="2">
-        <v>45124</v>
+      <c r="A395" t="s">
+        <v>403</v>
       </c>
       <c r="B395">
         <v>1.244401047857876</v>
@@ -13052,8 +14590,8 @@
       </c>
     </row>
     <row r="396" spans="1:10">
-      <c r="A396" s="2">
-        <v>45131</v>
+      <c r="A396" t="s">
+        <v>404</v>
       </c>
       <c r="B396">
         <v>1.212793031532944</v>
@@ -13084,8 +14622,8 @@
       </c>
     </row>
     <row r="397" spans="1:10">
-      <c r="A397" s="2">
-        <v>45138</v>
+      <c r="A397" t="s">
+        <v>405</v>
       </c>
       <c r="B397">
         <v>1.203018914650093</v>
@@ -13116,8 +14654,8 @@
       </c>
     </row>
     <row r="398" spans="1:10">
-      <c r="A398" s="2">
-        <v>45145</v>
+      <c r="A398" t="s">
+        <v>406</v>
       </c>
       <c r="B398">
         <v>1.211883203942183</v>
@@ -13148,8 +14686,8 @@
       </c>
     </row>
     <row r="399" spans="1:10">
-      <c r="A399" s="2">
-        <v>45152</v>
+      <c r="A399" t="s">
+        <v>407</v>
       </c>
       <c r="B399">
         <v>1.081565708126196</v>
@@ -13180,8 +14718,8 @@
       </c>
     </row>
     <row r="400" spans="1:10">
-      <c r="A400" s="2">
-        <v>45159</v>
+      <c r="A400" t="s">
+        <v>408</v>
       </c>
       <c r="B400">
         <v>1.077225125662599</v>
@@ -13212,8 +14750,8 @@
       </c>
     </row>
     <row r="401" spans="1:10">
-      <c r="A401" s="2">
-        <v>45166</v>
+      <c r="A401" t="s">
+        <v>409</v>
       </c>
       <c r="B401">
         <v>1.07108746167184</v>
@@ -13244,8 +14782,8 @@
       </c>
     </row>
     <row r="402" spans="1:10">
-      <c r="A402" s="2">
-        <v>45173</v>
+      <c r="A402" t="s">
+        <v>410</v>
       </c>
       <c r="B402">
         <v>1.066449961258107</v>
@@ -13276,8 +14814,8 @@
       </c>
     </row>
     <row r="403" spans="1:10">
-      <c r="A403" s="2">
-        <v>45180</v>
+      <c r="A403" t="s">
+        <v>411</v>
       </c>
       <c r="B403">
         <v>1.092752323662772</v>
@@ -13308,8 +14846,8 @@
       </c>
     </row>
     <row r="404" spans="1:10">
-      <c r="A404" s="2">
-        <v>45187</v>
+      <c r="A404" t="s">
+        <v>412</v>
       </c>
       <c r="B404">
         <v>1.081867389317807</v>
@@ -13340,8 +14878,8 @@
       </c>
     </row>
     <row r="405" spans="1:10">
-      <c r="A405" s="2">
-        <v>45194</v>
+      <c r="A405" t="s">
+        <v>413</v>
       </c>
       <c r="B405">
         <v>1.149599917632584</v>
@@ -13372,8 +14910,8 @@
       </c>
     </row>
     <row r="406" spans="1:10">
-      <c r="A406" s="2">
-        <v>45201</v>
+      <c r="A406" t="s">
+        <v>414</v>
       </c>
       <c r="B406">
         <v>1.146460464775506</v>
@@ -13404,8 +14942,8 @@
       </c>
     </row>
     <row r="407" spans="1:10">
-      <c r="A407" s="2">
-        <v>45208</v>
+      <c r="A407" t="s">
+        <v>415</v>
       </c>
       <c r="B407">
         <v>1.110663275494042</v>
@@ -13436,8 +14974,8 @@
       </c>
     </row>
     <row r="408" spans="1:10">
-      <c r="A408" s="2">
-        <v>45215</v>
+      <c r="A408" t="s">
+        <v>416</v>
       </c>
       <c r="B408">
         <v>1.225164844153432</v>
@@ -13468,8 +15006,8 @@
       </c>
     </row>
     <row r="409" spans="1:10">
-      <c r="A409" s="2">
-        <v>45222</v>
+      <c r="A409" t="s">
+        <v>417</v>
       </c>
       <c r="B409">
         <v>1.406923793556149</v>
@@ -13500,8 +15038,8 @@
       </c>
     </row>
     <row r="410" spans="1:10">
-      <c r="A410" s="2">
-        <v>45229</v>
+      <c r="A410" t="s">
+        <v>418</v>
       </c>
       <c r="B410">
         <v>1.423712737475933</v>
@@ -13532,8 +15070,8 @@
       </c>
     </row>
     <row r="411" spans="1:10">
-      <c r="A411" s="2">
-        <v>45236</v>
+      <c r="A411" t="s">
+        <v>419</v>
       </c>
       <c r="B411">
         <v>1.498785969454642</v>
@@ -13564,8 +15102,8 @@
       </c>
     </row>
     <row r="412" spans="1:10">
-      <c r="A412" s="2">
-        <v>45243</v>
+      <c r="A412" t="s">
+        <v>420</v>
       </c>
       <c r="B412">
         <v>1.510637079510767</v>
@@ -13596,8 +15134,8 @@
       </c>
     </row>
     <row r="413" spans="1:10">
-      <c r="A413" s="2">
-        <v>45250</v>
+      <c r="A413" t="s">
+        <v>421</v>
       </c>
       <c r="B413">
         <v>1.5082571425097</v>
@@ -13628,8 +15166,8 @@
       </c>
     </row>
     <row r="414" spans="1:10">
-      <c r="A414" s="2">
-        <v>45257</v>
+      <c r="A414" t="s">
+        <v>422</v>
       </c>
       <c r="B414">
         <v>1.603028527844257</v>
@@ -13660,8 +15198,8 @@
       </c>
     </row>
     <row r="415" spans="1:10">
-      <c r="A415" s="2">
-        <v>45264</v>
+      <c r="A415" t="s">
+        <v>423</v>
       </c>
       <c r="B415">
         <v>1.743856173078625</v>
@@ -13692,8 +15230,8 @@
       </c>
     </row>
     <row r="416" spans="1:10">
-      <c r="A416" s="2">
-        <v>45271</v>
+      <c r="A416" t="s">
+        <v>424</v>
       </c>
       <c r="B416">
         <v>1.645519425176527</v>
@@ -13724,8 +15262,8 @@
       </c>
     </row>
     <row r="417" spans="1:10">
-      <c r="A417" s="2">
-        <v>45278</v>
+      <c r="A417" t="s">
+        <v>425</v>
       </c>
       <c r="B417">
         <v>1.701942419967221</v>
@@ -13756,8 +15294,8 @@
       </c>
     </row>
     <row r="418" spans="1:10">
-      <c r="A418" s="2">
-        <v>45285</v>
+      <c r="A418" t="s">
+        <v>426</v>
       </c>
       <c r="B418">
         <v>1.653449942035252</v>
@@ -13788,8 +15326,8 @@
       </c>
     </row>
     <row r="419" spans="1:10">
-      <c r="A419" s="2">
-        <v>45292</v>
+      <c r="A419" t="s">
+        <v>427</v>
       </c>
       <c r="B419">
         <v>1.704346212776898</v>
@@ -13820,8 +15358,8 @@
       </c>
     </row>
     <row r="420" spans="1:10">
-      <c r="A420" s="2">
-        <v>45299</v>
+      <c r="A420" t="s">
+        <v>428</v>
       </c>
       <c r="B420">
         <v>1.621759174014202</v>
@@ -13852,8 +15390,8 @@
       </c>
     </row>
     <row r="421" spans="1:10">
-      <c r="A421" s="2">
-        <v>45306</v>
+      <c r="A421" t="s">
+        <v>429</v>
       </c>
       <c r="B421">
         <v>1.58861829304432</v>
@@ -13884,8 +15422,8 @@
       </c>
     </row>
     <row r="422" spans="1:10">
-      <c r="A422" s="2">
-        <v>45313</v>
+      <c r="A422" t="s">
+        <v>430</v>
       </c>
       <c r="B422">
         <v>1.590828748062774</v>
@@ -13916,8 +15454,8 @@
       </c>
     </row>
     <row r="423" spans="1:10">
-      <c r="A423" s="2">
-        <v>45320</v>
+      <c r="A423" t="s">
+        <v>431</v>
       </c>
       <c r="B423">
         <v>1.604931194220584</v>
@@ -13948,8 +15486,8 @@
       </c>
     </row>
     <row r="424" spans="1:10">
-      <c r="A424" s="2">
-        <v>45327</v>
+      <c r="A424" t="s">
+        <v>432</v>
       </c>
       <c r="B424">
         <v>1.808409700907094</v>
@@ -13980,8 +15518,8 @@
       </c>
     </row>
     <row r="425" spans="1:10">
-      <c r="A425" s="2">
-        <v>45334</v>
+      <c r="A425" t="s">
+        <v>433</v>
       </c>
       <c r="B425">
         <v>1.944482784720578</v>
@@ -14012,8 +15550,8 @@
       </c>
     </row>
     <row r="426" spans="1:10">
-      <c r="A426" s="2">
-        <v>45341</v>
+      <c r="A426" t="s">
+        <v>434</v>
       </c>
       <c r="B426">
         <v>1.913949846006465</v>
@@ -14044,8 +15582,8 @@
       </c>
     </row>
     <row r="427" spans="1:10">
-      <c r="A427" s="2">
-        <v>45348</v>
+      <c r="A427" t="s">
+        <v>435</v>
       </c>
       <c r="B427">
         <v>2.288662507957108</v>
@@ -14076,8 +15614,8 @@
       </c>
     </row>
     <row r="428" spans="1:10">
-      <c r="A428" s="2">
-        <v>45355</v>
+      <c r="A428" t="s">
+        <v>436</v>
       </c>
       <c r="B428">
         <v>2.442478276763234</v>
@@ -14108,8 +15646,8 @@
       </c>
     </row>
     <row r="429" spans="1:10">
-      <c r="A429" s="2">
-        <v>45362</v>
+      <c r="A429" t="s">
+        <v>437</v>
       </c>
       <c r="B429">
         <v>2.375932524293181</v>
@@ -14140,8 +15678,8 @@
       </c>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="2">
-        <v>45369</v>
+      <c r="A430" t="s">
+        <v>438</v>
       </c>
       <c r="B430">
         <v>2.279019866936155</v>
@@ -14172,8 +15710,8 @@
       </c>
     </row>
     <row r="431" spans="1:10">
-      <c r="A431" s="2">
-        <v>45376</v>
+      <c r="A431" t="s">
+        <v>439</v>
       </c>
       <c r="B431">
         <v>2.371903545217655</v>
@@ -14204,8 +15742,8 @@
       </c>
     </row>
     <row r="432" spans="1:10">
-      <c r="A432" s="2">
-        <v>45383</v>
+      <c r="A432" t="s">
+        <v>440</v>
       </c>
       <c r="B432">
         <v>2.283197385851332</v>
@@ -14236,8 +15774,8 @@
       </c>
     </row>
     <row r="433" spans="1:10">
-      <c r="A433" s="2">
-        <v>45390</v>
+      <c r="A433" t="s">
+        <v>441</v>
       </c>
       <c r="B433">
         <v>2.150327371236793</v>
@@ -14268,8 +15806,8 @@
       </c>
     </row>
     <row r="434" spans="1:10">
-      <c r="A434" s="2">
-        <v>45397</v>
+      <c r="A434" t="s">
+        <v>442</v>
       </c>
       <c r="B434">
         <v>2.114509757423606</v>
@@ -14300,8 +15838,8 @@
       </c>
     </row>
     <row r="435" spans="1:10">
-      <c r="A435" s="2">
-        <v>45404</v>
+      <c r="A435" t="s">
+        <v>443</v>
       </c>
       <c r="B435">
         <v>2.040812761007638</v>
@@ -14332,8 +15870,8 @@
       </c>
     </row>
     <row r="436" spans="1:10">
-      <c r="A436" s="2">
-        <v>45411</v>
+      <c r="A436" t="s">
+        <v>444</v>
       </c>
       <c r="B436">
         <v>2.067164738079742</v>
@@ -14364,8 +15902,8 @@
       </c>
     </row>
     <row r="437" spans="1:10">
-      <c r="A437" s="2">
-        <v>45418</v>
+      <c r="A437" t="s">
+        <v>445</v>
       </c>
       <c r="B437">
         <v>1.976634132309851</v>
@@ -14396,8 +15934,8 @@
       </c>
     </row>
     <row r="438" spans="1:10">
-      <c r="A438" s="2">
-        <v>45425</v>
+      <c r="A438" t="s">
+        <v>446</v>
       </c>
       <c r="B438">
         <v>2.118909445332418</v>
@@ -14428,8 +15966,8 @@
       </c>
     </row>
     <row r="439" spans="1:10">
-      <c r="A439" s="2">
-        <v>45432</v>
+      <c r="A439" t="s">
+        <v>447</v>
       </c>
       <c r="B439">
         <v>2.176898767941491</v>
@@ -14460,8 +15998,8 @@
       </c>
     </row>
     <row r="440" spans="1:10">
-      <c r="A440" s="2">
-        <v>45439</v>
+      <c r="A440" t="s">
+        <v>448</v>
       </c>
       <c r="B440">
         <v>2.048518771140566</v>
@@ -14492,8 +16030,8 @@
       </c>
     </row>
     <row r="441" spans="1:10">
-      <c r="A441" s="2">
-        <v>45446</v>
+      <c r="A441" t="s">
+        <v>449</v>
       </c>
       <c r="B441">
         <v>2.096633838095931</v>
@@ -14524,8 +16062,8 @@
       </c>
     </row>
     <row r="442" spans="1:10">
-      <c r="A442" s="2">
-        <v>45453</v>
+      <c r="A442" t="s">
+        <v>450</v>
       </c>
       <c r="B442">
         <v>1.992705711606157</v>
@@ -14556,8 +16094,8 @@
       </c>
     </row>
     <row r="443" spans="1:10">
-      <c r="A443" s="2">
-        <v>45460</v>
+      <c r="A443" t="s">
+        <v>451</v>
       </c>
       <c r="B443">
         <v>1.881439003698824</v>
@@ -14588,8 +16126,8 @@
       </c>
     </row>
     <row r="444" spans="1:10">
-      <c r="A444" s="2">
-        <v>45467</v>
+      <c r="A444" t="s">
+        <v>452</v>
       </c>
       <c r="B444">
         <v>1.85190978794091</v>
@@ -14620,8 +16158,8 @@
       </c>
     </row>
     <row r="445" spans="1:10">
-      <c r="A445" s="2">
-        <v>45474</v>
+      <c r="A445" t="s">
+        <v>453</v>
       </c>
       <c r="B445">
         <v>1.644120322567467</v>
@@ -14652,8 +16190,8 @@
       </c>
     </row>
     <row r="446" spans="1:10">
-      <c r="A446" s="2">
-        <v>45481</v>
+      <c r="A446" t="s">
+        <v>454</v>
       </c>
       <c r="B446">
         <v>1.781277674718057</v>
@@ -14684,8 +16222,8 @@
       </c>
     </row>
     <row r="447" spans="1:10">
-      <c r="A447" s="2">
-        <v>45488</v>
+      <c r="A447" t="s">
+        <v>455</v>
       </c>
       <c r="B447">
         <v>1.97636718292839</v>
@@ -14716,8 +16254,8 @@
       </c>
     </row>
     <row r="448" spans="1:10">
-      <c r="A448" s="2">
-        <v>45495</v>
+      <c r="A448" t="s">
+        <v>456</v>
       </c>
       <c r="B448">
         <v>1.963294248592429</v>
@@ -14748,8 +16286,8 @@
       </c>
     </row>
     <row r="449" spans="1:10">
-      <c r="A449" s="2">
-        <v>45502</v>
+      <c r="A449" t="s">
+        <v>457</v>
       </c>
       <c r="B449">
         <v>1.666380842605429</v>
@@ -14780,8 +16318,8 @@
       </c>
     </row>
     <row r="450" spans="1:10">
-      <c r="A450" s="2">
-        <v>45509</v>
+      <c r="A450" t="s">
+        <v>458</v>
       </c>
       <c r="B450">
         <v>1.672345798010525</v>
@@ -14812,8 +16350,8 @@
       </c>
     </row>
     <row r="451" spans="1:10">
-      <c r="A451" s="2">
-        <v>45516</v>
+      <c r="A451" t="s">
+        <v>459</v>
       </c>
       <c r="B451">
         <v>1.668414804127925</v>
@@ -14844,8 +16382,8 @@
       </c>
     </row>
     <row r="452" spans="1:10">
-      <c r="A452" s="2">
-        <v>45523</v>
+      <c r="A452" t="s">
+        <v>460</v>
       </c>
       <c r="B452">
         <v>1.826163116635702</v>
@@ -14876,8 +16414,8 @@
       </c>
     </row>
     <row r="453" spans="1:10">
-      <c r="A453" s="2">
-        <v>45530</v>
+      <c r="A453" t="s">
+        <v>461</v>
       </c>
       <c r="B453">
         <v>1.615208830164286</v>
@@ -14908,8 +16446,8 @@
       </c>
     </row>
     <row r="454" spans="1:10">
-      <c r="A454" s="2">
-        <v>45537</v>
+      <c r="A454" t="s">
+        <v>462</v>
       </c>
       <c r="B454">
         <v>1.543303210649008</v>
@@ -14940,8 +16478,8 @@
       </c>
     </row>
     <row r="455" spans="1:10">
-      <c r="A455" s="2">
-        <v>45544</v>
+      <c r="A455" t="s">
+        <v>463</v>
       </c>
       <c r="B455">
         <v>1.658572069496278</v>
@@ -14972,8 +16510,8 @@
       </c>
     </row>
     <row r="456" spans="1:10">
-      <c r="A456" s="2">
-        <v>45551</v>
+      <c r="A456" t="s">
+        <v>464</v>
       </c>
       <c r="B456">
         <v>1.77720103072506</v>
@@ -15004,8 +16542,8 @@
       </c>
     </row>
     <row r="457" spans="1:10">
-      <c r="A457" s="2">
-        <v>45558</v>
+      <c r="A457" t="s">
+        <v>465</v>
       </c>
       <c r="B457">
         <v>1.82754717765203</v>
@@ -15036,8 +16574,8 @@
       </c>
     </row>
     <row r="458" spans="1:10">
-      <c r="A458" s="2">
-        <v>45565</v>
+      <c r="A458" t="s">
+        <v>466</v>
       </c>
       <c r="B458">
         <v>1.746211387001516</v>
@@ -15068,8 +16606,8 @@
       </c>
     </row>
     <row r="459" spans="1:10">
-      <c r="A459" s="2">
-        <v>45572</v>
+      <c r="A459" t="s">
+        <v>467</v>
       </c>
       <c r="B459">
         <v>1.73078073199863</v>
@@ -15100,8 +16638,8 @@
       </c>
     </row>
     <row r="460" spans="1:10">
-      <c r="A460" s="2">
-        <v>45579</v>
+      <c r="A460" t="s">
+        <v>468</v>
       </c>
       <c r="B460">
         <v>1.890605633193722</v>
@@ -15132,8 +16670,8 @@
       </c>
     </row>
     <row r="461" spans="1:10">
-      <c r="A461" s="2">
-        <v>45586</v>
+      <c r="A461" t="s">
+        <v>469</v>
       </c>
       <c r="B461">
         <v>1.855209958503788</v>
@@ -15164,8 +16702,8 @@
       </c>
     </row>
     <row r="462" spans="1:10">
-      <c r="A462" s="2">
-        <v>45593</v>
+      <c r="A462" t="s">
+        <v>470</v>
       </c>
       <c r="B462">
         <v>1.866445948206902</v>
@@ -15196,8 +16734,8 @@
       </c>
     </row>
     <row r="463" spans="1:10">
-      <c r="A463" s="2">
-        <v>45600</v>
+      <c r="A463" t="s">
+        <v>471</v>
       </c>
       <c r="B463">
         <v>2.160132444217545</v>
@@ -15228,8 +16766,8 @@
       </c>
     </row>
     <row r="464" spans="1:10">
-      <c r="A464" s="2">
-        <v>45607</v>
+      <c r="A464" t="s">
+        <v>472</v>
       </c>
       <c r="B464">
         <v>2.359756537743874</v>
@@ -15260,8 +16798,8 @@
       </c>
     </row>
     <row r="465" spans="1:10">
-      <c r="A465" s="2">
-        <v>45614</v>
+      <c r="A465" t="s">
+        <v>473</v>
       </c>
       <c r="B465">
         <v>2.531671835476665</v>
@@ -15292,8 +16830,8 @@
       </c>
     </row>
     <row r="466" spans="1:10">
-      <c r="A466" s="2">
-        <v>45621</v>
+      <c r="A466" t="s">
+        <v>474</v>
       </c>
       <c r="B466">
         <v>2.481738726493103</v>
@@ -15324,8 +16862,8 @@
       </c>
     </row>
     <row r="467" spans="1:10">
-      <c r="A467" s="2">
-        <v>45628</v>
+      <c r="A467" t="s">
+        <v>475</v>
       </c>
       <c r="B467">
         <v>2.514090088431796</v>
@@ -15356,8 +16894,8 @@
       </c>
     </row>
     <row r="468" spans="1:10">
-      <c r="A468" s="2">
-        <v>45635</v>
+      <c r="A468" t="s">
+        <v>476</v>
       </c>
       <c r="B468">
         <v>2.582541947971739</v>
@@ -15388,8 +16926,8 @@
       </c>
     </row>
     <row r="469" spans="1:10">
-      <c r="A469" s="2">
-        <v>45642</v>
+      <c r="A469" t="s">
+        <v>477</v>
       </c>
       <c r="B469">
         <v>2.306272738414141</v>
@@ -15420,8 +16958,8 @@
       </c>
     </row>
     <row r="470" spans="1:10">
-      <c r="A470" s="2">
-        <v>45649</v>
+      <c r="A470" t="s">
+        <v>478</v>
       </c>
       <c r="B470">
         <v>2.233647166748467</v>
@@ -15452,8 +16990,8 @@
       </c>
     </row>
     <row r="471" spans="1:10">
-      <c r="A471" s="2">
-        <v>45656</v>
+      <c r="A471" t="s">
+        <v>479</v>
       </c>
       <c r="B471">
         <v>2.327444824311897</v>
@@ -15484,8 +17022,8 @@
       </c>
     </row>
     <row r="472" spans="1:10">
-      <c r="A472" s="2">
-        <v>45663</v>
+      <c r="A472" t="s">
+        <v>480</v>
       </c>
       <c r="B472">
         <v>2.217826753193628</v>
@@ -15516,8 +17054,8 @@
       </c>
     </row>
     <row r="473" spans="1:10">
-      <c r="A473" s="2">
-        <v>45670</v>
+      <c r="A473" t="s">
+        <v>481</v>
       </c>
       <c r="B473">
         <v>2.355388781026622</v>
@@ -15548,8 +17086,8 @@
       </c>
     </row>
     <row r="474" spans="1:10">
-      <c r="A474" s="2">
-        <v>45677</v>
+      <c r="A474" t="s">
+        <v>482</v>
       </c>
       <c r="B474">
         <v>2.358696960506433</v>
@@ -15580,8 +17118,8 @@
       </c>
     </row>
     <row r="475" spans="1:10">
-      <c r="A475" s="2">
-        <v>45684</v>
+      <c r="A475" t="s">
+        <v>483</v>
       </c>
       <c r="B475">
         <v>2.226436275869086</v>
@@ -15612,8 +17150,8 @@
       </c>
     </row>
     <row r="476" spans="1:10">
-      <c r="A476" s="2">
-        <v>45691</v>
+      <c r="A476" t="s">
+        <v>484</v>
       </c>
       <c r="B476">
         <v>2.172389252807532</v>
@@ -15644,8 +17182,8 @@
       </c>
     </row>
     <row r="477" spans="1:10">
-      <c r="A477" s="2">
-        <v>45698</v>
+      <c r="A477" t="s">
+        <v>485</v>
       </c>
       <c r="B477">
         <v>2.159797294143102</v>
@@ -15676,8 +17214,8 @@
       </c>
     </row>
     <row r="478" spans="1:10">
-      <c r="A478" s="2">
-        <v>45705</v>
+      <c r="A478" t="s">
+        <v>486</v>
       </c>
       <c r="B478">
         <v>2.152281426695374</v>
@@ -15708,8 +17246,8 @@
       </c>
     </row>
     <row r="479" spans="1:10">
-      <c r="A479" s="2">
-        <v>45712</v>
+      <c r="A479" t="s">
+        <v>487</v>
       </c>
       <c r="B479">
         <v>2.09749010064619</v>
@@ -15740,8 +17278,8 @@
       </c>
     </row>
     <row r="480" spans="1:10">
-      <c r="A480" s="2">
-        <v>45719</v>
+      <c r="A480" t="s">
+        <v>488</v>
       </c>
       <c r="B480">
         <v>1.785116575029412</v>
@@ -15772,8 +17310,8 @@
       </c>
     </row>
     <row r="481" spans="1:10">
-      <c r="A481" s="2">
-        <v>45726</v>
+      <c r="A481" t="s">
+        <v>489</v>
       </c>
       <c r="B481">
         <v>1.815928460182456</v>
@@ -15804,8 +17342,8 @@
       </c>
     </row>
     <row r="482" spans="1:10">
-      <c r="A482" s="2">
-        <v>45733</v>
+      <c r="A482" t="s">
+        <v>490</v>
       </c>
       <c r="B482">
         <v>1.882119349760018</v>
@@ -15836,8 +17374,8 @@
       </c>
     </row>
     <row r="483" spans="1:10">
-      <c r="A483" s="2">
-        <v>45740</v>
+      <c r="A483" t="s">
+        <v>491</v>
       </c>
       <c r="B483">
         <v>1.80175842007386</v>
@@ -15868,8 +17406,8 @@
       </c>
     </row>
     <row r="484" spans="1:10">
-      <c r="A484" s="2">
-        <v>45747</v>
+      <c r="A484" t="s">
+        <v>492</v>
       </c>
       <c r="B484">
         <v>1.6985183741486</v>
@@ -15900,8 +17438,8 @@
       </c>
     </row>
     <row r="485" spans="1:10">
-      <c r="A485" s="2">
-        <v>45754</v>
+      <c r="A485" t="s">
+        <v>493</v>
       </c>
       <c r="B485">
         <v>1.808642182982328</v>
@@ -15932,8 +17470,8 @@
       </c>
     </row>
     <row r="486" spans="1:10">
-      <c r="A486" s="2">
-        <v>45761</v>
+      <c r="A486" t="s">
+        <v>494</v>
       </c>
       <c r="B486">
         <v>1.833631359001424</v>
@@ -15964,8 +17502,8 @@
       </c>
     </row>
     <row r="487" spans="1:10">
-      <c r="A487" s="2">
-        <v>45768</v>
+      <c r="A487" t="s">
+        <v>495</v>
       </c>
       <c r="B487">
         <v>2.007064223561584</v>
@@ -15996,8 +17534,8 @@
       </c>
     </row>
     <row r="488" spans="1:10">
-      <c r="A488" s="2">
-        <v>45775</v>
+      <c r="A488" t="s">
+        <v>496</v>
       </c>
       <c r="B488">
         <v>2.00308044182545</v>
@@ -16028,8 +17566,8 @@
       </c>
     </row>
     <row r="489" spans="1:10">
-      <c r="A489" s="2">
-        <v>45782</v>
+      <c r="A489" t="s">
+        <v>497</v>
       </c>
       <c r="B489">
         <v>2.179648447758372</v>
@@ -16060,8 +17598,8 @@
       </c>
     </row>
     <row r="490" spans="1:10">
-      <c r="A490" s="2">
-        <v>45789</v>
+      <c r="A490" t="s">
+        <v>498</v>
       </c>
       <c r="B490">
         <v>2.202843355885606</v>
@@ -16092,8 +17630,8 @@
       </c>
     </row>
     <row r="491" spans="1:10">
-      <c r="A491" s="2">
-        <v>45796</v>
+      <c r="A491" t="s">
+        <v>499</v>
       </c>
       <c r="B491">
         <v>2.239696187839336</v>
@@ -16124,8 +17662,8 @@
       </c>
     </row>
     <row r="492" spans="1:10">
-      <c r="A492" s="2">
-        <v>45803</v>
+      <c r="A492" t="s">
+        <v>500</v>
       </c>
       <c r="B492">
         <v>2.155211438812927</v>
@@ -16156,8 +17694,8 @@
       </c>
     </row>
     <row r="493" spans="1:10">
-      <c r="A493" s="2">
-        <v>45810</v>
+      <c r="A493" t="s">
+        <v>501</v>
       </c>
       <c r="B493">
         <v>2.142933619632606</v>
@@ -16188,8 +17726,8 @@
       </c>
     </row>
     <row r="494" spans="1:10">
-      <c r="A494" s="2">
-        <v>45817</v>
+      <c r="A494" t="s">
+        <v>502</v>
       </c>
       <c r="B494">
         <v>2.128547512337009</v>
@@ -16220,8 +17758,8 @@
       </c>
     </row>
     <row r="495" spans="1:10">
-      <c r="A495" s="2">
-        <v>45824</v>
+      <c r="A495" t="s">
+        <v>503</v>
       </c>
       <c r="B495">
         <v>2.026386313165476</v>
@@ -16252,8 +17790,8 @@
       </c>
     </row>
     <row r="496" spans="1:10">
-      <c r="A496" s="2">
-        <v>45831</v>
+      <c r="A496" t="s">
+        <v>504</v>
       </c>
       <c r="B496">
         <v>2.157441832869742</v>
@@ -16284,8 +17822,8 @@
       </c>
     </row>
     <row r="497" spans="1:10">
-      <c r="A497" s="2">
-        <v>45838</v>
+      <c r="A497" t="s">
+        <v>505</v>
       </c>
       <c r="B497">
         <v>2.08264004428261</v>
@@ -16316,8 +17854,8 @@
       </c>
     </row>
     <row r="498" spans="1:10">
-      <c r="A498" s="2">
-        <v>45845</v>
+      <c r="A498" t="s">
+        <v>506</v>
       </c>
       <c r="B498">
         <v>2.239772720147748</v>
@@ -16348,8 +17886,8 @@
       </c>
     </row>
     <row r="499" spans="1:10">
-      <c r="A499" s="2">
-        <v>45852</v>
+      <c r="A499" t="s">
+        <v>507</v>
       </c>
       <c r="B499">
         <v>2.182370915341739</v>
@@ -16380,8 +17918,8 @@
       </c>
     </row>
     <row r="500" spans="1:10">
-      <c r="A500" s="2">
-        <v>45859</v>
+      <c r="A500" t="s">
+        <v>508</v>
       </c>
       <c r="B500">
         <v>2.195359213879629</v>
@@ -16412,8 +17950,8 @@
       </c>
     </row>
     <row r="501" spans="1:10">
-      <c r="A501" s="2">
-        <v>45866</v>
+      <c r="A501" t="s">
+        <v>509</v>
       </c>
       <c r="B501">
         <v>2.086229037097489</v>
@@ -16444,8 +17982,8 @@
       </c>
     </row>
     <row r="502" spans="1:10">
-      <c r="A502" s="2">
-        <v>45873</v>
+      <c r="A502" t="s">
+        <v>510</v>
       </c>
       <c r="B502">
         <v>2.164097282715636</v>
@@ -16476,8 +18014,8 @@
       </c>
     </row>
     <row r="503" spans="1:10">
-      <c r="A503" s="2">
-        <v>45880</v>
+      <c r="A503" t="s">
+        <v>511</v>
       </c>
       <c r="B503">
         <v>2.113915538491182</v>
@@ -16508,8 +18046,8 @@
       </c>
     </row>
     <row r="504" spans="1:10">
-      <c r="A504" s="2">
-        <v>45887</v>
+      <c r="A504" t="s">
+        <v>512</v>
       </c>
       <c r="B504">
         <v>2.028779640817283</v>
@@ -16540,8 +18078,8 @@
       </c>
     </row>
     <row r="505" spans="1:10">
-      <c r="A505" s="2">
-        <v>45894</v>
+      <c r="A505" t="s">
+        <v>513</v>
       </c>
       <c r="B505">
         <v>1.91577099636756</v>
@@ -16572,8 +18110,8 @@
       </c>
     </row>
     <row r="506" spans="1:10">
-      <c r="A506" s="2">
-        <v>45901</v>
+      <c r="A506" t="s">
+        <v>514</v>
       </c>
       <c r="B506">
         <v>1.957164240434456</v>
@@ -16604,8 +18142,8 @@
       </c>
     </row>
     <row r="507" spans="1:10">
-      <c r="A507" s="2">
-        <v>45908</v>
+      <c r="A507" t="s">
+        <v>515</v>
       </c>
       <c r="B507">
         <v>2.019676286880152</v>
@@ -16636,8 +18174,8 @@
       </c>
     </row>
     <row r="508" spans="1:10">
-      <c r="A508" s="2">
-        <v>45915</v>
+      <c r="A508" t="s">
+        <v>516</v>
       </c>
       <c r="B508">
         <v>2.001572619530331</v>
@@ -16668,8 +18206,8 @@
       </c>
     </row>
     <row r="509" spans="1:10">
-      <c r="A509" s="2">
-        <v>45922</v>
+      <c r="A509" t="s">
+        <v>517</v>
       </c>
       <c r="B509">
         <v>1.935020717728476</v>
@@ -16700,8 +18238,8 @@
       </c>
     </row>
     <row r="510" spans="1:10">
-      <c r="A510" s="2">
-        <v>45929</v>
+      <c r="A510" t="s">
+        <v>518</v>
       </c>
       <c r="B510">
         <v>2.11373623109105</v>
@@ -16732,8 +18270,8 @@
       </c>
     </row>
     <row r="511" spans="1:10">
-      <c r="A511" s="2">
-        <v>45936</v>
+      <c r="A511" t="s">
+        <v>519</v>
       </c>
       <c r="B511">
         <v>1.948183749012429</v>
@@ -16764,8 +18302,8 @@
       </c>
     </row>
     <row r="512" spans="1:10">
-      <c r="A512" s="2">
-        <v>45943</v>
+      <c r="A512" t="s">
+        <v>520</v>
       </c>
       <c r="B512">
         <v>1.819844669819775</v>
@@ -16796,8 +18334,8 @@
       </c>
     </row>
     <row r="513" spans="1:10">
-      <c r="A513" s="2">
-        <v>45950</v>
+      <c r="A513" t="s">
+        <v>521</v>
       </c>
       <c r="B513">
         <v>1.901663910741261</v>
@@ -16828,8 +18366,8 @@
       </c>
     </row>
     <row r="514" spans="1:10">
-      <c r="A514" s="2">
-        <v>45957</v>
+      <c r="A514" t="s">
+        <v>522</v>
       </c>
       <c r="B514">
         <v>1.814608043175372</v>
@@ -16860,8 +18398,8 @@
       </c>
     </row>
     <row r="515" spans="1:10">
-      <c r="A515" s="2">
-        <v>45964</v>
+      <c r="A515" t="s">
+        <v>523</v>
       </c>
       <c r="B515">
         <v>1.662703831034413</v>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
   <si>
     <t>date</t>
   </si>
@@ -1586,6 +1586,9 @@
   </si>
   <si>
     <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J515"/>
+  <dimension ref="A1:J516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18402,7 +18405,7 @@
         <v>523</v>
       </c>
       <c r="B515">
-        <v>1.662703831034413</v>
+        <v>1.701221501440441</v>
       </c>
       <c r="C515">
         <v>0.4833874244237868</v>
@@ -18414,19 +18417,51 @@
         <v>104685.54544097</v>
       </c>
       <c r="F515">
-        <v>1.6266</v>
+        <v>1.6571</v>
       </c>
       <c r="G515">
-        <v>45.7259574</v>
+        <v>46.36746156</v>
       </c>
       <c r="H515">
         <v>1.08222548465759</v>
       </c>
       <c r="I515">
-        <v>0.6005020203657896</v>
+        <v>0.3742016676881788</v>
       </c>
       <c r="J515">
         <v>0.557752788066864</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10">
+      <c r="A516" t="s">
+        <v>524</v>
+      </c>
+      <c r="B516">
+        <v>1.669450381830717</v>
+      </c>
+      <c r="C516">
+        <v>0.4871634535204017</v>
+      </c>
+      <c r="D516">
+        <v>45.29370825428658</v>
+      </c>
+      <c r="E516">
+        <v>102988.81</v>
+      </c>
+      <c r="F516">
+        <v>1.7319</v>
+      </c>
+      <c r="G516">
+        <v>45.41554149</v>
+      </c>
+      <c r="H516">
+        <v>1.069660717385277</v>
+      </c>
+      <c r="I516">
+        <v>0.4081487342959988</v>
+      </c>
+      <c r="J516">
+        <v>0.5437155365943909</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
   <si>
     <t>date</t>
   </si>
@@ -1589,6 +1589,9 @@
   </si>
   <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J516"/>
+  <dimension ref="A1:J517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18437,31 +18440,63 @@
         <v>524</v>
       </c>
       <c r="B516">
-        <v>1.669450381830717</v>
+        <v>1.521883574954484</v>
       </c>
       <c r="C516">
-        <v>0.4871634535204017</v>
+        <v>0.488670037029327</v>
       </c>
       <c r="D516">
-        <v>45.29370825428658</v>
+        <v>39.7152798116895</v>
       </c>
       <c r="E516">
-        <v>102988.81</v>
+        <v>94182.3130996493</v>
       </c>
       <c r="F516">
-        <v>1.7319</v>
+        <v>1.4096</v>
       </c>
       <c r="G516">
-        <v>45.41554149</v>
+        <v>40.39774802</v>
       </c>
       <c r="H516">
-        <v>1.069660717385277</v>
+        <v>1.04807589390622</v>
       </c>
       <c r="I516">
-        <v>0.4081487342959988</v>
+        <v>-0.3124904001975626</v>
       </c>
       <c r="J516">
         <v>0.5437155365943909</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10">
+      <c r="A517" t="s">
+        <v>525</v>
+      </c>
+      <c r="B517">
+        <v>1.49392197634574</v>
+      </c>
+      <c r="C517">
+        <v>0.4946969982761704</v>
+      </c>
+      <c r="D517">
+        <v>39.07532595450733</v>
+      </c>
+      <c r="E517">
+        <v>93094.91</v>
+      </c>
+      <c r="F517">
+        <v>1.3629</v>
+      </c>
+      <c r="G517">
+        <v>39.53576646</v>
+      </c>
+      <c r="H517">
+        <v>1.040926824253796</v>
+      </c>
+      <c r="I517">
+        <v>0.4096439733385804</v>
+      </c>
+      <c r="J517">
+        <v>0.5275019407272339</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
   <si>
     <t>date</t>
   </si>
@@ -1592,6 +1592,9 @@
   </si>
   <si>
     <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J517"/>
+  <dimension ref="A1:J518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18472,31 +18475,63 @@
         <v>525</v>
       </c>
       <c r="B517">
-        <v>1.49392197634574</v>
+        <v>1.349009825111338</v>
       </c>
       <c r="C517">
-        <v>0.4946969982761704</v>
+        <v>0.4957930306585881</v>
       </c>
       <c r="D517">
-        <v>39.07532595450733</v>
+        <v>35.77649510142528</v>
       </c>
       <c r="E517">
-        <v>93094.91</v>
+        <v>86872.4546630625</v>
       </c>
       <c r="F517">
-        <v>1.3629</v>
+        <v>1.0282</v>
       </c>
       <c r="G517">
-        <v>39.53576646</v>
+        <v>35.07794337</v>
       </c>
       <c r="H517">
         <v>1.040926824253796</v>
       </c>
       <c r="I517">
-        <v>0.4096439733385804</v>
+        <v>9.809361762727109</v>
       </c>
       <c r="J517">
         <v>0.5275019407272339</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10">
+      <c r="A518" t="s">
+        <v>526</v>
+      </c>
+      <c r="B518">
+        <v>1.356412129238436</v>
+      </c>
+      <c r="C518">
+        <v>0.5050769156994355</v>
+      </c>
+      <c r="D518">
+        <v>36.37739678470717</v>
+      </c>
+      <c r="E518">
+        <v>87518.87</v>
+      </c>
+      <c r="F518">
+        <v>1.0922</v>
+      </c>
+      <c r="G518">
+        <v>35.50400265</v>
+      </c>
+      <c r="H518">
+        <v>1.034876224629532</v>
+      </c>
+      <c r="I518">
+        <v>-0.2794252376152384</v>
+      </c>
+      <c r="J518">
+        <v>0.513940155506134</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
   <si>
     <t>date</t>
   </si>
@@ -1595,6 +1595,9 @@
   </si>
   <si>
     <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J518"/>
+  <dimension ref="A1:J519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18507,31 +18510,63 @@
         <v>526</v>
       </c>
       <c r="B518">
-        <v>1.356412129238436</v>
+        <v>1.401444320907566</v>
       </c>
       <c r="C518">
-        <v>0.5050769156994355</v>
+        <v>0.5045113958645325</v>
       </c>
       <c r="D518">
-        <v>36.37739678470717</v>
+        <v>39.10015010970322</v>
       </c>
       <c r="E518">
-        <v>87518.87</v>
+        <v>90607.70215137349</v>
       </c>
       <c r="F518">
-        <v>1.0922</v>
+        <v>1.2229</v>
       </c>
       <c r="G518">
-        <v>35.50400265</v>
+        <v>37.72022421</v>
       </c>
       <c r="H518">
-        <v>1.034876224629532</v>
+        <v>1.017624548443323</v>
       </c>
       <c r="I518">
-        <v>-0.2794252376152384</v>
+        <v>-0.2364572860137804</v>
       </c>
       <c r="J518">
         <v>0.513940155506134</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10">
+      <c r="A519" t="s">
+        <v>527</v>
+      </c>
+      <c r="B519">
+        <v>1.419555977371469</v>
+      </c>
+      <c r="C519">
+        <v>0.5126241170620568</v>
+      </c>
+      <c r="D519">
+        <v>40.31216557015435</v>
+      </c>
+      <c r="E519">
+        <v>91968.63</v>
+      </c>
+      <c r="F519">
+        <v>1.2099</v>
+      </c>
+      <c r="G519">
+        <v>38.40843547</v>
+      </c>
+      <c r="H519">
+        <v>1.015068815655491</v>
+      </c>
+      <c r="I519">
+        <v>-0.7349368629733233</v>
+      </c>
+      <c r="J519">
+        <v>0.4949685633182526</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="529">
   <si>
     <t>date</t>
   </si>
@@ -1598,6 +1598,9 @@
   </si>
   <si>
     <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J519"/>
+  <dimension ref="A1:J520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18542,31 +18545,63 @@
         <v>527</v>
       </c>
       <c r="B519">
-        <v>1.419555977371469</v>
+        <v>1.386715468462165</v>
       </c>
       <c r="C519">
-        <v>0.5126241170620568</v>
+        <v>0.5129830247969808</v>
       </c>
       <c r="D519">
-        <v>40.31216557015435</v>
+        <v>38.7877160496852</v>
       </c>
       <c r="E519">
-        <v>91968.63</v>
+        <v>90067.84739947401</v>
       </c>
       <c r="F519">
-        <v>1.2099</v>
+        <v>1.1582</v>
       </c>
       <c r="G519">
-        <v>38.40843547</v>
+        <v>37.44107526</v>
       </c>
       <c r="H519">
         <v>1.015068815655491</v>
       </c>
       <c r="I519">
-        <v>-0.7349368629733233</v>
+        <v>-0.2053438633553006</v>
       </c>
       <c r="J519">
         <v>0.4949685633182526</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10">
+      <c r="A520" t="s">
+        <v>528</v>
+      </c>
+      <c r="B520">
+        <v>1.423784928220244</v>
+      </c>
+      <c r="C520">
+        <v>0.5216678712178725</v>
+      </c>
+      <c r="D520">
+        <v>41.2955411678324</v>
+      </c>
+      <c r="E520">
+        <v>92747.87</v>
+      </c>
+      <c r="F520">
+        <v>1.1987</v>
+      </c>
+      <c r="G520">
+        <v>38.79945224</v>
+      </c>
+      <c r="H520">
+        <v>1.012888383037835</v>
+      </c>
+      <c r="I520">
+        <v>0.2611246434511383</v>
+      </c>
+      <c r="J520">
+        <v>0.4732770621776581</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
   <si>
     <t>date</t>
   </si>
@@ -1601,6 +1601,9 @@
   </si>
   <si>
     <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J520"/>
+  <dimension ref="A1:J521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18577,31 +18580,63 @@
         <v>528</v>
       </c>
       <c r="B520">
-        <v>1.423784928220244</v>
+        <v>1.349299123845508</v>
       </c>
       <c r="C520">
-        <v>0.5216678712178725</v>
+        <v>0.5225784803711364</v>
       </c>
       <c r="D520">
-        <v>41.2955411678324</v>
+        <v>37.60594529948015</v>
       </c>
       <c r="E520">
-        <v>92747.87</v>
+        <v>88096.3826142607</v>
       </c>
       <c r="F520">
-        <v>1.1987</v>
+        <v>1.1972</v>
       </c>
       <c r="G520">
-        <v>38.79945224</v>
+        <v>38.20567971</v>
       </c>
       <c r="H520">
-        <v>1.012888383037835</v>
+        <v>1.006464481011862</v>
       </c>
       <c r="I520">
-        <v>0.2611246434511383</v>
+        <v>-0.2223537794187047</v>
       </c>
       <c r="J520">
         <v>0.4732770621776581</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10">
+      <c r="A521" t="s">
+        <v>529</v>
+      </c>
+      <c r="B521">
+        <v>1.340766279961328</v>
+      </c>
+      <c r="C521">
+        <v>0.5313941917280528</v>
+      </c>
+      <c r="D521">
+        <v>37.42009157661597</v>
+      </c>
+      <c r="E521">
+        <v>87797.96000000001</v>
+      </c>
+      <c r="F521">
+        <v>1.1256</v>
+      </c>
+      <c r="G521">
+        <v>35.82265955</v>
+      </c>
+      <c r="H521">
+        <v>1.005535871362267</v>
+      </c>
+      <c r="I521">
+        <v>-0.3455406070315359</v>
+      </c>
+      <c r="J521">
+        <v>0.4528069496154785</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
   <si>
     <t>date</t>
   </si>
@@ -1604,6 +1604,9 @@
   </si>
   <si>
     <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J521"/>
+  <dimension ref="A1:J522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18612,31 +18615,63 @@
         <v>529</v>
       </c>
       <c r="B521">
-        <v>1.340766279961328</v>
+        <v>1.350713539293599</v>
       </c>
       <c r="C521">
-        <v>0.5313941917280528</v>
+        <v>0.5312451085288298</v>
       </c>
       <c r="D521">
-        <v>37.42009157661597</v>
+        <v>38.05651277955078</v>
       </c>
       <c r="E521">
-        <v>87797.96000000001</v>
+        <v>88533.4309830508</v>
       </c>
       <c r="F521">
-        <v>1.1256</v>
+        <v>1.1338</v>
       </c>
       <c r="G521">
-        <v>35.82265955</v>
+        <v>36.3985911</v>
       </c>
       <c r="H521">
         <v>1.005535871362267</v>
       </c>
       <c r="I521">
-        <v>-0.3455406070315359</v>
+        <v>0.2135710460831497</v>
       </c>
       <c r="J521">
         <v>0.4528069496154785</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10">
+      <c r="A522" t="s">
+        <v>530</v>
+      </c>
+      <c r="B522">
+        <v>1.329838711514915</v>
+      </c>
+      <c r="C522">
+        <v>0.541681608690224</v>
+      </c>
+      <c r="D522">
+        <v>37.27803013706419</v>
+      </c>
+      <c r="E522">
+        <v>87359.82000000001</v>
+      </c>
+      <c r="F522">
+        <v>1.1362</v>
+      </c>
+      <c r="G522">
+        <v>35.5192758</v>
+      </c>
+      <c r="H522">
+        <v>1.004741283005827</v>
+      </c>
+      <c r="I522">
+        <v>-0.1602629123450439</v>
+      </c>
+      <c r="J522">
+        <v>0.4306347668170929</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>date</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J522"/>
+  <dimension ref="A1:J523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18647,31 +18650,63 @@
         <v>530</v>
       </c>
       <c r="B522">
-        <v>1.329838711514915</v>
+        <v>1.335946664184492</v>
       </c>
       <c r="C522">
-        <v>0.541681608690224</v>
+        <v>0.541599912332735</v>
       </c>
       <c r="D522">
-        <v>37.27803013706419</v>
+        <v>37.53173857703601</v>
       </c>
       <c r="E522">
-        <v>87359.82000000001</v>
+        <v>87747.6491548802</v>
       </c>
       <c r="F522">
-        <v>1.1362</v>
+        <v>1.114</v>
       </c>
       <c r="G522">
-        <v>35.5192758</v>
+        <v>37.56551809</v>
       </c>
       <c r="H522">
-        <v>1.004741283005827</v>
+        <v>1.005107821646997</v>
       </c>
       <c r="I522">
-        <v>-0.1602629123450439</v>
+        <v>-0.4949381992479962</v>
       </c>
       <c r="J522">
         <v>0.4306347668170929</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10">
+      <c r="A523" t="s">
+        <v>531</v>
+      </c>
+      <c r="B523">
+        <v>1.344832957767368</v>
+      </c>
+      <c r="C523">
+        <v>0.5516552854925858</v>
+      </c>
+      <c r="D523">
+        <v>38.3583632331621</v>
+      </c>
+      <c r="E523">
+        <v>88457.24000000001</v>
+      </c>
+      <c r="F523">
+        <v>1.0911</v>
+      </c>
+      <c r="G523">
+        <v>36.07924048</v>
+      </c>
+      <c r="H523">
+        <v>1.004374940495174</v>
+      </c>
+      <c r="I523">
+        <v>-0.5894090327573154</v>
+      </c>
+      <c r="J523">
+        <v>0.40891432762146</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>date</t>
   </si>
@@ -1610,6 +1610,9 @@
   </si>
   <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J523"/>
+  <dimension ref="A1:J524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18682,31 +18685,63 @@
         <v>531</v>
       </c>
       <c r="B523">
-        <v>1.344832957767368</v>
+        <v>1.387423803512976</v>
       </c>
       <c r="C523">
-        <v>0.5516552854925858</v>
+        <v>0.551022137016962</v>
       </c>
       <c r="D523">
-        <v>38.3583632331621</v>
+        <v>41.52353867712083</v>
       </c>
       <c r="E523">
-        <v>88457.24000000001</v>
+        <v>91359.7636823495</v>
       </c>
       <c r="F523">
-        <v>1.0911</v>
+        <v>1.208</v>
       </c>
       <c r="G523">
-        <v>36.07924048</v>
+        <v>38.55096528</v>
       </c>
       <c r="H523">
         <v>1.004374940495174</v>
       </c>
       <c r="I523">
-        <v>-0.5894090327573154</v>
+        <v>0.2237495583681692</v>
       </c>
       <c r="J523">
         <v>0.40891432762146</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10">
+      <c r="A524" t="s">
+        <v>532</v>
+      </c>
+      <c r="B524">
+        <v>1.417519277660677</v>
+      </c>
+      <c r="C524">
+        <v>0.5591324842907082</v>
+      </c>
+      <c r="D524">
+        <v>43.74335552152357</v>
+      </c>
+      <c r="E524">
+        <v>93430.91</v>
+      </c>
+      <c r="F524">
+        <v>1.3209</v>
+      </c>
+      <c r="G524">
+        <v>40.65565531</v>
+      </c>
+      <c r="H524">
+        <v>1.003747606773487</v>
+      </c>
+      <c r="I524">
+        <v>0.4729525012536984</v>
+      </c>
+      <c r="J524">
+        <v>0.3908930122852325</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t>date</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J524"/>
+  <dimension ref="A1:J525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18717,31 +18720,63 @@
         <v>532</v>
       </c>
       <c r="B524">
-        <v>1.417519277660677</v>
+        <v>1.372499394756471</v>
       </c>
       <c r="C524">
-        <v>0.5591324842907082</v>
+        <v>0.5597409439550858</v>
       </c>
       <c r="D524">
-        <v>43.74335552152357</v>
+        <v>41.0213643057216</v>
       </c>
       <c r="E524">
-        <v>93430.91</v>
+        <v>90717.20631531269</v>
       </c>
       <c r="F524">
-        <v>1.3209</v>
+        <v>1.1986</v>
       </c>
       <c r="G524">
-        <v>40.65565531</v>
+        <v>38.23672058</v>
       </c>
       <c r="H524">
-        <v>1.003747606773487</v>
+        <v>0.9933726580210821</v>
       </c>
       <c r="I524">
-        <v>0.4729525012536984</v>
+        <v>-0.5399811447804437</v>
       </c>
       <c r="J524">
         <v>0.3908930122852325</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10">
+      <c r="A525" t="s">
+        <v>533</v>
+      </c>
+      <c r="B525">
+        <v>1.44829033606373</v>
+      </c>
+      <c r="C525">
+        <v>0.565839366854368</v>
+      </c>
+      <c r="D525">
+        <v>46.62480424252142</v>
+      </c>
+      <c r="E525">
+        <v>95896.64</v>
+      </c>
+      <c r="F525">
+        <v>1.2231</v>
+      </c>
+      <c r="G525">
+        <v>38.83517274</v>
+      </c>
+      <c r="H525">
+        <v>0.9943140379015981</v>
+      </c>
+      <c r="I525">
+        <v>0.812857552079338</v>
+      </c>
+      <c r="J525">
+        <v>0.3742347061634064</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
   <si>
     <t>date</t>
   </si>
@@ -1616,6 +1616,9 @@
   </si>
   <si>
     <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J525"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18752,31 +18755,63 @@
         <v>533</v>
       </c>
       <c r="B525">
-        <v>1.44829033606373</v>
+        <v>1.423142211860008</v>
       </c>
       <c r="C525">
-        <v>0.565839366854368</v>
+        <v>0.5662139592655224</v>
       </c>
       <c r="D525">
-        <v>46.62480424252142</v>
+        <v>44.97419461704295</v>
       </c>
       <c r="E525">
-        <v>95896.64</v>
+        <v>94261.3294313267</v>
       </c>
       <c r="F525">
-        <v>1.2231</v>
+        <v>1.3268</v>
       </c>
       <c r="G525">
-        <v>38.83517274</v>
+        <v>41.10974636</v>
       </c>
       <c r="H525">
         <v>0.9943140379015981</v>
       </c>
       <c r="I525">
-        <v>0.812857552079338</v>
+        <v>0.3287175967647382</v>
       </c>
       <c r="J525">
         <v>0.3742347061634064</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10">
+      <c r="A526" t="s">
+        <v>534</v>
+      </c>
+      <c r="B526">
+        <v>1.333561248245897</v>
+      </c>
+      <c r="C526">
+        <v>0.5747277351703084</v>
+      </c>
+      <c r="D526">
+        <v>40.19968560707</v>
+      </c>
+      <c r="E526">
+        <v>88429.34</v>
+      </c>
+      <c r="F526">
+        <v>1.2589</v>
+      </c>
+      <c r="G526">
+        <v>39.57107862</v>
+      </c>
+      <c r="H526">
+        <v>0.9951223561873915</v>
+      </c>
+      <c r="I526">
+        <v>-0.8840379366437223</v>
+      </c>
+      <c r="J526">
+        <v>0.3610959947109222</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>date</t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18787,31 +18790,63 @@
         <v>534</v>
       </c>
       <c r="B526">
-        <v>1.333561248245897</v>
+        <v>1.301474214472613</v>
       </c>
       <c r="C526">
-        <v>0.5747277351703084</v>
+        <v>0.5751965254092593</v>
       </c>
       <c r="D526">
-        <v>40.19968560707</v>
+        <v>38.79869567142311</v>
       </c>
       <c r="E526">
-        <v>88429.34</v>
+        <v>86445.6705926359</v>
       </c>
       <c r="F526">
-        <v>1.2589</v>
+        <v>1.157</v>
       </c>
       <c r="G526">
-        <v>39.57107862</v>
+        <v>37.68160623</v>
       </c>
       <c r="H526">
-        <v>0.9951223561873915</v>
+        <v>0.9669903287387845</v>
       </c>
       <c r="I526">
-        <v>-0.8840379366437223</v>
+        <v>-0.3865445204441986</v>
       </c>
       <c r="J526">
         <v>0.3610959947109222</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10">
+      <c r="A527" t="s">
+        <v>535</v>
+      </c>
+      <c r="B527">
+        <v>1.342612056367259</v>
+      </c>
+      <c r="C527">
+        <v>0.5849473076060449</v>
+      </c>
+      <c r="D527">
+        <v>41.85569440086033</v>
+      </c>
+      <c r="E527">
+        <v>89224.49000000001</v>
+      </c>
+      <c r="F527">
+        <v>1.1278</v>
+      </c>
+      <c r="G527">
+        <v>36.71011869</v>
+      </c>
+      <c r="H527">
+        <v>0.9715719387824746</v>
+      </c>
+      <c r="I527">
+        <v>0.05513949408570973</v>
+      </c>
+      <c r="J527">
+        <v>0.3479816317558289</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t>date</t>
   </si>
@@ -1622,6 +1622,9 @@
   </si>
   <si>
     <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18822,31 +18825,63 @@
         <v>535</v>
       </c>
       <c r="B527">
-        <v>1.342612056367259</v>
+        <v>1.155820203710383</v>
       </c>
       <c r="C527">
-        <v>0.5849473076060449</v>
+        <v>0.5879779839768365</v>
       </c>
       <c r="D527">
-        <v>41.85569440086033</v>
+        <v>32.86917187010557</v>
       </c>
       <c r="E527">
-        <v>89224.49000000001</v>
+        <v>76911.0523772648</v>
       </c>
       <c r="F527">
-        <v>1.1278</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="G527">
-        <v>36.71011869</v>
+        <v>28.84326545</v>
       </c>
       <c r="H527">
         <v>0.9715719387824746</v>
       </c>
       <c r="I527">
-        <v>0.05513949408570973</v>
+        <v>-0.8322402614550195</v>
       </c>
       <c r="J527">
         <v>0.3479816317558289</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10">
+      <c r="A528" t="s">
+        <v>536</v>
+      </c>
+      <c r="B528">
+        <v>1.133872983034768</v>
+      </c>
+      <c r="C528">
+        <v>0.6018068449055457</v>
+      </c>
+      <c r="D528">
+        <v>32.13173149275569</v>
+      </c>
+      <c r="E528">
+        <v>75581.49000000001</v>
+      </c>
+      <c r="F528">
+        <v>0.8051</v>
+      </c>
+      <c r="G528">
+        <v>29.49624364</v>
+      </c>
+      <c r="H528">
+        <v>0.9755337291499082</v>
+      </c>
+      <c r="I528">
+        <v>-2.065672289627163</v>
+      </c>
+      <c r="J528">
+        <v>0.3302477300167084</v>
       </c>
     </row>
   </sheetData>

--- a/static/assets/LastUpdatedWithPredictions.xlsx
+++ b/static/assets/LastUpdatedWithPredictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="538">
   <si>
     <t>date</t>
   </si>
@@ -1625,6 +1625,9 @@
   </si>
   <si>
     <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J528"/>
+  <dimension ref="A1:J529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18857,31 +18860,63 @@
         <v>536</v>
       </c>
       <c r="B528">
-        <v>1.133872983034768</v>
+        <v>1.055362790423987</v>
       </c>
       <c r="C528">
-        <v>0.6018068449055457</v>
+        <v>0.6031252438164604</v>
       </c>
       <c r="D528">
-        <v>32.13173149275569</v>
+        <v>29.60450911923725</v>
       </c>
       <c r="E528">
-        <v>75581.49000000001</v>
+        <v>70522.5892393337</v>
       </c>
       <c r="F528">
-        <v>0.8051</v>
+        <v>0.4977</v>
       </c>
       <c r="G528">
-        <v>29.49624364</v>
+        <v>20.7013788</v>
       </c>
       <c r="H528">
-        <v>0.9755337291499082</v>
+        <v>0.8803967893661431</v>
       </c>
       <c r="I528">
-        <v>-2.065672289627163</v>
+        <v>0.2321229930788649</v>
       </c>
       <c r="J528">
         <v>0.3302477300167084</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10">
+      <c r="A529" t="s">
+        <v>537</v>
+      </c>
+      <c r="B529">
+        <v>1.026573151777872</v>
+      </c>
+      <c r="C529">
+        <v>0.6185959320803529</v>
+      </c>
+      <c r="D529">
+        <v>28.72867808787964</v>
+      </c>
+      <c r="E529">
+        <v>68701.77</v>
+      </c>
+      <c r="F529">
+        <v>0.5333</v>
+      </c>
+      <c r="G529">
+        <v>22.02135163</v>
+      </c>
+      <c r="H529">
+        <v>0.89570088967656</v>
+      </c>
+      <c r="I529">
+        <v>-1.361275679537277</v>
+      </c>
+      <c r="J529">
+        <v>0.3104479610919952</v>
       </c>
     </row>
   </sheetData>
